--- a/OpenGoalZ.xlsx
+++ b/OpenGoalZ.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pgranger\git\OpenGoalZ\SupaBase\opengoalz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B39950A-DE01-434E-9F43-E038888F47B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37306A5-5269-4D41-A4F9-DD742D917D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats_CoefMatrix" sheetId="4" r:id="rId1"/>
-    <sheet name="ALL_players_name" sheetId="6" r:id="rId2"/>
-    <sheet name="83_FRANCE" sheetId="8" r:id="rId3"/>
-    <sheet name="233_UK" sheetId="9" r:id="rId4"/>
+    <sheet name="TrainingPoints" sheetId="10" r:id="rId2"/>
+    <sheet name="ALL_players_name" sheetId="6" r:id="rId3"/>
+    <sheet name="83_FRANCE" sheetId="8" r:id="rId4"/>
+    <sheet name="233_UK" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2635" uniqueCount="1344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2639" uniqueCount="1347">
   <si>
     <t>RightDefense</t>
   </si>
@@ -4071,6 +4072,15 @@
   </si>
   <si>
     <t>las_name</t>
+  </si>
+  <si>
+    <t>Staff weight</t>
+  </si>
+  <si>
+    <t>Coef</t>
+  </si>
+  <si>
+    <t>Age</t>
   </si>
 </sst>
 </file>
@@ -4548,6 +4558,1813 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>TrainingPoints!$A$11:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>TrainingPoints!$B$11:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FCFD-444A-B64B-5564DE658992}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1794542367"/>
+        <c:axId val="1794547167"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1794542367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1794547167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1794547167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1794542367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>TrainingPoints!$A$17:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>TrainingPoints!$B$17:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DFE0-4023-9884-3AB5E91338F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1794542367"/>
+        <c:axId val="1794547167"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1794542367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1794547167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1794547167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1794542367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3CEA0E0-D119-4211-86B2-5863EE2C6045}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{006706A2-23C2-47FD-8939-71E26D41B22C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4847,8 +6664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9532,6 +11349,89 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACDF6F56-3115-4EA0-ACCE-349D961B88C3}">
+  <dimension ref="A10:B19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1000</v>
+      </c>
+      <c r="B12">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5000</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29AF976-DF20-4755-BA2E-2FAFD83FFAEC}">
   <dimension ref="A1:D1041"/>
   <sheetViews>
@@ -14885,7 +16785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39D9AE7D-E251-407C-83E5-68098C34D0A8}">
   <dimension ref="A1:D941"/>
   <sheetViews>
@@ -28079,7 +29979,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A26C3C4-8FD1-4738-85E0-113A8C3427C6}">
   <dimension ref="A1:D101"/>
   <sheetViews>

--- a/OpenGoalZ.xlsx
+++ b/OpenGoalZ.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pgranger\git\OpenGoalZ\SupaBase\opengoalz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37306A5-5269-4D41-A4F9-DD742D917D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E63536-21CA-4E6E-863C-BBB8258D8D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats_CoefMatrix" sheetId="4" r:id="rId1"/>
     <sheet name="TrainingPoints" sheetId="10" r:id="rId2"/>
-    <sheet name="ALL_players_name" sheetId="6" r:id="rId3"/>
-    <sheet name="83_FRANCE" sheetId="8" r:id="rId4"/>
-    <sheet name="233_UK" sheetId="9" r:id="rId5"/>
+    <sheet name="game_events_type" sheetId="11" r:id="rId3"/>
+    <sheet name="ALL_players_name" sheetId="6" r:id="rId4"/>
+    <sheet name="83_FRANCE" sheetId="8" r:id="rId5"/>
+    <sheet name="233_UK" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2639" uniqueCount="1347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2698" uniqueCount="1387">
   <si>
     <t>RightDefense</t>
   </si>
@@ -4081,6 +4082,126 @@
   </si>
   <si>
     <t>Age</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>event_type</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>goal</t>
+  </si>
+  <si>
+    <t>{player1} scored a goal !</t>
+  </si>
+  <si>
+    <t>injury</t>
+  </si>
+  <si>
+    <t>{player1} got injured !</t>
+  </si>
+  <si>
+    <t>yellow card</t>
+  </si>
+  <si>
+    <t>{player1} received a yellow card</t>
+  </si>
+  <si>
+    <t>opportunity</t>
+  </si>
+  <si>
+    <t>{player1} was soooo close from scoring a splendid goal</t>
+  </si>
+  <si>
+    <t>game start</t>
+  </si>
+  <si>
+    <t>This is the beginning of the game, I hope we're gonna see some nice football here !</t>
+  </si>
+  <si>
+    <t>half time</t>
+  </si>
+  <si>
+    <t>It's half time here, let's let the players rest !</t>
+  </si>
+  <si>
+    <t>game end</t>
+  </si>
+  <si>
+    <t>The referee blows his whistle, the game is over, it was a pleasure commenting it ! See you next time</t>
+  </si>
+  <si>
+    <t>order error</t>
+  </si>
+  <si>
+    <t>Oups, it seems that the manager got messed up with a game order. The manager can be seen scrapping his sheet</t>
+  </si>
+  <si>
+    <t>substitution</t>
+  </si>
+  <si>
+    <t>{player1} replaces {player2}, let's hope this is a good idea !</t>
+  </si>
+  <si>
+    <t>A stunning goal from {player1} after a brilliant run down the wing and a poor clearance from {player3}!</t>
+  </si>
+  <si>
+    <t>{player1} finds the back of the net with a beautiful volley after a long pass from {player2}</t>
+  </si>
+  <si>
+    <t>{player1} scores a penalty kick after being fouled by {player3}!</t>
+  </si>
+  <si>
+    <t>{player1} scores an own goal after a misplaced pass from {player3}!</t>
+  </si>
+  <si>
+    <t>{player1} scores a goal from a free kick after a foul by {player3}!</t>
+  </si>
+  <si>
+    <t>{player1} scores a goal with a powerful shot from outside the box after a pass from {player2}</t>
+  </si>
+  <si>
+    <t>{player1} scores a goal with a header after a cross from {player2}</t>
+  </si>
+  <si>
+    <t>{player1} scores a goal with a powerful strike after a dribble past {player3}!</t>
+  </si>
+  <si>
+    <t>{player1} scores a goal with a beautiful chip over {player3}!</t>
+  </si>
+  <si>
+    <t>{player1} has a great opportunity to score, but {player3} makes a crucial tackle to block the shot!</t>
+  </si>
+  <si>
+    <t>{player1} gets a beautiful pass from {player2} and has a clear shot on goal, but {player3} makes a diving save to keep the ball out!</t>
+  </si>
+  <si>
+    <t>{player1} has a chance to score after a rebound, but {player3} is quick to get there and clear the ball!</t>
+  </si>
+  <si>
+    <t>{player1} has a one-on-one with the goalkeeper, but {player3} makes a quick reaction to block the shot!</t>
+  </si>
+  <si>
+    <t>{player1} has a great opportunity to score after a cross from {player2}, but {player3} gets a touch on the ball to deflect it away!</t>
+  </si>
+  <si>
+    <t>{player1} misses a golden opportunity to score, blasting the ball over the crossbar!</t>
+  </si>
+  <si>
+    <t>{player1} has a clear shot on goal, but {player3} gets a touch on the ball and deflects it wide!</t>
+  </si>
+  <si>
+    <t>{player1} has a chance to score after a pass from {player2}, but {player3} makes a crucial tackle to block the shot!</t>
+  </si>
+  <si>
+    <t>{player1} has a one-on-one with the goalkeeper, but {player1} fails to finish the shot!</t>
+  </si>
+  <si>
+    <t>{player1} has a chance to score after a rebound, but {player1} sends the ball wide of the goal!</t>
   </si>
 </sst>
 </file>
@@ -4451,7 +4572,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4536,6 +4657,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -11352,7 +11476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACDF6F56-3115-4EA0-ACCE-349D961B88C3}">
   <dimension ref="A10:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -11432,6 +11556,351 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C48BD7BE-3FB6-4C74-86CD-A8DBD21EECA7}">
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="103" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1357</v>
+      </c>
+      <c r="H5" s="29"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1359</v>
+      </c>
+      <c r="H6" s="29"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1361</v>
+      </c>
+      <c r="H7" s="29"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1363</v>
+      </c>
+      <c r="H8" s="29"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H9" s="29"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29AF976-DF20-4755-BA2E-2FAFD83FFAEC}">
   <dimension ref="A1:D1041"/>
   <sheetViews>
@@ -16785,7 +17254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39D9AE7D-E251-407C-83E5-68098C34D0A8}">
   <dimension ref="A1:D941"/>
   <sheetViews>
@@ -29979,7 +30448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A26C3C4-8FD1-4738-85E0-113A8C3427C6}">
   <dimension ref="A1:D101"/>
   <sheetViews>

--- a/OpenGoalZ.xlsx
+++ b/OpenGoalZ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pgranger\git\OpenGoalZ\SupaBase\opengoalz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C712DCA7-FC86-40A6-808B-DE1B42062BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BEB9EB-AA90-4D42-A6F8-3363197A98D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats_CoefMatrix" sheetId="4" r:id="rId1"/>
@@ -7202,7 +7202,7 @@
   <dimension ref="A1:R157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/OpenGoalZ.xlsx
+++ b/OpenGoalZ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ed35836b10785304/git/opengoalz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="221" documentId="13_ncr:1_{90BEB9EB-AA90-4D42-A6F8-3363197A98D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71BC909B-FA3F-4E7C-A90B-90401D5748B9}"/>
+  <xr:revisionPtr revIDLastSave="229" documentId="13_ncr:1_{90BEB9EB-AA90-4D42-A6F8-3363197A98D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1343410A-18B4-4BDA-AB7D-C637B31A3CBF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats_CoefMatrix" sheetId="4" r:id="rId1"/>
@@ -5561,10 +5561,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>TrainingPoints!$A$17:$A$19</c:f>
+              <c:f>TrainingPoints!$A$17:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>15</c:v>
                 </c:pt>
@@ -5579,12 +5579,12 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>TrainingPoints!$B$17:$B$19</c:f>
+              <c:f>TrainingPoints!$B$17:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.75</c:v>
@@ -5617,6 +5617,7 @@
         <c:axId val="1794542367"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="15"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -6982,6 +6983,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7281,8 +7286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="F164" sqref="F164"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12435,8 +12440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACDF6F56-3115-4EA0-ACCE-349D961B88C3}">
   <dimension ref="A10:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12489,7 +12494,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -12510,7 +12515,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/OpenGoalZ.xlsx
+++ b/OpenGoalZ.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="229" documentId="13_ncr:1_{90BEB9EB-AA90-4D42-A6F8-3363197A98D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1343410A-18B4-4BDA-AB7D-C637B31A3CBF}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats_CoefMatrix" sheetId="4" r:id="rId1"/>
@@ -12441,7 +12441,7 @@
   <dimension ref="A10:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/OpenGoalZ.xlsx
+++ b/OpenGoalZ.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ed35836b10785304/git/opengoalz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="229" documentId="13_ncr:1_{90BEB9EB-AA90-4D42-A6F8-3363197A98D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1343410A-18B4-4BDA-AB7D-C637B31A3CBF}"/>
+  <xr:revisionPtr revIDLastSave="246" documentId="13_ncr:1_{90BEB9EB-AA90-4D42-A6F8-3363197A98D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC7AF9FA-A6D9-45B1-84DE-532E0BFD7513}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats_CoefMatrix" sheetId="4" r:id="rId1"/>
     <sheet name="TrainingPoints" sheetId="10" r:id="rId2"/>
-    <sheet name="game_events_type" sheetId="11" r:id="rId3"/>
-    <sheet name="ALL_players_name" sheetId="6" r:id="rId4"/>
-    <sheet name="83_FRANCE" sheetId="8" r:id="rId5"/>
-    <sheet name="233_UK" sheetId="9" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId3"/>
+    <sheet name="game_events_type" sheetId="11" r:id="rId4"/>
+    <sheet name="ALL_players_name" sheetId="6" r:id="rId5"/>
+    <sheet name="83_FRANCE" sheetId="8" r:id="rId6"/>
+    <sheet name="233_UK" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4793" uniqueCount="1520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5158" uniqueCount="1705">
   <si>
     <t>RightDefense</t>
   </si>
@@ -4601,6 +4602,561 @@
   </si>
   <si>
     <t>300 Nom Famille Espagnol</t>
+  </si>
+  <si>
+    <t>****** MAIN: Multiverse [The Original] Handling S1 WEEK 1</t>
+  </si>
+  <si>
+    <t>*** MAIN: Running Simulate Games...</t>
+  </si>
+  <si>
+    <t>*** MAIN: Running Handle Clubs...</t>
+  </si>
+  <si>
+    <t>*** MAIN: Running Handle Players...</t>
+  </si>
+  <si>
+    <t>*** MAIN: Running Handle Season...</t>
+  </si>
+  <si>
+    <t>****** MAIN: Multiverse [The Original] Handling S1 WEEK 2</t>
+  </si>
+  <si>
+    <t>****** MAIN: Multiverse [The Original] Handling S1 WEEK 3</t>
+  </si>
+  <si>
+    <t>****** MAIN: Multiverse [The Original] Handling S1 WEEK 4</t>
+  </si>
+  <si>
+    <t>****** MAIN: Multiverse [The Original] Handling S1 WEEK 5</t>
+  </si>
+  <si>
+    <t>****** MAIN: Multiverse [The Original] Handling S1 WEEK 6</t>
+  </si>
+  <si>
+    <t>****** MAIN: Multiverse [The Original] Handling S1 WEEK 7</t>
+  </si>
+  <si>
+    <t>****** MAIN: Multiverse [The Original] Handling S1 WEEK 8</t>
+  </si>
+  <si>
+    <t>****** MAIN: Multiverse [The Original] Handling S1 WEEK 9</t>
+  </si>
+  <si>
+    <t>****** MAIN: Multiverse [The Original] Handling S1 WEEK 10</t>
+  </si>
+  <si>
+    <t>game.id= 1783</t>
+  </si>
+  <si>
+    <t>loc_array_id_clubs = {NULL,NULL}</t>
+  </si>
+  <si>
+    <t>loc_array_id_leagues = {6,6}</t>
+  </si>
+  <si>
+    <t>loc_array_id_games = {NULL,NULL}</t>
+  </si>
+  <si>
+    <t>loc_array_pos_clubs = {6,1}</t>
+  </si>
+  <si>
+    <t>Entrée dans le IF de LEAGUES: loc_array_id_leagues[I]= 6</t>
+  </si>
+  <si>
+    <t>****** MAIN: Multiverse [The Original] Handling S1 WEEK 11</t>
+  </si>
+  <si>
+    <t>****** MAIN: Multiverse [The Original] Handling S1 WEEK 12</t>
+  </si>
+  <si>
+    <t>****** MAIN: Multiverse [The Original] Handling S1 WEEK 13</t>
+  </si>
+  <si>
+    <t>****** MAIN: Multiverse [The Original] Handling S1 WEEK 14</t>
+  </si>
+  <si>
+    <t>****** MAIN: Multiverse [The Original] Handling S2 WEEK 1</t>
+  </si>
+  <si>
+    <t>****** MAIN: Multiverse [The Original] Handling S2 WEEK 2</t>
+  </si>
+  <si>
+    <t>****** MAIN: Multiverse [The Original] Handling S2 WEEK 3</t>
+  </si>
+  <si>
+    <t>****** MAIN: Multiverse [The Original] Handling S2 WEEK 4</t>
+  </si>
+  <si>
+    <t>****** MAIN: Multiverse [The Original] Handling S2 WEEK 5</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 36.170514 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 3.044431 seconds</t>
+  </si>
+  <si>
+    <t>XXXXXX =&gt; Took: 0.480819 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 1.056356 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 0.000773 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 3.146118 seconds</t>
+  </si>
+  <si>
+    <t>XXXXXX =&gt; Took: 0.454527 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 1.245937 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 0.000081 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 3.468526 seconds</t>
+  </si>
+  <si>
+    <t>XXXXXX =&gt; Took: 0.707145 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 1.743606 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 0.000083 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 3.765426 seconds</t>
+  </si>
+  <si>
+    <t>XXXXXX =&gt; Took: 0.842643 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 1.991011 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 0.001569 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 4.189930 seconds</t>
+  </si>
+  <si>
+    <t>XXXXXX =&gt; Took: 1.092738 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 1.929389 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 0.007684 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 5.440401 seconds</t>
+  </si>
+  <si>
+    <t>XXXXXX =&gt; Took: 1.515637 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 2.494497 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 0.003117 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 7.863344 seconds</t>
+  </si>
+  <si>
+    <t>XXXXXX =&gt; Took: 6.065652 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 3.602760 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 0.010494 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 9.840622 seconds</t>
+  </si>
+  <si>
+    <t>XXXXXX =&gt; Took: 15.949457 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 17.981193 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 0.011104 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 14.218064 seconds</t>
+  </si>
+  <si>
+    <t>XXXXXX =&gt; Took: 9.825129 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 3.242334 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 0.013041 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 10.505722 seconds</t>
+  </si>
+  <si>
+    <t>XXXXXX =&gt; Took: 7.808178 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 3.207064 seconds</t>
+  </si>
+  <si>
+    <t>SELECTED CLUBS IN THE LEAGUE ARE: loc_array_selected_id_clubs= {43,169,2,89,129,215}</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 2.188146 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 15.442591 seconds</t>
+  </si>
+  <si>
+    <t>XXXXXX =&gt; Took: 7.667134 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 3.644381 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 0.452969 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 10.675188 seconds</t>
+  </si>
+  <si>
+    <t>XXXXXX =&gt; Took: 2.208385 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 2.987213 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 0.386592 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 7.533041 seconds</t>
+  </si>
+  <si>
+    <t>XXXXXX =&gt; Took: 2.100395 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 3.611577 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 0.248805 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 6.800421 seconds</t>
+  </si>
+  <si>
+    <t>XXXXXX =&gt; Took: 2.098446 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 3.441405 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 9.592045 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 12.194435 seconds</t>
+  </si>
+  <si>
+    <t>XXXXXX =&gt; Took: 3.742331 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 3.499025 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 0.009483 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 7.952496 seconds</t>
+  </si>
+  <si>
+    <t>XXXXXX =&gt; Took: 2.302252 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 3.724604 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 0.009514 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 10.277523 seconds</t>
+  </si>
+  <si>
+    <t>XXXXXX =&gt; Took: 2.624879 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 3.961425 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 0.008041 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 15.301023 seconds</t>
+  </si>
+  <si>
+    <t>XXXXXX =&gt; Took: 10.802998 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 4.139180 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 0.012205 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 15.219958 seconds</t>
+  </si>
+  <si>
+    <t>XXXXXX =&gt; Took: 6.197066 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 4.569523 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 0.012514 seconds</t>
+  </si>
+  <si>
+    <t>****** END MAIN: Multiverse [The Original] S2 WEEK 6</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 3.580285 seconds</t>
+  </si>
+  <si>
+    <t>XXXXXX =&gt; Took: 0.797125 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 1.583701 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 0.003300 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 3.754759 seconds</t>
+  </si>
+  <si>
+    <t>XXXXXX =&gt; Took: 0.633802 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 1.721550 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 0.000670 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 3.633416 seconds</t>
+  </si>
+  <si>
+    <t>XXXXXX =&gt; Took: 0.725828 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 1.797457 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 0.000035 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 3.964406 seconds</t>
+  </si>
+  <si>
+    <t>XXXXXX =&gt; Took: 0.843331 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 1.773641 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 0.000259 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 4.160163 seconds</t>
+  </si>
+  <si>
+    <t>XXXXXX =&gt; Took: 0.990219 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 2.214200 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 0.000601 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 5.138457 seconds</t>
+  </si>
+  <si>
+    <t>XXXXXX =&gt; Took: 1.455898 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 2.037780 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 0.006104 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 5.228648 seconds</t>
+  </si>
+  <si>
+    <t>XXXXXX =&gt; Took: 2.693681 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 2.251410 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 0.010648 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 12.400025 seconds</t>
+  </si>
+  <si>
+    <t>XXXXXX =&gt; Took: 15.189045 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 10.445020 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 0.015783 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 13.028093 seconds</t>
+  </si>
+  <si>
+    <t>XXXXXX =&gt; Took: 13.515484 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 8.727547 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 0.010716 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 13.167037 seconds</t>
+  </si>
+  <si>
+    <t>XXXXXX =&gt; Took: 10.016024 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 3.396325 seconds</t>
+  </si>
+  <si>
+    <t>SELECTED CLUBS IN THE LEAGUE ARE: loc_array_selected_id_clubs= {174,216,85,48,6,131}</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 2.095675 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 14.703205 seconds</t>
+  </si>
+  <si>
+    <t>XXXXXX =&gt; Took: 7.516219 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 3.460333 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 0.371820 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 12.041372 seconds</t>
+  </si>
+  <si>
+    <t>XXXXXX =&gt; Took: 3.929929 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 2.953807 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 0.450759 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 7.299952 seconds</t>
+  </si>
+  <si>
+    <t>XXXXXX =&gt; Took: 1.636657 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 3.569177 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 0.178091 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 7.136884 seconds</t>
+  </si>
+  <si>
+    <t>XXXXXX =&gt; Took: 1.848385 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 3.094288 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 5.648421 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 9.519004 seconds</t>
+  </si>
+  <si>
+    <t>XXXXXX =&gt; Took: 3.020577 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 3.105457 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 0.004966 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 7.882202 seconds</t>
+  </si>
+  <si>
+    <t>XXXXXX =&gt; Took: 1.764657 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 3.526388 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 0.004815 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 7.138333 seconds</t>
+  </si>
+  <si>
+    <t>XXXXXX =&gt; Took: 1.823792 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 3.661194 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 0.006096 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 11.127650 seconds</t>
+  </si>
+  <si>
+    <t>XXXXXX =&gt; Took: 2.766368 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 4.018770 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 0.007896 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 9.323839 seconds</t>
+  </si>
+  <si>
+    <t>XXXXXX =&gt; Took: 4.218828 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 4.036900 seconds</t>
+  </si>
+  <si>
+    <t>=&gt; Took: 0.012599 seconds</t>
   </si>
 </sst>
 </file>
@@ -12440,7 +12996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACDF6F56-3115-4EA0-ACCE-349D961B88C3}">
   <dimension ref="A10:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -12521,6 +13077,1484 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA28DC1-A6F0-4C69-8806-E3373A8287F3}">
+  <dimension ref="A10:I193"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="I185" sqref="I185"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1521</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1522</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1551</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1523</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1552</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1524</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1553</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1525</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1521</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1554</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1522</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1555</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1523</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1556</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1524</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1557</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1526</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1521</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1558</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1522</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1559</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1523</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1560</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1524</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1561</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1527</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1521</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1562</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1522</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1563</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1523</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1564</v>
+      </c>
+      <c r="I43" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1524</v>
+      </c>
+      <c r="I44" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1565</v>
+      </c>
+      <c r="I45" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1528</v>
+      </c>
+      <c r="I46" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1521</v>
+      </c>
+      <c r="I47" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1566</v>
+      </c>
+      <c r="I48" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1522</v>
+      </c>
+      <c r="I49" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1567</v>
+      </c>
+      <c r="I50" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1523</v>
+      </c>
+      <c r="I51" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1568</v>
+      </c>
+      <c r="I52" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1524</v>
+      </c>
+      <c r="I53" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1569</v>
+      </c>
+      <c r="I54" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1529</v>
+      </c>
+      <c r="I55" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1521</v>
+      </c>
+      <c r="I56" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I57" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1522</v>
+      </c>
+      <c r="I58" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1571</v>
+      </c>
+      <c r="I59" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1523</v>
+      </c>
+      <c r="I60" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1572</v>
+      </c>
+      <c r="I61" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1524</v>
+      </c>
+      <c r="I62" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1573</v>
+      </c>
+      <c r="I63" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1530</v>
+      </c>
+      <c r="I64" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1521</v>
+      </c>
+      <c r="I65" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1574</v>
+      </c>
+      <c r="I66" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1522</v>
+      </c>
+      <c r="I67" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1575</v>
+      </c>
+      <c r="I68" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1523</v>
+      </c>
+      <c r="I69" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>1576</v>
+      </c>
+      <c r="I70" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>1524</v>
+      </c>
+      <c r="I71" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I72" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>1531</v>
+      </c>
+      <c r="I73" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>1521</v>
+      </c>
+      <c r="I74" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1578</v>
+      </c>
+      <c r="I75" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1522</v>
+      </c>
+      <c r="I76" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>1579</v>
+      </c>
+      <c r="I77" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1523</v>
+      </c>
+      <c r="I78" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>1580</v>
+      </c>
+      <c r="I79" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>1524</v>
+      </c>
+      <c r="I80" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>1581</v>
+      </c>
+      <c r="I81" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>1532</v>
+      </c>
+      <c r="I82" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1521</v>
+      </c>
+      <c r="I83" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I84" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>1522</v>
+      </c>
+      <c r="I85" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>1583</v>
+      </c>
+      <c r="I86" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>1523</v>
+      </c>
+      <c r="I87" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>1584</v>
+      </c>
+      <c r="I88" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>1524</v>
+      </c>
+      <c r="I89" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>1585</v>
+      </c>
+      <c r="I90" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>1533</v>
+      </c>
+      <c r="I91" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>1521</v>
+      </c>
+      <c r="I92" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>1586</v>
+      </c>
+      <c r="I93" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>1522</v>
+      </c>
+      <c r="I94" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1587</v>
+      </c>
+      <c r="I95" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1523</v>
+      </c>
+      <c r="I96" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>1588</v>
+      </c>
+      <c r="I97" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>1524</v>
+      </c>
+      <c r="I98" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>1534</v>
+      </c>
+      <c r="I99" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>1535</v>
+      </c>
+      <c r="I100" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>1536</v>
+      </c>
+      <c r="I101" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>1537</v>
+      </c>
+      <c r="I102" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>1538</v>
+      </c>
+      <c r="I103" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>1539</v>
+      </c>
+      <c r="I104" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>1589</v>
+      </c>
+      <c r="I105" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>1539</v>
+      </c>
+      <c r="I106" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>1589</v>
+      </c>
+      <c r="I107" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>1590</v>
+      </c>
+      <c r="I108" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>1540</v>
+      </c>
+      <c r="I109" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>1521</v>
+      </c>
+      <c r="I110" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>1591</v>
+      </c>
+      <c r="I111" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>1522</v>
+      </c>
+      <c r="I112" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>1592</v>
+      </c>
+      <c r="I113" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>1523</v>
+      </c>
+      <c r="I114" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>1593</v>
+      </c>
+      <c r="I115" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>1524</v>
+      </c>
+      <c r="I116" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I117" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>1541</v>
+      </c>
+      <c r="I118" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>1521</v>
+      </c>
+      <c r="I119" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>1595</v>
+      </c>
+      <c r="I120" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>1522</v>
+      </c>
+      <c r="I121" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>1596</v>
+      </c>
+      <c r="I122" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>1523</v>
+      </c>
+      <c r="I123" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>1597</v>
+      </c>
+      <c r="I124" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>1524</v>
+      </c>
+      <c r="I125" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>1598</v>
+      </c>
+      <c r="I126" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>1542</v>
+      </c>
+      <c r="I127" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>1521</v>
+      </c>
+      <c r="I128" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>1599</v>
+      </c>
+      <c r="I129" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>1522</v>
+      </c>
+      <c r="I130" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>1600</v>
+      </c>
+      <c r="I131" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>1523</v>
+      </c>
+      <c r="I132" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>1601</v>
+      </c>
+      <c r="I133" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>1524</v>
+      </c>
+      <c r="I134" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>1602</v>
+      </c>
+      <c r="I135" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>1543</v>
+      </c>
+      <c r="I136" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>1521</v>
+      </c>
+      <c r="I137" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>1603</v>
+      </c>
+      <c r="I138" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>1522</v>
+      </c>
+      <c r="I139" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>1604</v>
+      </c>
+      <c r="I140" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>1523</v>
+      </c>
+      <c r="I141" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>1605</v>
+      </c>
+      <c r="I142" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>1524</v>
+      </c>
+      <c r="I143" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>1606</v>
+      </c>
+      <c r="I144" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>1544</v>
+      </c>
+      <c r="I145" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>1521</v>
+      </c>
+      <c r="I146" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>1607</v>
+      </c>
+      <c r="I147" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>1522</v>
+      </c>
+      <c r="I148" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>1608</v>
+      </c>
+      <c r="I149" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>1523</v>
+      </c>
+      <c r="I150" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>1609</v>
+      </c>
+      <c r="I151" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>1524</v>
+      </c>
+      <c r="I152" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>1610</v>
+      </c>
+      <c r="I153" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>1545</v>
+      </c>
+      <c r="I154" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>1521</v>
+      </c>
+      <c r="I155" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>1611</v>
+      </c>
+      <c r="I156" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>1522</v>
+      </c>
+      <c r="I157" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>1612</v>
+      </c>
+      <c r="I158" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>1523</v>
+      </c>
+      <c r="I159" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>1613</v>
+      </c>
+      <c r="I160" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>1524</v>
+      </c>
+      <c r="I161" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>1614</v>
+      </c>
+      <c r="I162" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>1546</v>
+      </c>
+      <c r="I163" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>1521</v>
+      </c>
+      <c r="I164" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>1615</v>
+      </c>
+      <c r="I165" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>1522</v>
+      </c>
+      <c r="I166" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>1616</v>
+      </c>
+      <c r="I167" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>1523</v>
+      </c>
+      <c r="I168" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>1617</v>
+      </c>
+      <c r="I169" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>1524</v>
+      </c>
+      <c r="I170" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>1618</v>
+      </c>
+      <c r="I171" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>1547</v>
+      </c>
+      <c r="I172" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>1521</v>
+      </c>
+      <c r="I173" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>1619</v>
+      </c>
+      <c r="I174" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>1522</v>
+      </c>
+      <c r="I175" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>1620</v>
+      </c>
+      <c r="I176" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>1523</v>
+      </c>
+      <c r="I177" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>1621</v>
+      </c>
+      <c r="I178" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>1524</v>
+      </c>
+      <c r="I179" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>1622</v>
+      </c>
+      <c r="I180" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>1548</v>
+      </c>
+      <c r="I181" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>1521</v>
+      </c>
+      <c r="I182" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>1623</v>
+      </c>
+      <c r="I183" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>1522</v>
+      </c>
+      <c r="I184" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>1624</v>
+      </c>
+      <c r="I185" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>1523</v>
+      </c>
+      <c r="I186" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>1625</v>
+      </c>
+      <c r="I187" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>1524</v>
+      </c>
+      <c r="I188" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>1626</v>
+      </c>
+      <c r="I189" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>1627</v>
+      </c>
+      <c r="I190" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I191" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I192" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="193" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I193" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C48BD7BE-3FB6-4C74-86CD-A8DBD21EECA7}">
   <dimension ref="A1:H29"/>
   <sheetViews>
@@ -12865,7 +14899,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29AF976-DF20-4755-BA2E-2FAFD83FFAEC}">
   <dimension ref="A1:J1041"/>
   <sheetViews>
@@ -18231,7 +20265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39D9AE7D-E251-407C-83E5-68098C34D0A8}">
   <dimension ref="A1:S942"/>
   <sheetViews>
@@ -43560,7 +45594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A26C3C4-8FD1-4738-85E0-113A8C3427C6}">
   <dimension ref="A1:D101"/>
   <sheetViews>

--- a/OpenGoalZ.xlsx
+++ b/OpenGoalZ.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ed35836b10785304/git/opengoalz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="246" documentId="13_ncr:1_{90BEB9EB-AA90-4D42-A6F8-3363197A98D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC7AF9FA-A6D9-45B1-84DE-532E0BFD7513}"/>
+  <xr:revisionPtr revIDLastSave="255" documentId="13_ncr:1_{90BEB9EB-AA90-4D42-A6F8-3363197A98D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEADB852-574B-468A-9C93-7BE042E7249B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats_CoefMatrix" sheetId="4" r:id="rId1"/>
-    <sheet name="TrainingPoints" sheetId="10" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="12" r:id="rId3"/>
+    <sheet name="LeagueScheduling" sheetId="13" r:id="rId2"/>
+    <sheet name="TrainingPoints" sheetId="10" r:id="rId3"/>
     <sheet name="game_events_type" sheetId="11" r:id="rId4"/>
     <sheet name="ALL_players_name" sheetId="6" r:id="rId5"/>
     <sheet name="83_FRANCE" sheetId="8" r:id="rId6"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5158" uniqueCount="1705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4878" uniqueCount="1601">
   <si>
     <t>RightDefense</t>
   </si>
@@ -4604,559 +4604,247 @@
     <t>300 Nom Famille Espagnol</t>
   </si>
   <si>
-    <t>****** MAIN: Multiverse [The Original] Handling S1 WEEK 1</t>
-  </si>
-  <si>
-    <t>*** MAIN: Running Simulate Games...</t>
-  </si>
-  <si>
-    <t>*** MAIN: Running Handle Clubs...</t>
-  </si>
-  <si>
-    <t>*** MAIN: Running Handle Players...</t>
-  </si>
-  <si>
-    <t>*** MAIN: Running Handle Season...</t>
-  </si>
-  <si>
-    <t>****** MAIN: Multiverse [The Original] Handling S1 WEEK 2</t>
-  </si>
-  <si>
-    <t>****** MAIN: Multiverse [The Original] Handling S1 WEEK 3</t>
-  </si>
-  <si>
-    <t>****** MAIN: Multiverse [The Original] Handling S1 WEEK 4</t>
-  </si>
-  <si>
-    <t>****** MAIN: Multiverse [The Original] Handling S1 WEEK 5</t>
-  </si>
-  <si>
-    <t>****** MAIN: Multiverse [The Original] Handling S1 WEEK 6</t>
-  </si>
-  <si>
-    <t>****** MAIN: Multiverse [The Original] Handling S1 WEEK 7</t>
-  </si>
-  <si>
-    <t>****** MAIN: Multiverse [The Original] Handling S1 WEEK 8</t>
-  </si>
-  <si>
-    <t>****** MAIN: Multiverse [The Original] Handling S1 WEEK 9</t>
-  </si>
-  <si>
-    <t>****** MAIN: Multiverse [The Original] Handling S1 WEEK 10</t>
-  </si>
-  <si>
-    <t>game.id= 1783</t>
-  </si>
-  <si>
-    <t>loc_array_id_clubs = {NULL,NULL}</t>
-  </si>
-  <si>
-    <t>loc_array_id_leagues = {6,6}</t>
-  </si>
-  <si>
-    <t>loc_array_id_games = {NULL,NULL}</t>
-  </si>
-  <si>
-    <t>loc_array_pos_clubs = {6,1}</t>
-  </si>
-  <si>
-    <t>Entrée dans le IF de LEAGUES: loc_array_id_leagues[I]= 6</t>
-  </si>
-  <si>
-    <t>****** MAIN: Multiverse [The Original] Handling S1 WEEK 11</t>
-  </si>
-  <si>
-    <t>****** MAIN: Multiverse [The Original] Handling S1 WEEK 12</t>
-  </si>
-  <si>
-    <t>****** MAIN: Multiverse [The Original] Handling S1 WEEK 13</t>
-  </si>
-  <si>
-    <t>****** MAIN: Multiverse [The Original] Handling S1 WEEK 14</t>
-  </si>
-  <si>
-    <t>****** MAIN: Multiverse [The Original] Handling S2 WEEK 1</t>
-  </si>
-  <si>
-    <t>****** MAIN: Multiverse [The Original] Handling S2 WEEK 2</t>
-  </si>
-  <si>
-    <t>****** MAIN: Multiverse [The Original] Handling S2 WEEK 3</t>
-  </si>
-  <si>
-    <t>****** MAIN: Multiverse [The Original] Handling S2 WEEK 4</t>
-  </si>
-  <si>
-    <t>****** MAIN: Multiverse [The Original] Handling S2 WEEK 5</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 36.170514 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 3.044431 seconds</t>
-  </si>
-  <si>
-    <t>XXXXXX =&gt; Took: 0.480819 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 1.056356 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 0.000773 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 3.146118 seconds</t>
-  </si>
-  <si>
-    <t>XXXXXX =&gt; Took: 0.454527 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 1.245937 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 0.000081 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 3.468526 seconds</t>
-  </si>
-  <si>
-    <t>XXXXXX =&gt; Took: 0.707145 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 1.743606 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 0.000083 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 3.765426 seconds</t>
-  </si>
-  <si>
-    <t>XXXXXX =&gt; Took: 0.842643 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 1.991011 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 0.001569 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 4.189930 seconds</t>
-  </si>
-  <si>
-    <t>XXXXXX =&gt; Took: 1.092738 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 1.929389 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 0.007684 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 5.440401 seconds</t>
-  </si>
-  <si>
-    <t>XXXXXX =&gt; Took: 1.515637 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 2.494497 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 0.003117 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 7.863344 seconds</t>
-  </si>
-  <si>
-    <t>XXXXXX =&gt; Took: 6.065652 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 3.602760 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 0.010494 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 9.840622 seconds</t>
-  </si>
-  <si>
-    <t>XXXXXX =&gt; Took: 15.949457 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 17.981193 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 0.011104 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 14.218064 seconds</t>
-  </si>
-  <si>
-    <t>XXXXXX =&gt; Took: 9.825129 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 3.242334 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 0.013041 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 10.505722 seconds</t>
-  </si>
-  <si>
-    <t>XXXXXX =&gt; Took: 7.808178 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 3.207064 seconds</t>
-  </si>
-  <si>
-    <t>SELECTED CLUBS IN THE LEAGUE ARE: loc_array_selected_id_clubs= {43,169,2,89,129,215}</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 2.188146 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 15.442591 seconds</t>
-  </si>
-  <si>
-    <t>XXXXXX =&gt; Took: 7.667134 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 3.644381 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 0.452969 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 10.675188 seconds</t>
-  </si>
-  <si>
-    <t>XXXXXX =&gt; Took: 2.208385 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 2.987213 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 0.386592 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 7.533041 seconds</t>
-  </si>
-  <si>
-    <t>XXXXXX =&gt; Took: 2.100395 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 3.611577 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 0.248805 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 6.800421 seconds</t>
-  </si>
-  <si>
-    <t>XXXXXX =&gt; Took: 2.098446 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 3.441405 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 9.592045 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 12.194435 seconds</t>
-  </si>
-  <si>
-    <t>XXXXXX =&gt; Took: 3.742331 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 3.499025 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 0.009483 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 7.952496 seconds</t>
-  </si>
-  <si>
-    <t>XXXXXX =&gt; Took: 2.302252 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 3.724604 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 0.009514 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 10.277523 seconds</t>
-  </si>
-  <si>
-    <t>XXXXXX =&gt; Took: 2.624879 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 3.961425 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 0.008041 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 15.301023 seconds</t>
-  </si>
-  <si>
-    <t>XXXXXX =&gt; Took: 10.802998 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 4.139180 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 0.012205 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 15.219958 seconds</t>
-  </si>
-  <si>
-    <t>XXXXXX =&gt; Took: 6.197066 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 4.569523 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 0.012514 seconds</t>
-  </si>
-  <si>
-    <t>****** END MAIN: Multiverse [The Original] S2 WEEK 6</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 3.580285 seconds</t>
-  </si>
-  <si>
-    <t>XXXXXX =&gt; Took: 0.797125 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 1.583701 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 0.003300 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 3.754759 seconds</t>
-  </si>
-  <si>
-    <t>XXXXXX =&gt; Took: 0.633802 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 1.721550 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 0.000670 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 3.633416 seconds</t>
-  </si>
-  <si>
-    <t>XXXXXX =&gt; Took: 0.725828 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 1.797457 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 0.000035 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 3.964406 seconds</t>
-  </si>
-  <si>
-    <t>XXXXXX =&gt; Took: 0.843331 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 1.773641 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 0.000259 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 4.160163 seconds</t>
-  </si>
-  <si>
-    <t>XXXXXX =&gt; Took: 0.990219 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 2.214200 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 0.000601 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 5.138457 seconds</t>
-  </si>
-  <si>
-    <t>XXXXXX =&gt; Took: 1.455898 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 2.037780 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 0.006104 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 5.228648 seconds</t>
-  </si>
-  <si>
-    <t>XXXXXX =&gt; Took: 2.693681 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 2.251410 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 0.010648 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 12.400025 seconds</t>
-  </si>
-  <si>
-    <t>XXXXXX =&gt; Took: 15.189045 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 10.445020 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 0.015783 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 13.028093 seconds</t>
-  </si>
-  <si>
-    <t>XXXXXX =&gt; Took: 13.515484 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 8.727547 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 0.010716 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 13.167037 seconds</t>
-  </si>
-  <si>
-    <t>XXXXXX =&gt; Took: 10.016024 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 3.396325 seconds</t>
-  </si>
-  <si>
-    <t>SELECTED CLUBS IN THE LEAGUE ARE: loc_array_selected_id_clubs= {174,216,85,48,6,131}</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 2.095675 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 14.703205 seconds</t>
-  </si>
-  <si>
-    <t>XXXXXX =&gt; Took: 7.516219 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 3.460333 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 0.371820 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 12.041372 seconds</t>
-  </si>
-  <si>
-    <t>XXXXXX =&gt; Took: 3.929929 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 2.953807 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 0.450759 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 7.299952 seconds</t>
-  </si>
-  <si>
-    <t>XXXXXX =&gt; Took: 1.636657 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 3.569177 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 0.178091 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 7.136884 seconds</t>
-  </si>
-  <si>
-    <t>XXXXXX =&gt; Took: 1.848385 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 3.094288 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 5.648421 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 9.519004 seconds</t>
-  </si>
-  <si>
-    <t>XXXXXX =&gt; Took: 3.020577 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 3.105457 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 0.004966 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 7.882202 seconds</t>
-  </si>
-  <si>
-    <t>XXXXXX =&gt; Took: 1.764657 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 3.526388 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 0.004815 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 7.138333 seconds</t>
-  </si>
-  <si>
-    <t>XXXXXX =&gt; Took: 1.823792 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 3.661194 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 0.006096 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 11.127650 seconds</t>
-  </si>
-  <si>
-    <t>XXXXXX =&gt; Took: 2.766368 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 4.018770 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 0.007896 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 9.323839 seconds</t>
-  </si>
-  <si>
-    <t>XXXXXX =&gt; Took: 4.218828 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 4.036900 seconds</t>
-  </si>
-  <si>
-    <t>=&gt; Took: 0.012599 seconds</t>
+    <t>week_number</t>
+  </si>
+  <si>
+    <t>1st/3 game of round 1/10 of normal league</t>
+  </si>
+  <si>
+    <t>2nd/3 game of round 1/10 of normal league</t>
+  </si>
+  <si>
+    <t>3rd/3 game of round 1/10 of normal league</t>
+  </si>
+  <si>
+    <t>1st/3 game of round 2/10 of normal league</t>
+  </si>
+  <si>
+    <t>2nd/3 game of round 2/10 of normal league</t>
+  </si>
+  <si>
+    <t>3rd/3 game of round 2/10 of normal league</t>
+  </si>
+  <si>
+    <t>1st/3 game of round 3/10 of normal league</t>
+  </si>
+  <si>
+    <t>2nd/3 game of round 3/10 of normal league</t>
+  </si>
+  <si>
+    <t>3rd/3 game of round 3/10 of normal league</t>
+  </si>
+  <si>
+    <t>1st/3 game of round 4/10 of normal league</t>
+  </si>
+  <si>
+    <t>2nd/3 game of round 4/10 of normal league</t>
+  </si>
+  <si>
+    <t>3rd/3 game of round 4/10 of normal league</t>
+  </si>
+  <si>
+    <t>1st/3 game of round 5/10 of normal league</t>
+  </si>
+  <si>
+    <t>2nd/3 game of round 5/10 of normal league</t>
+  </si>
+  <si>
+    <t>3rd/3 game of round 5/10 of normal league</t>
+  </si>
+  <si>
+    <t>1st/3 game of round 6/10 of normal league</t>
+  </si>
+  <si>
+    <t>2nd/3 game of round 6/10 of normal league</t>
+  </si>
+  <si>
+    <t>3rd/3 game of round 6/10 of normal league</t>
+  </si>
+  <si>
+    <t>1st/3 game of round 7/10 of normal league</t>
+  </si>
+  <si>
+    <t>2nd/3 game of round 7/10 of normal league</t>
+  </si>
+  <si>
+    <t>3rd/3 game of round 7/10 of normal league</t>
+  </si>
+  <si>
+    <t>1st/3 game of round 8/10 of normal league</t>
+  </si>
+  <si>
+    <t>2nd/3 game of round 9/10 of normal league</t>
+  </si>
+  <si>
+    <t>3rd/3 game of round 8/10 of normal league</t>
+  </si>
+  <si>
+    <t>1st/3 game of round 9/10 of normal league</t>
+  </si>
+  <si>
+    <t>3rd/3 game of round 9/10 of normal league</t>
+  </si>
+  <si>
+    <t>1st/3 game of round 10/10 of normal league</t>
+  </si>
+  <si>
+    <t>2nd/3 game of round 10/10 of normal league</t>
+  </si>
+  <si>
+    <t>3rd/3 game of round 10/10 of normal league</t>
+  </si>
+  <si>
+    <t>1st/3 game of round 1/3 of the international league game of week 11</t>
+  </si>
+  <si>
+    <t>2nd/3 game of round 1/3 of the international league game of week 11</t>
+  </si>
+  <si>
+    <t>3rd/3 game of round 1/3 of the international league game of week 11</t>
+  </si>
+  <si>
+    <t>1st/3 game of round 2/3 of the international league game of week 12</t>
+  </si>
+  <si>
+    <t>2nd/3 game of round 2/3 of the international league game of week 12</t>
+  </si>
+  <si>
+    <t>3rd/3 game of round 2/3 of the international league game of week 12</t>
+  </si>
+  <si>
+    <t>1st/3 game of round 3/3 of the international league game of week 13</t>
+  </si>
+  <si>
+    <t>2nd/3 game of round 3/3 of the international league game of week 13</t>
+  </si>
+  <si>
+    <t>3rd/3 game of round 3/3 of the international league game of week 13</t>
+  </si>
+  <si>
+    <t>1st place game of the international cup</t>
+  </si>
+  <si>
+    <t>3rd place game of the international cup</t>
+  </si>
+  <si>
+    <t>5th place game of the international cup</t>
+  </si>
+  <si>
+    <t>International Friendly Game of week 11 for clubs waiting for barrages against best 4th and worst 4th of the master leagues</t>
+  </si>
+  <si>
+    <t>International Friendly Game of week 11 for clubs waiting for barrages against second best 4th and second worst 4th of the master leagues</t>
+  </si>
+  <si>
+    <t>International Friendly Game of week 11 for clubs waiting for barrages against third best 4th and third worst 4th of the master leagues</t>
+  </si>
+  <si>
+    <t>International Friendly Game of week 12 for clubs waiting for barrages against best 4th and worst 4th of the master leagues</t>
+  </si>
+  <si>
+    <t>International Friendly Game of week 12 for clubs waiting for barrages against second best 4th and second worst 4th of the master leagues</t>
+  </si>
+  <si>
+    <t>International Friendly Game of week 12 for clubs waiting for barrages against third best 4th and third worst 4th of the master leagues</t>
+  </si>
+  <si>
+    <t>Friendly Game of week 11 for rank 4 clubs waiting for barrages between opposite league</t>
+  </si>
+  <si>
+    <t>Friendly Game of week 11 for rank 5 clubs waiting for barrages between opposite league</t>
+  </si>
+  <si>
+    <t>Friendly Game of week 11 for rank 6 clubs waiting for barrages between opposite league</t>
+  </si>
+  <si>
+    <t>Friendly Game of week 12 for rank 4 clubs waiting for barrages between opposite league</t>
+  </si>
+  <si>
+    <t>Friendly Game of week 12 for rank 5 clubs waiting for barrages between opposite league</t>
+  </si>
+  <si>
+    <t>Friendly Game of week 12 for rank 6 clubs waiting for barrages between opposite league</t>
+  </si>
+  <si>
+    <t>1st game of the first round of the barrage 1 (week 11) between champions of the left and right lower leagues</t>
+  </si>
+  <si>
+    <t>2nd and return game of the first round of the barrage 1 (week 12) between champions of the left and right lower leagues</t>
+  </si>
+  <si>
+    <t>3rd game of the barrage 1 (week 13) between 5th of the upper league and loser of the barrage 1</t>
+  </si>
+  <si>
+    <t>4th and final game of the barrage 1 (week 14) between 5th of the upper league and loser of the barrage 1</t>
+  </si>
+  <si>
+    <t>Friendly game (week13) between the two winners of the barrage 1 from symmetric league</t>
+  </si>
+  <si>
+    <t>Friendly return game (week14) between the two winners of the barrage 1 from symmetric league</t>
+  </si>
+  <si>
+    <t>1st/2 game of round 1 of the barrage 2 (week 11) of the lower leagues between 2nd of the left league and 3rd of the right league</t>
+  </si>
+  <si>
+    <t>2nd/2 game of round 1 the barrage 2 (week 11) of the lower leagues between 2nd of the right league and 3rd of the left league</t>
+  </si>
+  <si>
+    <t>Barrage game of round 2 barrage 2 (week 12) of the lower leagues between the winners of the first round of the barrage 2</t>
+  </si>
+  <si>
+    <t>Friendly game of the barrage 2 (week 12) of the lower leagues between the losers of the first round of the barrage 2</t>
+  </si>
+  <si>
+    <t>1st game of the barrage 2 (week 13) between the 4th of the upper league and the winner of the 2nd round of the barrage 2</t>
+  </si>
+  <si>
+    <t>Return game of the barrage 2 (week 14) between the 4th of the upper league and the winner of the 2nd round of the barrage 2</t>
+  </si>
+  <si>
+    <t>Friendly cup game (week 13) between the loser of the winning round of the barrage 2 and the loser of the friendly round of the barrage 2</t>
+  </si>
+  <si>
+    <t>Friendly cup game (week 13) between 6th from upper league that is going down and winner of the losing round of the barrage 2</t>
+  </si>
+  <si>
+    <t>Final friendly cup game (week 14) between winners of last friendly game of the barrage2</t>
+  </si>
+  <si>
+    <t>Final friendly cup game (week 14) between losers of last friendly game of the barrage2</t>
+  </si>
+  <si>
+    <t>Friendly game (week11) of the lowest leagues between 5th of left league with 5th of right league</t>
+  </si>
+  <si>
+    <t>Friendly game (week11) of the lowest leagues between 6th of left league with 6th of right league</t>
+  </si>
+  <si>
+    <t>Friendly game (week12) of the lowest leagues between 4th of right league with 5th of left league</t>
+  </si>
+  <si>
+    <t>Friendly game (week12) of the lowest leagues between 5th of right league with 6th of left league</t>
+  </si>
+  <si>
+    <t>Friendly game (week12) of the lowest leagues between 6th of right league with 4th of left league</t>
+  </si>
+  <si>
+    <t>Friendly game (week13) of the lowest leagues between 4th of left league with 5th of right league</t>
+  </si>
+  <si>
+    <t>Friendly game (week13) of the lowest leagues between 5th of left league with 6th of right league</t>
+  </si>
+  <si>
+    <t>Friendly game (week13) of the lowest leagues between 6th of left league with 4th of right league</t>
+  </si>
+  <si>
+    <t>Friendly game (week14) of the lowest leagues between 4th of right league with 4th of left league</t>
+  </si>
+  <si>
+    <t>Friendly game (week14) of the lowest leagues between 5th of right league with 5th of left league</t>
+  </si>
+  <si>
+    <t>Friendly game (week14) of the lowest leagues between 6th of right league with 6th of left league</t>
   </si>
 </sst>
 </file>
@@ -7462,6 +7150,4364 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>508800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>3000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE739145-2AA9-4240-AE8E-333AECC5E27E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16411575" y="190500"/>
+          <a:ext cx="1728000" cy="6480000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000"/>
+            <a:t>      Week11</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>508800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>3000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{802AFE86-9876-4385-8CDA-95EDC92102A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14582775" y="190500"/>
+          <a:ext cx="1728000" cy="6480000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000"/>
+            <a:t>      Week11</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>508800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>3000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C18EE7C0-DE0E-468A-A395-7A6BEA6074CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12753975" y="190500"/>
+          <a:ext cx="1728000" cy="6480000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000"/>
+            <a:t>      Week11</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>508800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>3000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F7B4B10-7913-47F2-A0DD-F979B54741FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10925175" y="190500"/>
+          <a:ext cx="1728000" cy="6480000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000"/>
+            <a:t>      Week11</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>254400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C159B0F-95A5-493C-99CA-D6BC53C5AB1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="20" idx="3"/>
+          <a:endCxn id="16" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8741175" y="597000"/>
+          <a:ext cx="964800" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>254400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C0F9571-B024-49F5-8B7E-8FF11829AE5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="21" idx="3"/>
+          <a:endCxn id="28" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8741175" y="1168500"/>
+          <a:ext cx="964800" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>254400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AA64401-AE1B-4EBF-AB86-65C8EE308062}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="18" idx="3"/>
+          <a:endCxn id="27" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8741175" y="1168500"/>
+          <a:ext cx="964800" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>254400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CCD07DB-26A2-4C45-8E63-FA1BFBAF19FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="22" idx="3"/>
+          <a:endCxn id="30" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8741175" y="3264000"/>
+          <a:ext cx="964800" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>254400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3810FDE-818C-430B-9986-D2161D94EB5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="25" idx="3"/>
+          <a:endCxn id="33" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8741175" y="3835500"/>
+          <a:ext cx="964800" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>254400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FAB2227-742E-4751-8A6F-DB72A703F369}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="23" idx="3"/>
+          <a:endCxn id="31" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8741175" y="4407000"/>
+          <a:ext cx="964800" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>254400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CA65C94-33CE-45AD-B252-B2D391549E96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="24" idx="3"/>
+          <a:endCxn id="32" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8741175" y="5169000"/>
+          <a:ext cx="964800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>254400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDB5F9C2-DFE3-4B51-B9CB-1F66FB6B4B50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="17" idx="3"/>
+          <a:endCxn id="26" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8741175" y="597000"/>
+          <a:ext cx="964800" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>254400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FB438A7-2082-435B-97AD-F428CFC438AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="19" idx="3"/>
+          <a:endCxn id="29" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8741175" y="1740000"/>
+          <a:ext cx="964800" cy="4191000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>153600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>51000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Flowchart: Decision 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E94D43D-CF4A-4E64-8368-62756EBE83B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11534775" y="1524000"/>
+          <a:ext cx="2592000" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>254400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>51000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangle 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D12C676D-96A3-4B06-A338-D7AC0378DA35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9705975" y="381000"/>
+          <a:ext cx="864000" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>1L</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>254400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>51000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D9CAD36-51E4-4824-A966-D6757D6E84BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7877175" y="381000"/>
+          <a:ext cx="864000" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>M4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>254400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>51000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rectangle 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A14272F-4249-4109-B9EC-14374A37BEC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7877175" y="952500"/>
+          <a:ext cx="864000" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>M5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>254400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>51000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rectangle 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7D1A98B-1E70-4D37-908B-4A2341630082}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7877175" y="1524000"/>
+          <a:ext cx="864000" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>M6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>254400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>51000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E21B42B1-5DB0-4A2E-AC1B-80676FB3AE49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7877175" y="2286000"/>
+          <a:ext cx="864000" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>1L</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>254400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>51000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rectangle 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F87B1B2-71FB-48DB-BF5E-9C93577C104A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7877175" y="2857500"/>
+          <a:ext cx="864000" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>1R</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>254400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>51000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06283C9C-ADE9-4881-8412-623F5630C967}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7877175" y="3619500"/>
+          <a:ext cx="864000" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>2L</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>254400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>51000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectangle 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37F78E8F-07B6-44EB-832B-D2A67A644F38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7877175" y="4191000"/>
+          <a:ext cx="864000" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>2R</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>254400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>51000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EC9048B-AEB3-4541-96B9-4E1D131F46A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7877175" y="4953000"/>
+          <a:ext cx="864000" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>3L</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>254400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>51000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rectangle 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6325A3D-3F75-4669-A3E1-EB8C82606C07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7877175" y="5524500"/>
+          <a:ext cx="864000" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>3R</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>254400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>51000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rectangle 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBA37802-8369-47B9-8170-9E4ADD883492}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9705975" y="2286000"/>
+          <a:ext cx="864000" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>M4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>254400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>51000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rectangle 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD17FE6D-D113-4BAE-9214-BEA26ECCA4AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9705975" y="1524000"/>
+          <a:ext cx="864000" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>M5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>254400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>51000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rectangle 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0885E17-5C33-4C88-B6CB-CF356380A5F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9705975" y="952500"/>
+          <a:ext cx="864000" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>1R</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>254400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>51000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rectangle 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{613FA462-970E-4E8F-BA64-E92AC60165DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9705975" y="5715000"/>
+          <a:ext cx="864000" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>M6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>254400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>51000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Rectangle 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2846B4AD-E8B0-4839-B793-69C375B3EEE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9705975" y="3048000"/>
+          <a:ext cx="864000" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>2L</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>254400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>51000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Rectangle 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDEF37ED-AE86-4631-BCF7-736EEB889F0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9705975" y="4381500"/>
+          <a:ext cx="864000" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>2R</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>254400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>51000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Rectangle 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{472EBCF2-666D-41FC-980E-D1171DABFD21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9705975" y="4953000"/>
+          <a:ext cx="864000" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>3L</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>254400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>51000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Rectangle 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFF67CC4-803A-4C9B-9696-E5711ED01317}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9705975" y="3619500"/>
+          <a:ext cx="864000" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>3R</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>153600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>51000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Oval 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF3E7E47-2E7F-4E18-BE0F-D225BD4474F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11534775" y="571500"/>
+          <a:ext cx="2592000" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>254400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Straight Arrow Connector 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83BF3E8B-24F2-4E31-9B35-036EE38556E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="16" idx="3"/>
+          <a:endCxn id="34" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10569975" y="597000"/>
+          <a:ext cx="964800" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>254400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Straight Arrow Connector 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C638092-3144-48F2-B403-92F69291E400}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="28" idx="3"/>
+          <a:endCxn id="34" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10569975" y="787500"/>
+          <a:ext cx="964800" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>254400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Straight Arrow Connector 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{782F091C-044D-493F-828D-78D4A97A6487}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="27" idx="3"/>
+          <a:endCxn id="15" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10569975" y="1740000"/>
+          <a:ext cx="964800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>153600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>51000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Flowchart: Decision 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{880B5918-3D3A-4552-9CF3-101173063161}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11534775" y="2286000"/>
+          <a:ext cx="2592000" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>254400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7DA99FC-BFE6-4880-9F6E-6183B698925E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="26" idx="3"/>
+          <a:endCxn id="38" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10569975" y="2502000"/>
+          <a:ext cx="964800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>254400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>51000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Oval 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6291BB1-0E70-4CE2-B77D-EF34FDCF198D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11534775" y="3238500"/>
+          <a:ext cx="864000" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>254400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>51000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Oval 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68C971FA-7F7B-4F14-B2C2-2628CF09DACF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11534775" y="4572000"/>
+          <a:ext cx="864000" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>153600</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>51000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Flowchart: Decision 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEAAC019-ABED-462B-B582-2C6F5AB84621}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11534775" y="5715000"/>
+          <a:ext cx="2592000" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>254400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Straight Arrow Connector 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B78E68E4-BC68-4BA5-90FC-C51E8430DF02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="30" idx="3"/>
+          <a:endCxn id="40" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10569975" y="3264000"/>
+          <a:ext cx="964800" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>254400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Straight Arrow Connector 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{589A01D0-9C10-4A98-9A30-246A01E368FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="33" idx="3"/>
+          <a:endCxn id="40" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10569975" y="3454500"/>
+          <a:ext cx="964800" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>254400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Straight Arrow Connector 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0A27C00-161A-4A6A-8FA8-EF63B1DE8912}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="31" idx="3"/>
+          <a:endCxn id="41" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10569975" y="4597500"/>
+          <a:ext cx="964800" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>254400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Straight Arrow Connector 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{354A5D37-5962-4799-8718-AFE2EDD99ECF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="32" idx="3"/>
+          <a:endCxn id="41" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10569975" y="4788000"/>
+          <a:ext cx="964800" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>254400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Straight Arrow Connector 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{871C329B-7FF2-4A8E-AD3E-B7A361FCCABA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="29" idx="3"/>
+          <a:endCxn id="42" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10569975" y="5931000"/>
+          <a:ext cx="964800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>44850</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>60525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Oval 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2B64F4F-A7F8-4216-A333-B4A57CD75F9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13154025" y="3629025"/>
+          <a:ext cx="864000" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>444900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>70050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Oval 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F56B396-649B-4C42-B09B-F15D05D6221F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12944475" y="5162550"/>
+          <a:ext cx="864000" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>127870</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>178235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>44550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Straight Arrow Connector 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AEC2F0D-9FC9-4F84-BAE8-60EF574C9DF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="40" idx="5"/>
+          <a:endCxn id="49" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12272245" y="3607235"/>
+          <a:ext cx="672230" cy="1771315"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>127870</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>63265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>35025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Straight Arrow Connector 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28D021BD-DF3C-436B-98E8-BE4676E4DF0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="40" idx="7"/>
+          <a:endCxn id="48" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12272245" y="3301765"/>
+          <a:ext cx="881780" cy="543260"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>127870</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>35025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>63265</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="Straight Arrow Connector 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{794DDED5-0A3B-4E09-93A8-3C10886C0049}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="41" idx="7"/>
+          <a:endCxn id="48" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12272245" y="3845025"/>
+          <a:ext cx="881780" cy="790240"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>127870</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>178235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>44550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Straight Arrow Connector 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B49A7CF-8AF6-476A-AB1B-DE895FB2BA3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="41" idx="5"/>
+          <a:endCxn id="49" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12272245" y="4940735"/>
+          <a:ext cx="672230" cy="437815"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>82950</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>22425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Flowchart: Decision 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69910A8B-CC60-414A-A722-DC59AC8C3049}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9534525" y="6448425"/>
+          <a:ext cx="864000" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>163125</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>22425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Oval 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08C83DFD-F5C5-47DB-8DAB-6E8D47A43B59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15201900" y="1114425"/>
+          <a:ext cx="2592000" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>383610</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>63265</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="Straight Arrow Connector 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C851CE4-B463-4806-98BD-D79836CD59EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="34" idx="7"/>
+          <a:endCxn id="68" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13747185" y="597000"/>
+          <a:ext cx="1292790" cy="37765"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>383610</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>178235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>187425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="Straight Arrow Connector 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79E457C4-0EE8-47C4-B5C3-A0588F7567B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="34" idx="5"/>
+          <a:endCxn id="55" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13747185" y="940235"/>
+          <a:ext cx="1454715" cy="390190"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>153600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>187425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Straight Arrow Connector 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70303783-C64F-4D42-B823-F197E102883D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="15" idx="3"/>
+          <a:endCxn id="55" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14126775" y="1330425"/>
+          <a:ext cx="1075125" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>134550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>51000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="Oval 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08B90BF4-4AA6-4380-869A-CBAB1183651B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15173325" y="2667000"/>
+          <a:ext cx="2592000" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>153600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="Straight Arrow Connector 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AB57C71-B876-4FB5-86CF-2511C904B20B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="38" idx="3"/>
+          <a:endCxn id="59" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14126775" y="2502000"/>
+          <a:ext cx="1046550" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>527920</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>72790</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="Straight Arrow Connector 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2DAAAF6-FAD3-44A0-ADFD-A36E3942596B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="48" idx="7"/>
+          <a:endCxn id="59" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13891495" y="2883000"/>
+          <a:ext cx="1281830" cy="809290"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>102000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>31950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="Oval 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5AAB67F-631D-47A6-98E8-625D96E2171D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15039975" y="4933950"/>
+          <a:ext cx="864000" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>6750</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>31950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="Oval 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9E764FB-698C-4413-AB5E-B5B063ACCEC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14944725" y="3981450"/>
+          <a:ext cx="864000" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>527920</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>187760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>6450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="Straight Arrow Connector 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68136543-3A6E-4654-92A9-07092EB93CB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="48" idx="5"/>
+          <a:endCxn id="63" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13891495" y="3997760"/>
+          <a:ext cx="1053230" cy="199690"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>153600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>6450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="Straight Arrow Connector 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83B3BBF3-A816-4628-9E4A-6933263CC618}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="42" idx="3"/>
+          <a:endCxn id="62" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14126775" y="5149950"/>
+          <a:ext cx="913200" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>318370</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>6450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>82315</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="Straight Arrow Connector 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24351684-B23B-4F34-AC4E-053EA8250CD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="49" idx="7"/>
+          <a:endCxn id="62" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13681945" y="5149950"/>
+          <a:ext cx="1358030" cy="75865"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>318370</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>6450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>6785</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="Straight Arrow Connector 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF38E200-BF4F-4C1E-85F5-848E725276D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="49" idx="5"/>
+          <a:endCxn id="63" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13681945" y="4197450"/>
+          <a:ext cx="1262780" cy="1333835"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>1200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>51000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="Flowchart: Decision 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{094DBF10-4289-4D15-AB8D-286600A884DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15039975" y="381000"/>
+          <a:ext cx="2592000" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>102000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>155775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="Oval 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E4B9DF3-6DA8-49DB-8BB8-A117DCE14AC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16868775" y="3914775"/>
+          <a:ext cx="864000" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>168675</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>12900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="Oval 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{995C6EA4-F051-46FE-A2C1-1FA3CAEF886D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16935450" y="4914900"/>
+          <a:ext cx="864000" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>489820</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>44215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>130275</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="Straight Arrow Connector 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC9BB6CB-C545-497D-88C4-ECE0D7B3924E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="63" idx="7"/>
+          <a:endCxn id="69" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15682195" y="4044715"/>
+          <a:ext cx="1186580" cy="86060"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>585070</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>130275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>44215</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="Straight Arrow Connector 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAB93E67-8F70-47EF-8C1C-BFBCE5EE06A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="62" idx="7"/>
+          <a:endCxn id="69" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="15777445" y="4130775"/>
+          <a:ext cx="1091330" cy="866440"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>489820</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>159185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>177900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="Straight Arrow Connector 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06D31428-991A-4C57-B8AF-E02A94B6C304}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="63" idx="5"/>
+          <a:endCxn id="70" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15682195" y="4350185"/>
+          <a:ext cx="1253255" cy="780715"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>585070</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>177900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>159185</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="Straight Arrow Connector 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A77F55CC-F397-41DC-A8AE-D42FC7EDCEB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="62" idx="5"/>
+          <a:endCxn id="70" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="15777445" y="5130900"/>
+          <a:ext cx="1158005" cy="171785"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -7843,7 +11889,7 @@
   <dimension ref="A1:R158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12993,6 +17039,940 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60432BD9-9520-45DF-929F-DC671CA81FBA}">
+  <dimension ref="A10:C92"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="96.28515625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>32</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>33</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>41</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>42</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>43</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>51</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>52</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>53</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>61</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>62</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>63</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>71</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>72</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>73</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>81</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>82</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>83</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>91</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>92</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>93</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>101</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>102</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>103</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>111</v>
+      </c>
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>112</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>113</v>
+      </c>
+      <c r="B46">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>121</v>
+      </c>
+      <c r="B47">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>122</v>
+      </c>
+      <c r="B48">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>123</v>
+      </c>
+      <c r="B49">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>131</v>
+      </c>
+      <c r="B50">
+        <v>13</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>132</v>
+      </c>
+      <c r="B51">
+        <v>13</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>133</v>
+      </c>
+      <c r="B52">
+        <v>13</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>151</v>
+      </c>
+      <c r="B53">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>152</v>
+      </c>
+      <c r="B54">
+        <v>10</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>153</v>
+      </c>
+      <c r="B55">
+        <v>10</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>161</v>
+      </c>
+      <c r="B56">
+        <v>10</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>162</v>
+      </c>
+      <c r="B57">
+        <v>10</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>163</v>
+      </c>
+      <c r="B58">
+        <v>10</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>171</v>
+      </c>
+      <c r="B59">
+        <v>10</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>172</v>
+      </c>
+      <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>173</v>
+      </c>
+      <c r="B61">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>181</v>
+      </c>
+      <c r="B62">
+        <v>10</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>182</v>
+      </c>
+      <c r="B63">
+        <v>10</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>183</v>
+      </c>
+      <c r="B64">
+        <v>10</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>211</v>
+      </c>
+      <c r="B65">
+        <v>10</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>212</v>
+      </c>
+      <c r="B66">
+        <v>10</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>213</v>
+      </c>
+      <c r="B67">
+        <v>12</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>214</v>
+      </c>
+      <c r="B68">
+        <v>12</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>215</v>
+      </c>
+      <c r="B69">
+        <v>12</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>216</v>
+      </c>
+      <c r="B70">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>311</v>
+      </c>
+      <c r="B71">
+        <v>10</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>312</v>
+      </c>
+      <c r="B72">
+        <v>10</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>321</v>
+      </c>
+      <c r="B73">
+        <v>11</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>322</v>
+      </c>
+      <c r="B74">
+        <v>11</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>331</v>
+      </c>
+      <c r="B75">
+        <v>12</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>332</v>
+      </c>
+      <c r="B76">
+        <v>12</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>341</v>
+      </c>
+      <c r="B77">
+        <v>12</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>342</v>
+      </c>
+      <c r="B78">
+        <v>12</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>351</v>
+      </c>
+      <c r="B79">
+        <v>13</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>352</v>
+      </c>
+      <c r="B80">
+        <v>13</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>411</v>
+      </c>
+      <c r="B81">
+        <v>10</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>412</v>
+      </c>
+      <c r="B82">
+        <v>10</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>413</v>
+      </c>
+      <c r="B83">
+        <v>10</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>421</v>
+      </c>
+      <c r="B84">
+        <v>10</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>422</v>
+      </c>
+      <c r="B85">
+        <v>10</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>423</v>
+      </c>
+      <c r="B86">
+        <v>10</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>431</v>
+      </c>
+      <c r="B87">
+        <v>10</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>432</v>
+      </c>
+      <c r="B88">
+        <v>10</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>433</v>
+      </c>
+      <c r="B89">
+        <v>10</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>441</v>
+      </c>
+      <c r="B90">
+        <v>10</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>442</v>
+      </c>
+      <c r="B91">
+        <v>10</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>443</v>
+      </c>
+      <c r="B92">
+        <v>10</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACDF6F56-3115-4EA0-ACCE-349D961B88C3}">
   <dimension ref="A10:B19"/>
   <sheetViews>
@@ -13073,1484 +18053,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA28DC1-A6F0-4C69-8806-E3373A8287F3}">
-  <dimension ref="A10:I193"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="I185" sqref="I185"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1520</v>
-      </c>
-      <c r="I10" t="s">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>1521</v>
-      </c>
-      <c r="I11" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1550</v>
-      </c>
-      <c r="I12" t="s">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>1522</v>
-      </c>
-      <c r="I13" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>1551</v>
-      </c>
-      <c r="I14" t="s">
-        <v>1629</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>1523</v>
-      </c>
-      <c r="I15" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>1552</v>
-      </c>
-      <c r="I16" t="s">
-        <v>1630</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I17" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>1553</v>
-      </c>
-      <c r="I18" t="s">
-        <v>1631</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>1525</v>
-      </c>
-      <c r="I19" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>1521</v>
-      </c>
-      <c r="I20" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>1554</v>
-      </c>
-      <c r="I21" t="s">
-        <v>1632</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>1522</v>
-      </c>
-      <c r="I22" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>1555</v>
-      </c>
-      <c r="I23" t="s">
-        <v>1633</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>1523</v>
-      </c>
-      <c r="I24" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>1556</v>
-      </c>
-      <c r="I25" t="s">
-        <v>1634</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I26" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>1557</v>
-      </c>
-      <c r="I27" t="s">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>1526</v>
-      </c>
-      <c r="I28" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>1521</v>
-      </c>
-      <c r="I29" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>1558</v>
-      </c>
-      <c r="I30" t="s">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>1522</v>
-      </c>
-      <c r="I31" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>1559</v>
-      </c>
-      <c r="I32" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>1523</v>
-      </c>
-      <c r="I33" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>1560</v>
-      </c>
-      <c r="I34" t="s">
-        <v>1638</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I35" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>1561</v>
-      </c>
-      <c r="I36" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>1527</v>
-      </c>
-      <c r="I37" t="s">
-        <v>1527</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>1521</v>
-      </c>
-      <c r="I38" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>1562</v>
-      </c>
-      <c r="I39" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>1522</v>
-      </c>
-      <c r="I40" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>1563</v>
-      </c>
-      <c r="I41" t="s">
-        <v>1641</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>1523</v>
-      </c>
-      <c r="I42" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>1564</v>
-      </c>
-      <c r="I43" t="s">
-        <v>1642</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I44" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>1565</v>
-      </c>
-      <c r="I45" t="s">
-        <v>1643</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>1528</v>
-      </c>
-      <c r="I46" t="s">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>1521</v>
-      </c>
-      <c r="I47" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>1566</v>
-      </c>
-      <c r="I48" t="s">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>1522</v>
-      </c>
-      <c r="I49" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>1567</v>
-      </c>
-      <c r="I50" t="s">
-        <v>1645</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>1523</v>
-      </c>
-      <c r="I51" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>1568</v>
-      </c>
-      <c r="I52" t="s">
-        <v>1646</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I53" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>1569</v>
-      </c>
-      <c r="I54" t="s">
-        <v>1647</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>1529</v>
-      </c>
-      <c r="I55" t="s">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>1521</v>
-      </c>
-      <c r="I56" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>1570</v>
-      </c>
-      <c r="I57" t="s">
-        <v>1648</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>1522</v>
-      </c>
-      <c r="I58" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>1571</v>
-      </c>
-      <c r="I59" t="s">
-        <v>1649</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>1523</v>
-      </c>
-      <c r="I60" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>1572</v>
-      </c>
-      <c r="I61" t="s">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I62" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>1573</v>
-      </c>
-      <c r="I63" t="s">
-        <v>1651</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>1530</v>
-      </c>
-      <c r="I64" t="s">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>1521</v>
-      </c>
-      <c r="I65" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>1574</v>
-      </c>
-      <c r="I66" t="s">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>1522</v>
-      </c>
-      <c r="I67" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>1575</v>
-      </c>
-      <c r="I68" t="s">
-        <v>1653</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>1523</v>
-      </c>
-      <c r="I69" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>1576</v>
-      </c>
-      <c r="I70" t="s">
-        <v>1654</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I71" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>1577</v>
-      </c>
-      <c r="I72" t="s">
-        <v>1655</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>1531</v>
-      </c>
-      <c r="I73" t="s">
-        <v>1531</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>1521</v>
-      </c>
-      <c r="I74" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>1578</v>
-      </c>
-      <c r="I75" t="s">
-        <v>1656</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>1522</v>
-      </c>
-      <c r="I76" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>1579</v>
-      </c>
-      <c r="I77" t="s">
-        <v>1657</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>1523</v>
-      </c>
-      <c r="I78" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>1580</v>
-      </c>
-      <c r="I79" t="s">
-        <v>1658</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I80" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>1581</v>
-      </c>
-      <c r="I81" t="s">
-        <v>1659</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>1532</v>
-      </c>
-      <c r="I82" t="s">
-        <v>1532</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>1521</v>
-      </c>
-      <c r="I83" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>1582</v>
-      </c>
-      <c r="I84" t="s">
-        <v>1660</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>1522</v>
-      </c>
-      <c r="I85" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>1583</v>
-      </c>
-      <c r="I86" t="s">
-        <v>1661</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>1523</v>
-      </c>
-      <c r="I87" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>1584</v>
-      </c>
-      <c r="I88" t="s">
-        <v>1662</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I89" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>1585</v>
-      </c>
-      <c r="I90" t="s">
-        <v>1663</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>1533</v>
-      </c>
-      <c r="I91" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>1521</v>
-      </c>
-      <c r="I92" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>1586</v>
-      </c>
-      <c r="I93" t="s">
-        <v>1664</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>1522</v>
-      </c>
-      <c r="I94" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>1587</v>
-      </c>
-      <c r="I95" t="s">
-        <v>1665</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>1523</v>
-      </c>
-      <c r="I96" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>1588</v>
-      </c>
-      <c r="I97" t="s">
-        <v>1666</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I98" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>1534</v>
-      </c>
-      <c r="I99" t="s">
-        <v>1534</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>1535</v>
-      </c>
-      <c r="I100" t="s">
-        <v>1535</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>1536</v>
-      </c>
-      <c r="I101" t="s">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>1537</v>
-      </c>
-      <c r="I102" t="s">
-        <v>1537</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>1538</v>
-      </c>
-      <c r="I103" t="s">
-        <v>1538</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>1539</v>
-      </c>
-      <c r="I104" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>1589</v>
-      </c>
-      <c r="I105" t="s">
-        <v>1667</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>1539</v>
-      </c>
-      <c r="I106" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>1589</v>
-      </c>
-      <c r="I107" t="s">
-        <v>1667</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>1590</v>
-      </c>
-      <c r="I108" t="s">
-        <v>1668</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>1540</v>
-      </c>
-      <c r="I109" t="s">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>1521</v>
-      </c>
-      <c r="I110" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>1591</v>
-      </c>
-      <c r="I111" t="s">
-        <v>1669</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>1522</v>
-      </c>
-      <c r="I112" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>1592</v>
-      </c>
-      <c r="I113" t="s">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>1523</v>
-      </c>
-      <c r="I114" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>1593</v>
-      </c>
-      <c r="I115" t="s">
-        <v>1671</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I116" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>1594</v>
-      </c>
-      <c r="I117" t="s">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>1541</v>
-      </c>
-      <c r="I118" t="s">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>1521</v>
-      </c>
-      <c r="I119" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>1595</v>
-      </c>
-      <c r="I120" t="s">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>1522</v>
-      </c>
-      <c r="I121" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>1596</v>
-      </c>
-      <c r="I122" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>1523</v>
-      </c>
-      <c r="I123" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>1597</v>
-      </c>
-      <c r="I124" t="s">
-        <v>1675</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I125" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>1598</v>
-      </c>
-      <c r="I126" t="s">
-        <v>1676</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>1542</v>
-      </c>
-      <c r="I127" t="s">
-        <v>1542</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>1521</v>
-      </c>
-      <c r="I128" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>1599</v>
-      </c>
-      <c r="I129" t="s">
-        <v>1677</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>1522</v>
-      </c>
-      <c r="I130" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>1600</v>
-      </c>
-      <c r="I131" t="s">
-        <v>1678</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>1523</v>
-      </c>
-      <c r="I132" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>1601</v>
-      </c>
-      <c r="I133" t="s">
-        <v>1679</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I134" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>1602</v>
-      </c>
-      <c r="I135" t="s">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>1543</v>
-      </c>
-      <c r="I136" t="s">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>1521</v>
-      </c>
-      <c r="I137" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>1603</v>
-      </c>
-      <c r="I138" t="s">
-        <v>1681</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>1522</v>
-      </c>
-      <c r="I139" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>1604</v>
-      </c>
-      <c r="I140" t="s">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>1523</v>
-      </c>
-      <c r="I141" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>1605</v>
-      </c>
-      <c r="I142" t="s">
-        <v>1683</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I143" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>1606</v>
-      </c>
-      <c r="I144" t="s">
-        <v>1684</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>1544</v>
-      </c>
-      <c r="I145" t="s">
-        <v>1544</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>1521</v>
-      </c>
-      <c r="I146" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>1607</v>
-      </c>
-      <c r="I147" t="s">
-        <v>1685</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>1522</v>
-      </c>
-      <c r="I148" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>1608</v>
-      </c>
-      <c r="I149" t="s">
-        <v>1686</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>1523</v>
-      </c>
-      <c r="I150" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>1609</v>
-      </c>
-      <c r="I151" t="s">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I152" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>1610</v>
-      </c>
-      <c r="I153" t="s">
-        <v>1688</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>1545</v>
-      </c>
-      <c r="I154" t="s">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>1521</v>
-      </c>
-      <c r="I155" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>1611</v>
-      </c>
-      <c r="I156" t="s">
-        <v>1689</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>1522</v>
-      </c>
-      <c r="I157" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>1612</v>
-      </c>
-      <c r="I158" t="s">
-        <v>1690</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>1523</v>
-      </c>
-      <c r="I159" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>1613</v>
-      </c>
-      <c r="I160" t="s">
-        <v>1691</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I161" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>1614</v>
-      </c>
-      <c r="I162" t="s">
-        <v>1692</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>1546</v>
-      </c>
-      <c r="I163" t="s">
-        <v>1546</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>1521</v>
-      </c>
-      <c r="I164" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>1615</v>
-      </c>
-      <c r="I165" t="s">
-        <v>1693</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>1522</v>
-      </c>
-      <c r="I166" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>1616</v>
-      </c>
-      <c r="I167" t="s">
-        <v>1694</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>1523</v>
-      </c>
-      <c r="I168" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>1617</v>
-      </c>
-      <c r="I169" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I170" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>1618</v>
-      </c>
-      <c r="I171" t="s">
-        <v>1696</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>1547</v>
-      </c>
-      <c r="I172" t="s">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>1521</v>
-      </c>
-      <c r="I173" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>1619</v>
-      </c>
-      <c r="I174" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>1522</v>
-      </c>
-      <c r="I175" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>1620</v>
-      </c>
-      <c r="I176" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>1523</v>
-      </c>
-      <c r="I177" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>1621</v>
-      </c>
-      <c r="I178" t="s">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I179" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>1622</v>
-      </c>
-      <c r="I180" t="s">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>1548</v>
-      </c>
-      <c r="I181" t="s">
-        <v>1548</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>1521</v>
-      </c>
-      <c r="I182" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>1623</v>
-      </c>
-      <c r="I183" t="s">
-        <v>1701</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>1522</v>
-      </c>
-      <c r="I184" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>1624</v>
-      </c>
-      <c r="I185" t="s">
-        <v>1702</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>1523</v>
-      </c>
-      <c r="I186" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>1625</v>
-      </c>
-      <c r="I187" t="s">
-        <v>1703</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I188" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>1626</v>
-      </c>
-      <c r="I189" t="s">
-        <v>1704</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>1627</v>
-      </c>
-      <c r="I190" t="s">
-        <v>1627</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I191" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I192" t="s">
-        <v>1549</v>
-      </c>
-    </row>
-    <row r="193" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I193" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/OpenGoalZ.xlsx
+++ b/OpenGoalZ.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ed35836b10785304/git/opengoalz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="255" documentId="13_ncr:1_{90BEB9EB-AA90-4D42-A6F8-3363197A98D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEADB852-574B-468A-9C93-7BE042E7249B}"/>
+  <xr:revisionPtr revIDLastSave="258" documentId="13_ncr:1_{90BEB9EB-AA90-4D42-A6F8-3363197A98D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E334D32-C028-4D62-BCF2-B127700D78D7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats_CoefMatrix" sheetId="4" r:id="rId1"/>
     <sheet name="LeagueScheduling" sheetId="13" r:id="rId2"/>
-    <sheet name="TrainingPoints" sheetId="10" r:id="rId3"/>
-    <sheet name="game_events_type" sheetId="11" r:id="rId4"/>
-    <sheet name="ALL_players_name" sheetId="6" r:id="rId5"/>
-    <sheet name="83_FRANCE" sheetId="8" r:id="rId6"/>
-    <sheet name="233_UK" sheetId="9" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId3"/>
+    <sheet name="TrainingPoints" sheetId="10" r:id="rId4"/>
+    <sheet name="game_events_type" sheetId="11" r:id="rId5"/>
+    <sheet name="ALL_players_name" sheetId="6" r:id="rId6"/>
+    <sheet name="83_FRANCE" sheetId="8" r:id="rId7"/>
+    <sheet name="233_UK" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4878" uniqueCount="1601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4880" uniqueCount="1603">
   <si>
     <t>RightDefense</t>
   </si>
@@ -4845,13 +4846,19 @@
   </si>
   <si>
     <t>Friendly game (week14) of the lowest leagues between 6th of right league with 6th of left league</t>
+  </si>
+  <si>
+    <t>*** 1B: Right Club 106 (from league= -18) won the game 682 (type= 212) and will be promoted to league: 17</t>
+  </si>
+  <si>
+    <t>Club 93 (from league= 17) who finished 6th will go down to league: -18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4896,6 +4903,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="6">
@@ -5292,7 +5305,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5396,6 +5409,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -17042,8 +17058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60432BD9-9520-45DF-929F-DC671CA81FBA}">
   <dimension ref="A10:C92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17973,6 +17989,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB3C5B4-BBF6-45FC-A031-BF1FB9C594C5}">
+  <dimension ref="A10:A11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACDF6F56-3115-4EA0-ACCE-349D961B88C3}">
   <dimension ref="A10:B19"/>
   <sheetViews>
@@ -18056,7 +18097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C48BD7BE-3FB6-4C74-86CD-A8DBD21EECA7}">
   <dimension ref="A1:H29"/>
   <sheetViews>
@@ -18401,7 +18442,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29AF976-DF20-4755-BA2E-2FAFD83FFAEC}">
   <dimension ref="A1:J1041"/>
   <sheetViews>
@@ -23767,7 +23808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39D9AE7D-E251-407C-83E5-68098C34D0A8}">
   <dimension ref="A1:S942"/>
   <sheetViews>
@@ -49096,7 +49137,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A26C3C4-8FD1-4738-85E0-113A8C3427C6}">
   <dimension ref="A1:D101"/>
   <sheetViews>

--- a/OpenGoalZ.xlsx
+++ b/OpenGoalZ.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ed35836b10785304/git/opengoalz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="258" documentId="13_ncr:1_{90BEB9EB-AA90-4D42-A6F8-3363197A98D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E334D32-C028-4D62-BCF2-B127700D78D7}"/>
+  <xr:revisionPtr revIDLastSave="265" documentId="13_ncr:1_{90BEB9EB-AA90-4D42-A6F8-3363197A98D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4D181B3-820B-4B3D-A400-27BA3A87350C}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4245" yWindow="3195" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats_CoefMatrix" sheetId="4" r:id="rId1"/>
     <sheet name="LeagueScheduling" sheetId="13" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="14" r:id="rId3"/>
-    <sheet name="TrainingPoints" sheetId="10" r:id="rId4"/>
+    <sheet name="TrainingPoints" sheetId="10" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId4"/>
     <sheet name="game_events_type" sheetId="11" r:id="rId5"/>
     <sheet name="ALL_players_name" sheetId="6" r:id="rId6"/>
     <sheet name="83_FRANCE" sheetId="8" r:id="rId7"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4880" uniqueCount="1603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4878" uniqueCount="1601">
   <si>
     <t>RightDefense</t>
   </si>
@@ -4846,19 +4846,13 @@
   </si>
   <si>
     <t>Friendly game (week14) of the lowest leagues between 6th of right league with 6th of left league</t>
-  </si>
-  <si>
-    <t>*** 1B: Right Club 106 (from league= -18) won the game 682 (type= 212) and will be promoted to league: 17</t>
-  </si>
-  <si>
-    <t>Club 93 (from league= 17) who finished 6th will go down to league: -18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4903,12 +4897,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCCCCCC"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="6">
@@ -5305,7 +5293,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5409,9 +5397,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -6050,6 +6035,391 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4250</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4750</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$1:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40709053153690439</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50118723362727235</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5660142663870591</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61703386272000971</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6597539553864471</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69684530193594896</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.72982781877669967</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.7596577929323739</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78698010622887105</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.81225239635623547</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.83581239395415241</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.85791720044409492</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.87876754092976306</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.8985234417906397</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.91731475464240175</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.93524844782262129</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.95241379610926191</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.96888616119726334</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.98472980181757508</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D888-4D12-B55D-132A4A13263B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1731301264"/>
+        <c:axId val="1731304144"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1731301264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1731304144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1731304144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1731301264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6091,6 +6461,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6647,6 +7057,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11601,6 +12527,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDDB2F16-8ADD-4BD6-BAD1-522804E795A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
@@ -11904,8 +12873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R158"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17989,31 +18958,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB3C5B4-BBF6-45FC-A031-BF1FB9C594C5}">
-  <dimension ref="A10:A11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
-        <v>1601</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
-        <v>1602</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACDF6F56-3115-4EA0-ACCE-349D961B88C3}">
   <dimension ref="A10:B19"/>
   <sheetViews>
@@ -18094,6 +19038,295 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F9185F-01C4-4153-A9C9-E6FBC1F5902A}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <f>A1/5000</f>
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <f>B1^0.3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>250</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:B21" si="0">A2/5000</f>
+        <v>0.05</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C21" si="1">B2^0.3</f>
+        <v>0.40709053153690439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>500</v>
+      </c>
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="1"/>
+        <v>0.50118723362727235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>750</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>0.5660142663870591</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1000</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>0.61703386272000971</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1250</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>0.6597539553864471</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1500</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>0.69684530193594896</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1750</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>0.72982781877669967</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2000</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>0.7596577929323739</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2250</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>0.45</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>0.78698010622887105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2500</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>0.81225239635623547</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2750</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>0.83581239395415241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3000</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>0.85791720044409492</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3250</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0.65</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>0.87876754092976306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3500</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>0.8985234417906397</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3750</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>0.91731475464240175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4000</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>0.93524844782262129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4250</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>0.85</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>0.95241379610926191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4500</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>0.96888616119726334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4750</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>0.95</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>0.98472980181757508</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>5000</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/OpenGoalZ.xlsx
+++ b/OpenGoalZ.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ed35836b10785304/git/opengoalz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="265" documentId="13_ncr:1_{90BEB9EB-AA90-4D42-A6F8-3363197A98D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4D181B3-820B-4B3D-A400-27BA3A87350C}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{4B00996F-E3F1-4783-9448-E379F42598D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{735955C8-7A54-40DE-8C88-A70D0C5A8B65}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4245" yWindow="3195" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats_CoefMatrix" sheetId="4" r:id="rId1"/>
-    <sheet name="LeagueScheduling" sheetId="13" r:id="rId2"/>
-    <sheet name="TrainingPoints" sheetId="10" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="14" r:id="rId4"/>
-    <sheet name="game_events_type" sheetId="11" r:id="rId5"/>
-    <sheet name="ALL_players_name" sheetId="6" r:id="rId6"/>
-    <sheet name="83_FRANCE" sheetId="8" r:id="rId7"/>
-    <sheet name="233_UK" sheetId="9" r:id="rId8"/>
+    <sheet name="CoefMatrixCalc" sheetId="15" r:id="rId2"/>
+    <sheet name="LeagueScheduling" sheetId="13" r:id="rId3"/>
+    <sheet name="TrainingPoints" sheetId="10" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId5"/>
+    <sheet name="game_events_type" sheetId="11" r:id="rId6"/>
+    <sheet name="ALL_players_name" sheetId="6" r:id="rId7"/>
+    <sheet name="83_FRANCE" sheetId="8" r:id="rId8"/>
+    <sheet name="233_UK" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4878" uniqueCount="1601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4929" uniqueCount="1620">
   <si>
     <t>RightDefense</t>
   </si>
@@ -4846,6 +4847,63 @@
   </si>
   <si>
     <t>Friendly game (week14) of the lowest leagues between 6th of right league with 6th of left league</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>leftDefense</t>
+  </si>
+  <si>
+    <t>centralDefense</t>
+  </si>
+  <si>
+    <t>rightDefense</t>
+  </si>
+  <si>
+    <t>midField</t>
+  </si>
+  <si>
+    <t>leftAttack</t>
+  </si>
+  <si>
+    <t>centralAttack</t>
+  </si>
+  <si>
+    <t>rightAttack</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>central ratio</t>
+  </si>
+  <si>
+    <t>left ratio</t>
+  </si>
+  <si>
+    <t>right ratio</t>
+  </si>
+  <si>
+    <t>midfield ratio</t>
+  </si>
+  <si>
+    <t>opportunity_seuil</t>
+  </si>
+  <si>
+    <t>opportunity?</t>
+  </si>
+  <si>
+    <t>central</t>
   </si>
 </sst>
 </file>
@@ -5293,7 +5351,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5310,7 +5368,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
@@ -5371,7 +5429,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
@@ -5396,6 +5454,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -12570,10 +12646,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -12871,10 +12943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:R158"/>
+  <dimension ref="A1:U158"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="U50" sqref="U50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12931,7 +13003,7 @@
       </c>
       <c r="L4" s="15" t="str">
         <f>R40</f>
-        <v>{{0,0.15,0,0,0,0},{0,0.3,0,0,0,0},{0,0.05,0,0,0,0},{0,0,0.1,0.1,0,0},{0,0,0.1,0,0.05,0},{0,0,0.1,0,0,0.05},{0,,0,0,0,0}},</v>
+        <v>{{0,0.15,0,0,0,0},{0,0.3,0,0,0,0},{0,0.05,0,0,0,0},{0,0,0.1,0.1,0,0},{0,0,0.1,0,0.05,0},{0,0,0.1,0,0,0.05},{0,0,0,0,0,0}},</v>
       </c>
     </row>
     <row r="5" spans="10:12" x14ac:dyDescent="0.25">
@@ -12967,7 +13039,7 @@
       </c>
       <c r="L7" s="15" t="str">
         <f>R70</f>
-        <v>{{0,0.05,0,0,0,0},{0,0.3,0,0,0,0},{0,0.15,0,0,0,0},{0,0,0.1,0.1,0,0},{0,0,0,0,0,0},{0,0,0.1,0,0,0.05},{0,0,0.1,0,0.05,0}},</v>
+        <v>{{0,0.05,0,0,0,0},{0,0.15,0,0,0,0},{0,0.2,0,0,0,0},{0,0,0.05,0.1,0,0},{0,0,0,0,0,0},{0,0,0.05,0,0,0},{0,0,0.1,0,0.25,0.05}},</v>
       </c>
     </row>
     <row r="8" spans="10:12" x14ac:dyDescent="0.25">
@@ -13071,8 +13143,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -13101,8 +13173,11 @@
         <f>_xlfn.CONCAT("{",R21,",",R22,",",R23,",",R24,",",R25,",",R26,",",R27,"},")</f>
         <v>{{0.125,0.05,0,0,0,0},{0.25,0.1,0,0,0,0},{0.125,0.05,0,0,0,0},{0,0,0.05,0.1,0,0},{0,0,0.05,0,0,0},{0,0,0.05,0,0,0},{0,0,0.05,0,0,0}},</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U20" s="1" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>2</v>
       </c>
@@ -13128,8 +13203,12 @@
         <f t="shared" ref="R21:R27" si="0">_xlfn.CONCAT("{",C21,",",D21,",",E21,",",F21,",",G21,",",H21,"}")</f>
         <v>{0.125,0.05,0,0,0,0}</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U21" s="1" t="str">
+        <f t="shared" ref="U21:U26" si="1">_xlfn.CONCAT("[",C21,",",D21,",",E21,",",F21,",",G21,",",H21,"],")</f>
+        <v>[0.125,0.05,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>1</v>
       </c>
@@ -13155,8 +13234,12 @@
         <f t="shared" si="0"/>
         <v>{0.25,0.1,0,0,0,0}</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>[0.25,0.1,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
         <v>0</v>
       </c>
@@ -13165,31 +13248,35 @@
         <v>0.125</v>
       </c>
       <c r="D23" s="6">
-        <f t="shared" ref="D23:H23" si="1">D21</f>
+        <f t="shared" ref="D23:H23" si="2">D21</f>
         <v>0.05</v>
       </c>
       <c r="E23" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G23" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H23" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R23" s="14" t="str">
         <f t="shared" si="0"/>
         <v>{0.125,0.05,0,0,0,0}</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>[0.125,0.05,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
         <v>3</v>
       </c>
@@ -13215,8 +13302,12 @@
         <f t="shared" si="0"/>
         <v>{0,0,0.05,0.1,0,0}</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>[0,0,0.05,0.1,0,0],</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
         <v>4</v>
       </c>
@@ -13242,8 +13333,12 @@
         <f t="shared" si="0"/>
         <v>{0,0,0.05,0,0,0}</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>[0,0,0.05,0,0,0],</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>5</v>
       </c>
@@ -13269,8 +13364,12 @@
         <f t="shared" si="0"/>
         <v>{0,0,0.05,0,0,0}</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>[0,0,0.05,0,0,0],</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="5" t="s">
         <v>6</v>
       </c>
@@ -13279,62 +13378,69 @@
         <v>0</v>
       </c>
       <c r="D27" s="8">
-        <f t="shared" ref="D27:H27" si="2">D25</f>
+        <f t="shared" ref="D27:H27" si="3">D25</f>
         <v>0</v>
       </c>
       <c r="E27" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="F27" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G27" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H27" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R27" s="14" t="str">
         <f t="shared" si="0"/>
         <v>{0,0,0.05,0,0,0}</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U27" s="1" t="str">
+        <f>_xlfn.CONCAT("[",C27,",",D27,",",E27,",",F27,",",G27,",",H27,"]")</f>
+        <v>[0,0,0.05,0,0,0]</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C28" s="1">
         <f>SUM(C21:C27)</f>
         <v>0.5</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" ref="D28:H28" si="3">SUM(D21:D27)</f>
+        <f t="shared" ref="D28:H28" si="4">SUM(D21:D27)</f>
         <v>0.2</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I28" s="1">
         <f>SUM(C28:H28)</f>
         <v>0.99999999999999989</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U28" s="1" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>2</v>
       </c>
@@ -13368,31 +13474,34 @@
         <v>keeper</v>
       </c>
       <c r="L30" s="17" t="str">
-        <f t="shared" ref="L30:P30" si="4">D30</f>
+        <f t="shared" ref="L30:P30" si="5">D30</f>
         <v>defense</v>
       </c>
       <c r="M30" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>passes</v>
       </c>
       <c r="N30" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>playmaking</v>
       </c>
       <c r="O30" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>winger</v>
       </c>
       <c r="P30" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>scoring</v>
       </c>
       <c r="R30" s="14" t="str">
         <f>_xlfn.CONCAT("{",R31,",",R32,",",R33,",",R34,",",R35,",",R36,",",R37,"},")</f>
         <v>{{0,0.2,0,0,0,0},{0,0.15,0,0,0,0},{0,0.05,0,0,0,0},{0,0,0.05,0.1,0,0},{0,0,0.1,0,0.25,0.05},{0,0,0.05,0,0,0},{0,0,0,0,0,0}},</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U30" s="1" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>2</v>
       </c>
@@ -13423,31 +13532,35 @@
         <v>0</v>
       </c>
       <c r="L31" s="6">
-        <f t="shared" ref="L31:P31" si="5">D33</f>
+        <f t="shared" ref="L31:P31" si="6">D33</f>
         <v>0.05</v>
       </c>
       <c r="M31" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N31" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O31" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P31" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R31" s="14" t="str">
-        <f t="shared" ref="R31:R37" si="6">_xlfn.CONCAT("{",C31,",",D31,",",E31,",",F31,",",G31,",",H31,"}")</f>
+        <f t="shared" ref="R31:R37" si="7">_xlfn.CONCAT("{",C31,",",D31,",",E31,",",F31,",",G31,",",H31,"}")</f>
         <v>{0,0.2,0,0,0,0}</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U31" s="1" t="str">
+        <f t="shared" ref="U31:U36" si="8">_xlfn.CONCAT("[",C31,",",D31,",",E31,",",F31,",",G31,",",H31,"],")</f>
+        <v>[0,0.2,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
         <v>1</v>
       </c>
@@ -13470,7 +13583,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="4" t="str">
-        <f t="shared" ref="J32:J37" si="7">B32</f>
+        <f t="shared" ref="J32:J37" si="9">B32</f>
         <v>CentralDefense</v>
       </c>
       <c r="K32" s="6">
@@ -13478,31 +13591,35 @@
         <v>0</v>
       </c>
       <c r="L32" s="6">
-        <f t="shared" ref="L32:P32" si="8">D32</f>
+        <f t="shared" ref="L32:P32" si="10">D32</f>
         <v>0.15</v>
       </c>
       <c r="M32" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="14" t="str">
+        <f t="shared" si="7"/>
+        <v>{0,0.15,0,0,0,0}</v>
+      </c>
+      <c r="U32" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N32" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O32" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P32" s="7">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R32" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>{0,0.15,0,0,0,0}</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>[0,0.15,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
         <v>0</v>
       </c>
@@ -13525,7 +13642,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>RightDefense</v>
       </c>
       <c r="K33" s="6">
@@ -13541,23 +13658,27 @@
         <v>0</v>
       </c>
       <c r="N33" s="6">
-        <f t="shared" ref="N33:P33" si="9">F31</f>
+        <f t="shared" ref="N33:P33" si="11">F31</f>
         <v>0</v>
       </c>
       <c r="O33" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P33" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R33" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>{0,0.05,0,0,0,0}</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U33" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>[0,0.05,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
         <v>3</v>
       </c>
@@ -13580,7 +13701,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>MidField</v>
       </c>
       <c r="K34" s="6">
@@ -13588,31 +13709,35 @@
         <v>0</v>
       </c>
       <c r="L34" s="6">
-        <f t="shared" ref="L34:P34" si="10">D34</f>
+        <f t="shared" ref="L34:P34" si="12">D34</f>
         <v>0</v>
       </c>
       <c r="M34" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="N34" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
       <c r="O34" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P34" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R34" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>{0,0,0.05,0.1,0,0}</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U34" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>[0,0,0.05,0.1,0,0],</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -13635,7 +13760,7 @@
         <v>0.05</v>
       </c>
       <c r="J35" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>LeftAttack</v>
       </c>
       <c r="K35" s="6">
@@ -13643,31 +13768,35 @@
         <v>0</v>
       </c>
       <c r="L35" s="6">
-        <f t="shared" ref="L35:P35" si="11">D37</f>
+        <f t="shared" ref="L35:P35" si="13">D37</f>
         <v>0</v>
       </c>
       <c r="M35" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N35" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O35" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P35" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R35" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>{0,0,0.1,0,0.25,0.05}</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U35" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>[0,0,0.1,0,0.25,0.05],</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
         <v>5</v>
       </c>
@@ -13690,7 +13819,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>CentralAttack</v>
       </c>
       <c r="K36" s="6">
@@ -13698,31 +13827,35 @@
         <v>0</v>
       </c>
       <c r="L36" s="6">
-        <f t="shared" ref="L36:P36" si="12">D36</f>
+        <f t="shared" ref="L36:P36" si="14">D36</f>
         <v>0</v>
       </c>
       <c r="M36" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.05</v>
       </c>
       <c r="N36" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O36" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P36" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R36" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>{0,0,0.05,0,0,0}</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U36" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>[0,0,0.05,0,0,0],</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
         <v>6</v>
       </c>
@@ -13745,7 +13878,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>RightAttack</v>
       </c>
       <c r="K37" s="8">
@@ -13753,62 +13886,69 @@
         <v>0</v>
       </c>
       <c r="L37" s="8">
-        <f t="shared" ref="L37:P37" si="13">D35</f>
+        <f t="shared" ref="L37:P37" si="15">D35</f>
         <v>0</v>
       </c>
       <c r="M37" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.1</v>
       </c>
       <c r="N37" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O37" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.25</v>
       </c>
       <c r="P37" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.05</v>
       </c>
       <c r="R37" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>{0,0,0,0,0,0}</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U37" s="1" t="str">
+        <f>_xlfn.CONCAT("[",C37,",",D37,",",E37,",",F37,",",G37,",",H37,"]")</f>
+        <v>[0,0,0,0,0,0]</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C38" s="1">
         <f>SUM(C31:C37)</f>
         <v>0</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" ref="D38" si="14">SUM(D31:D37)</f>
+        <f t="shared" ref="D38" si="16">SUM(D31:D37)</f>
         <v>0.39999999999999997</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" ref="E38" si="15">SUM(E31:E37)</f>
+        <f t="shared" ref="E38" si="17">SUM(E31:E37)</f>
         <v>0.2</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" ref="F38" si="16">SUM(F31:F37)</f>
+        <f t="shared" ref="F38" si="18">SUM(F31:F37)</f>
         <v>0.1</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" ref="G38" si="17">SUM(G31:G37)</f>
+        <f t="shared" ref="G38" si="19">SUM(G31:G37)</f>
         <v>0.25</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" ref="H38" si="18">SUM(H31:H37)</f>
+        <f t="shared" ref="H38" si="20">SUM(H31:H37)</f>
         <v>0.05</v>
       </c>
       <c r="I38" s="1">
         <f>SUM(C38:H38)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U38" s="1" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>3</v>
       </c>
@@ -13842,31 +13982,34 @@
         <v>keeper</v>
       </c>
       <c r="L40" s="17" t="str">
-        <f t="shared" ref="L40" si="19">D40</f>
+        <f t="shared" ref="L40" si="21">D40</f>
         <v>defense</v>
       </c>
       <c r="M40" s="17" t="str">
-        <f t="shared" ref="M40" si="20">E40</f>
+        <f t="shared" ref="M40" si="22">E40</f>
         <v>passes</v>
       </c>
       <c r="N40" s="17" t="str">
-        <f t="shared" ref="N40" si="21">F40</f>
+        <f t="shared" ref="N40" si="23">F40</f>
         <v>playmaking</v>
       </c>
       <c r="O40" s="17" t="str">
-        <f t="shared" ref="O40" si="22">G40</f>
+        <f t="shared" ref="O40" si="24">G40</f>
         <v>winger</v>
       </c>
       <c r="P40" s="18" t="str">
-        <f t="shared" ref="P40" si="23">H40</f>
+        <f t="shared" ref="P40" si="25">H40</f>
         <v>scoring</v>
       </c>
       <c r="R40" s="14" t="str">
         <f>_xlfn.CONCAT("{",R41,",",R42,",",R43,",",R44,",",R45,",",R46,",",R47,"},")</f>
-        <v>{{0,0.15,0,0,0,0},{0,0.3,0,0,0,0},{0,0.05,0,0,0,0},{0,0,0.1,0.1,0,0},{0,0,0.1,0,0.05,0},{0,0,0.1,0,0,0.05},{0,,0,0,0,0}},</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>{{0,0.15,0,0,0,0},{0,0.3,0,0,0,0},{0,0.05,0,0,0,0},{0,0,0.1,0.1,0,0},{0,0,0.1,0,0.05,0},{0,0,0.1,0,0,0.05},{0,0,0,0,0,0}},</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
         <v>2</v>
       </c>
@@ -13897,31 +14040,35 @@
         <v>0</v>
       </c>
       <c r="L41" s="6">
-        <f t="shared" ref="L41" si="24">D43</f>
+        <f t="shared" ref="L41" si="26">D43</f>
         <v>0.05</v>
       </c>
       <c r="M41" s="6">
-        <f t="shared" ref="M41" si="25">E43</f>
+        <f t="shared" ref="M41" si="27">E43</f>
         <v>0</v>
       </c>
       <c r="N41" s="6">
-        <f t="shared" ref="N41" si="26">F43</f>
+        <f t="shared" ref="N41" si="28">F43</f>
         <v>0</v>
       </c>
       <c r="O41" s="6">
-        <f t="shared" ref="O41" si="27">G43</f>
+        <f t="shared" ref="O41" si="29">G43</f>
         <v>0</v>
       </c>
       <c r="P41" s="7">
-        <f t="shared" ref="P41" si="28">H43</f>
+        <f t="shared" ref="P41" si="30">H43</f>
         <v>0</v>
       </c>
       <c r="R41" s="14" t="str">
-        <f t="shared" ref="R41:R47" si="29">_xlfn.CONCAT("{",C41,",",D41,",",E41,",",F41,",",G41,",",H41,"}")</f>
+        <f t="shared" ref="R41:R47" si="31">_xlfn.CONCAT("{",C41,",",D41,",",E41,",",F41,",",G41,",",H41,"}")</f>
         <v>{0,0.15,0,0,0,0}</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U41" s="1" t="str">
+        <f t="shared" ref="U41:U46" si="32">_xlfn.CONCAT("[",C41,",",D41,",",E41,",",F41,",",G41,",",H41,"],")</f>
+        <v>[0,0.15,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
         <v>1</v>
       </c>
@@ -13944,7 +14091,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="4" t="str">
-        <f t="shared" ref="J42:J47" si="30">B42</f>
+        <f t="shared" ref="J42:J47" si="33">B42</f>
         <v>CentralDefense</v>
       </c>
       <c r="K42" s="6">
@@ -13952,31 +14099,35 @@
         <v>0</v>
       </c>
       <c r="L42" s="6">
-        <f t="shared" ref="L42" si="31">D42</f>
+        <f t="shared" ref="L42" si="34">D42</f>
         <v>0.3</v>
       </c>
       <c r="M42" s="6">
-        <f t="shared" ref="M42" si="32">E42</f>
+        <f t="shared" ref="M42" si="35">E42</f>
         <v>0</v>
       </c>
       <c r="N42" s="6">
-        <f t="shared" ref="N42" si="33">F42</f>
+        <f t="shared" ref="N42" si="36">F42</f>
         <v>0</v>
       </c>
       <c r="O42" s="6">
-        <f t="shared" ref="O42" si="34">G42</f>
+        <f t="shared" ref="O42" si="37">G42</f>
         <v>0</v>
       </c>
       <c r="P42" s="7">
-        <f t="shared" ref="P42" si="35">H42</f>
+        <f t="shared" ref="P42" si="38">H42</f>
         <v>0</v>
       </c>
       <c r="R42" s="14" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>{0,0.3,0,0,0,0}</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U42" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>[0,0.3,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
         <v>0</v>
       </c>
@@ -13999,7 +14150,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="4" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>RightDefense</v>
       </c>
       <c r="K43" s="6">
@@ -14015,23 +14166,27 @@
         <v>0</v>
       </c>
       <c r="N43" s="6">
-        <f t="shared" ref="N43" si="36">F41</f>
+        <f t="shared" ref="N43" si="39">F41</f>
         <v>0</v>
       </c>
       <c r="O43" s="6">
-        <f t="shared" ref="O43" si="37">G41</f>
+        <f t="shared" ref="O43" si="40">G41</f>
         <v>0</v>
       </c>
       <c r="P43" s="7">
-        <f t="shared" ref="P43" si="38">H41</f>
+        <f t="shared" ref="P43" si="41">H41</f>
         <v>0</v>
       </c>
       <c r="R43" s="14" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>{0,0.05,0,0,0,0}</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U43" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>[0,0.05,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
         <v>3</v>
       </c>
@@ -14054,7 +14209,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="4" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>MidField</v>
       </c>
       <c r="K44" s="6">
@@ -14062,31 +14217,35 @@
         <v>0</v>
       </c>
       <c r="L44" s="6">
-        <f t="shared" ref="L44" si="39">D44</f>
+        <f t="shared" ref="L44" si="42">D44</f>
         <v>0</v>
       </c>
       <c r="M44" s="6">
-        <f t="shared" ref="M44" si="40">E44</f>
+        <f t="shared" ref="M44" si="43">E44</f>
         <v>0.1</v>
       </c>
       <c r="N44" s="6">
-        <f t="shared" ref="N44" si="41">F44</f>
+        <f t="shared" ref="N44" si="44">F44</f>
         <v>0.1</v>
       </c>
       <c r="O44" s="6">
-        <f t="shared" ref="O44" si="42">G44</f>
+        <f t="shared" ref="O44" si="45">G44</f>
         <v>0</v>
       </c>
       <c r="P44" s="7">
-        <f t="shared" ref="P44" si="43">H44</f>
+        <f t="shared" ref="P44" si="46">H44</f>
         <v>0</v>
       </c>
       <c r="R44" s="14" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>{0,0,0.1,0.1,0,0}</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U44" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>[0,0,0.1,0.1,0,0],</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
         <v>4</v>
       </c>
@@ -14109,7 +14268,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="4" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>LeftAttack</v>
       </c>
       <c r="K45" s="6">
@@ -14117,31 +14276,35 @@
         <v>0</v>
       </c>
       <c r="L45" s="6">
-        <f t="shared" ref="L45" si="44">D47</f>
+        <f t="shared" ref="L45" si="47">D47</f>
         <v>0</v>
       </c>
       <c r="M45" s="6">
-        <f t="shared" ref="M45" si="45">E47</f>
+        <f t="shared" ref="M45" si="48">E47</f>
         <v>0</v>
       </c>
       <c r="N45" s="6">
-        <f t="shared" ref="N45" si="46">F47</f>
+        <f t="shared" ref="N45" si="49">F47</f>
         <v>0</v>
       </c>
       <c r="O45" s="6">
-        <f t="shared" ref="O45" si="47">G47</f>
+        <f t="shared" ref="O45" si="50">G47</f>
         <v>0</v>
       </c>
       <c r="P45" s="7">
-        <f t="shared" ref="P45" si="48">H47</f>
+        <f t="shared" ref="P45" si="51">H47</f>
         <v>0</v>
       </c>
       <c r="R45" s="14" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>{0,0,0.1,0,0.05,0}</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U45" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>[0,0,0.1,0,0.05,0],</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="s">
         <v>5</v>
       </c>
@@ -14164,7 +14327,7 @@
         <v>0.05</v>
       </c>
       <c r="J46" s="4" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>CentralAttack</v>
       </c>
       <c r="K46" s="6">
@@ -14172,38 +14335,44 @@
         <v>0</v>
       </c>
       <c r="L46" s="6">
-        <f t="shared" ref="L46" si="49">D46</f>
+        <f t="shared" ref="L46" si="52">D46</f>
         <v>0</v>
       </c>
       <c r="M46" s="6">
-        <f t="shared" ref="M46" si="50">E46</f>
+        <f t="shared" ref="M46" si="53">E46</f>
         <v>0.1</v>
       </c>
       <c r="N46" s="6">
-        <f t="shared" ref="N46" si="51">F46</f>
+        <f t="shared" ref="N46" si="54">F46</f>
         <v>0</v>
       </c>
       <c r="O46" s="6">
-        <f t="shared" ref="O46" si="52">G46</f>
+        <f t="shared" ref="O46" si="55">G46</f>
         <v>0</v>
       </c>
       <c r="P46" s="7">
-        <f t="shared" ref="P46" si="53">H46</f>
+        <f t="shared" ref="P46" si="56">H46</f>
         <v>0.05</v>
       </c>
       <c r="R46" s="14" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>{0,0,0.1,0,0,0.05}</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U46" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>[0,0,0.1,0,0,0.05],</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="26">
         <v>0</v>
       </c>
-      <c r="D47" s="27"/>
+      <c r="D47" s="27">
+        <v>0</v>
+      </c>
       <c r="E47" s="27">
         <v>0</v>
       </c>
@@ -14217,7 +14386,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="5" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>RightAttack</v>
       </c>
       <c r="K47" s="8">
@@ -14225,62 +14394,69 @@
         <v>0</v>
       </c>
       <c r="L47" s="8">
-        <f t="shared" ref="L47" si="54">D45</f>
+        <f t="shared" ref="L47" si="57">D45</f>
         <v>0</v>
       </c>
       <c r="M47" s="8">
-        <f t="shared" ref="M47" si="55">E45</f>
+        <f t="shared" ref="M47" si="58">E45</f>
         <v>0.1</v>
       </c>
       <c r="N47" s="8">
-        <f t="shared" ref="N47" si="56">F45</f>
+        <f t="shared" ref="N47" si="59">F45</f>
         <v>0</v>
       </c>
       <c r="O47" s="8">
-        <f t="shared" ref="O47" si="57">G45</f>
+        <f t="shared" ref="O47" si="60">G45</f>
         <v>0.05</v>
       </c>
       <c r="P47" s="9">
-        <f t="shared" ref="P47" si="58">H45</f>
+        <f t="shared" ref="P47" si="61">H45</f>
         <v>0</v>
       </c>
       <c r="R47" s="14" t="str">
-        <f t="shared" si="29"/>
-        <v>{0,,0,0,0,0}</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="31"/>
+        <v>{0,0,0,0,0,0}</v>
+      </c>
+      <c r="U47" s="1" t="str">
+        <f>_xlfn.CONCAT("[",C47,",",D47,",",E47,",",F47,",",G47,",",H47,"]")</f>
+        <v>[0,0,0,0,0,0]</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C48" s="1">
         <f>SUM(C41:C47)</f>
         <v>0</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" ref="D48" si="59">SUM(D41:D47)</f>
+        <f t="shared" ref="D48" si="62">SUM(D41:D47)</f>
         <v>0.49999999999999994</v>
       </c>
       <c r="E48" s="1">
-        <f t="shared" ref="E48" si="60">SUM(E41:E47)</f>
+        <f t="shared" ref="E48" si="63">SUM(E41:E47)</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="F48" s="1">
-        <f t="shared" ref="F48" si="61">SUM(F41:F47)</f>
+        <f t="shared" ref="F48" si="64">SUM(F41:F47)</f>
         <v>0.1</v>
       </c>
       <c r="G48" s="1">
-        <f t="shared" ref="G48" si="62">SUM(G41:G47)</f>
+        <f t="shared" ref="G48" si="65">SUM(G41:G47)</f>
         <v>0.05</v>
       </c>
       <c r="H48" s="1">
-        <f t="shared" ref="H48" si="63">SUM(H41:H47)</f>
+        <f t="shared" ref="H48" si="66">SUM(H41:H47)</f>
         <v>0.05</v>
       </c>
       <c r="I48" s="1">
         <f>SUM(C48:H48)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U48" s="1" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>4</v>
       </c>
@@ -14309,8 +14485,11 @@
         <f>_xlfn.CONCAT("{",R51,",",R52,",",R53,",",R54,",",R55,",",R56,",",R57,"},")</f>
         <v>{{0,0.1,0,0,0,0},{0,0.3,0,0,0,0},{0,0.1,0,0,0,0},{0,0,0.1,0.1,0,0},{0,0,0.05,0,0,0},{0,0,0.1,0,0,0.1},{0,0,0.05,0,0,0}},</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U50" s="1" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="3" t="s">
         <v>2</v>
       </c>
@@ -14333,11 +14512,15 @@
         <v>0</v>
       </c>
       <c r="R51" s="14" t="str">
-        <f t="shared" ref="R51:R57" si="64">_xlfn.CONCAT("{",C51,",",D51,",",E51,",",F51,",",G51,",",H51,"}")</f>
+        <f t="shared" ref="R51:R57" si="67">_xlfn.CONCAT("{",C51,",",D51,",",E51,",",F51,",",G51,",",H51,"}")</f>
         <v>{0,0.1,0,0,0,0}</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U51" s="1" t="str">
+        <f t="shared" ref="U51:U56" si="68">_xlfn.CONCAT("[",C51,",",D51,",",E51,",",F51,",",G51,",",H51,"],")</f>
+        <v>[0,0.1,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="4" t="s">
         <v>1</v>
       </c>
@@ -14360,11 +14543,15 @@
         <v>0</v>
       </c>
       <c r="R52" s="14" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>{0,0.3,0,0,0,0}</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U52" s="1" t="str">
+        <f t="shared" si="68"/>
+        <v>[0,0.3,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="4" t="s">
         <v>0</v>
       </c>
@@ -14373,31 +14560,35 @@
         <v>0</v>
       </c>
       <c r="D53" s="6">
-        <f t="shared" ref="D53:H53" si="65">D51</f>
+        <f t="shared" ref="D53:H53" si="69">D51</f>
         <v>0.1</v>
       </c>
       <c r="E53" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="F53" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="G53" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="H53" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="R53" s="14" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>{0,0.1,0,0,0,0}</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U53" s="1" t="str">
+        <f t="shared" si="68"/>
+        <v>[0,0.1,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="4" t="s">
         <v>3</v>
       </c>
@@ -14420,11 +14611,15 @@
         <v>0</v>
       </c>
       <c r="R54" s="14" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>{0,0,0.1,0.1,0,0}</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U54" s="1" t="str">
+        <f t="shared" si="68"/>
+        <v>[0,0,0.1,0.1,0,0],</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -14447,11 +14642,15 @@
         <v>0</v>
       </c>
       <c r="R55" s="14" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>{0,0,0.05,0,0,0}</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U55" s="1" t="str">
+        <f t="shared" si="68"/>
+        <v>[0,0,0.05,0,0,0],</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="4" t="s">
         <v>5</v>
       </c>
@@ -14474,11 +14673,15 @@
         <v>0.1</v>
       </c>
       <c r="R56" s="14" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>{0,0,0.1,0,0,0.1}</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U56" s="1" t="str">
+        <f t="shared" si="68"/>
+        <v>[0,0,0.1,0,0,0.1],</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="5" t="s">
         <v>6</v>
       </c>
@@ -14487,427 +14690,471 @@
         <v>0</v>
       </c>
       <c r="D57" s="8">
-        <f t="shared" ref="D57:H57" si="66">D55</f>
+        <f t="shared" ref="D57:H57" si="70">D55</f>
         <v>0</v>
       </c>
       <c r="E57" s="8">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0.05</v>
       </c>
       <c r="F57" s="8">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="G57" s="8">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="H57" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="R57" s="14" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>{0,0,0.05,0,0,0}</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U57" s="1" t="str">
+        <f>_xlfn.CONCAT("[",C57,",",D57,",",E57,",",F57,",",G57,",",H57,"]")</f>
+        <v>[0,0,0.05,0,0,0]</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C58" s="1">
         <f>SUM(C51:C57)</f>
         <v>0</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" ref="D58" si="67">SUM(D51:D57)</f>
+        <f t="shared" ref="D58" si="71">SUM(D51:D57)</f>
         <v>0.5</v>
       </c>
       <c r="E58" s="1">
-        <f t="shared" ref="E58" si="68">SUM(E51:E57)</f>
+        <f t="shared" ref="E58" si="72">SUM(E51:E57)</f>
         <v>0.3</v>
       </c>
       <c r="F58" s="1">
-        <f t="shared" ref="F58" si="69">SUM(F51:F57)</f>
+        <f t="shared" ref="F58" si="73">SUM(F51:F57)</f>
         <v>0.1</v>
       </c>
       <c r="G58" s="1">
-        <f t="shared" ref="G58" si="70">SUM(G51:G57)</f>
+        <f t="shared" ref="G58" si="74">SUM(G51:G57)</f>
         <v>0</v>
       </c>
       <c r="H58" s="1">
-        <f t="shared" ref="H58" si="71">SUM(H51:H57)</f>
+        <f t="shared" ref="H58" si="75">SUM(H51:H57)</f>
         <v>0.1</v>
       </c>
       <c r="I58" s="1">
         <f>SUM(C58:H58)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U58" s="1" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>5</v>
       </c>
       <c r="B60" s="2" t="str">
-        <f>J30</f>
-        <v>rightbackwinger</v>
+        <f>J40</f>
+        <v>rightcentralback</v>
       </c>
       <c r="C60" s="17" t="str">
-        <f t="shared" ref="C60:H67" si="72">K30</f>
+        <f t="shared" ref="C60:H67" si="76">K40</f>
         <v>keeper</v>
       </c>
       <c r="D60" s="17" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>defense</v>
       </c>
       <c r="E60" s="17" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>passes</v>
       </c>
       <c r="F60" s="17" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>playmaking</v>
       </c>
       <c r="G60" s="17" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>winger</v>
       </c>
       <c r="H60" s="18" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>scoring</v>
       </c>
       <c r="R60" s="14" t="str">
         <f>_xlfn.CONCAT("{",R61,",",R62,",",R63,",",R64,",",R65,",",R66,",",R67,"},")</f>
-        <v>{{0,0.05,0,0,0,0},{0,0.15,0,0,0,0},{0,0.2,0,0,0,0},{0,0,0.05,0.1,0,0},{0,0,0,0,0,0},{0,0,0.05,0,0,0},{0,0,0.1,0,0.25,0.05}},</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+        <v>{{0,0.05,0,0,0,0},{0,0.3,0,0,0,0},{0,0.15,0,0,0,0},{0,0,0.1,0.1,0,0},{0,0,0,0,0,0},{0,0,0.1,0,0,0.05},{0,0,0.1,0,0.05,0}},</v>
+      </c>
+      <c r="U60" s="1" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="str">
-        <f t="shared" ref="B61:B67" si="73">J31</f>
+        <f t="shared" ref="B61:B67" si="77">J41</f>
         <v>LeftDefense</v>
       </c>
-      <c r="C61" s="10">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="D61" s="10">
-        <f t="shared" si="72"/>
+      <c r="C61" s="31">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="D61" s="32">
+        <f t="shared" si="76"/>
         <v>0.05</v>
       </c>
-      <c r="E61" s="10">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="F61" s="10">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="G61" s="10">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="H61" s="11">
-        <f t="shared" si="72"/>
+      <c r="E61" s="32">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="F61" s="32">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="G61" s="32">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="H61" s="33">
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="R61" s="14" t="str">
-        <f t="shared" ref="R61:R67" si="74">_xlfn.CONCAT("{",C61,",",D61,",",E61,",",F61,",",G61,",",H61,"}")</f>
+        <f t="shared" ref="R61:R67" si="78">_xlfn.CONCAT("{",C61,",",D61,",",E61,",",F61,",",G61,",",H61,"}")</f>
         <v>{0,0.05,0,0,0,0}</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U61" s="1" t="str">
+        <f t="shared" ref="U61:U66" si="79">_xlfn.CONCAT("[",C61,",",D61,",",E61,",",F61,",",G61,",",H61,"],")</f>
+        <v>[0,0.05,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>CentralDefense</v>
       </c>
-      <c r="C62" s="10">
-        <f t="shared" si="72"/>
+      <c r="C62" s="34">
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D62" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
+        <v>0.3</v>
+      </c>
+      <c r="E62" s="10">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="F62" s="10">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="G62" s="10">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="H62" s="11">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="R62" s="14" t="str">
+        <f t="shared" si="78"/>
+        <v>{0,0.3,0,0,0,0}</v>
+      </c>
+      <c r="U62" s="1" t="str">
+        <f t="shared" si="79"/>
+        <v>[0,0.3,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="str">
+        <f t="shared" si="77"/>
+        <v>RightDefense</v>
+      </c>
+      <c r="C63" s="34">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="D63" s="10">
+        <f t="shared" si="76"/>
         <v>0.15</v>
       </c>
-      <c r="E62" s="10">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="F62" s="10">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="G62" s="10">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="H62" s="11">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="R62" s="14" t="str">
-        <f t="shared" si="74"/>
+      <c r="E63" s="10">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="F63" s="10">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="10">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="11">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="R63" s="14" t="str">
+        <f t="shared" si="78"/>
         <v>{0,0.15,0,0,0,0}</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B63" s="4" t="str">
-        <f t="shared" si="73"/>
-        <v>RightDefense</v>
-      </c>
-      <c r="C63" s="10">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="D63" s="10">
-        <f t="shared" si="72"/>
-        <v>0.2</v>
-      </c>
-      <c r="E63" s="10">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="F63" s="10">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="G63" s="10">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="H63" s="11">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="R63" s="14" t="str">
-        <f t="shared" si="74"/>
-        <v>{0,0.2,0,0,0,0}</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U63" s="1" t="str">
+        <f t="shared" si="79"/>
+        <v>[0,0.15,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B64" s="4" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>MidField</v>
       </c>
-      <c r="C64" s="10">
-        <f t="shared" si="72"/>
+      <c r="C64" s="34">
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D64" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="E64" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
+        <v>0.1</v>
+      </c>
+      <c r="F64" s="10">
+        <f t="shared" si="76"/>
+        <v>0.1</v>
+      </c>
+      <c r="G64" s="10">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="H64" s="11">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="R64" s="14" t="str">
+        <f t="shared" si="78"/>
+        <v>{0,0,0.1,0.1,0,0}</v>
+      </c>
+      <c r="U64" s="1" t="str">
+        <f t="shared" si="79"/>
+        <v>[0,0,0.1,0.1,0,0],</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="str">
+        <f t="shared" si="77"/>
+        <v>LeftAttack</v>
+      </c>
+      <c r="C65" s="34">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="D65" s="10">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="E65" s="10">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="F65" s="10">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="10">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="11">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="R65" s="14" t="str">
+        <f t="shared" si="78"/>
+        <v>{0,0,0,0,0,0}</v>
+      </c>
+      <c r="U65" s="1" t="str">
+        <f t="shared" si="79"/>
+        <v>[0,0,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="str">
+        <f t="shared" si="77"/>
+        <v>CentralAttack</v>
+      </c>
+      <c r="C66" s="34">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="D66" s="10">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="E66" s="10">
+        <f t="shared" si="76"/>
+        <v>0.1</v>
+      </c>
+      <c r="F66" s="10">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="G66" s="10">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="H66" s="11">
+        <f t="shared" si="76"/>
         <v>0.05</v>
       </c>
-      <c r="F64" s="10">
-        <f t="shared" si="72"/>
+      <c r="R66" s="14" t="str">
+        <f t="shared" si="78"/>
+        <v>{0,0,0.1,0,0,0.05}</v>
+      </c>
+      <c r="U66" s="1" t="str">
+        <f t="shared" si="79"/>
+        <v>[0,0,0.1,0,0,0.05],</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="5" t="str">
+        <f t="shared" si="77"/>
+        <v>RightAttack</v>
+      </c>
+      <c r="C67" s="35">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="D67" s="12">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="E67" s="12">
+        <f t="shared" si="76"/>
         <v>0.1</v>
       </c>
-      <c r="G64" s="10">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="H64" s="11">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="R64" s="14" t="str">
-        <f t="shared" si="74"/>
-        <v>{0,0,0.05,0.1,0,0}</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B65" s="4" t="str">
-        <f t="shared" si="73"/>
-        <v>LeftAttack</v>
-      </c>
-      <c r="C65" s="10">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="D65" s="10">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="E65" s="10">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="F65" s="10">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="G65" s="10">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="H65" s="11">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="R65" s="14" t="str">
-        <f t="shared" si="74"/>
-        <v>{0,0,0,0,0,0}</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B66" s="4" t="str">
-        <f t="shared" si="73"/>
-        <v>CentralAttack</v>
-      </c>
-      <c r="C66" s="10">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="D66" s="10">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="E66" s="10">
-        <f t="shared" si="72"/>
+      <c r="F67" s="12">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="G67" s="12">
+        <f t="shared" si="76"/>
         <v>0.05</v>
       </c>
-      <c r="F66" s="10">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="G66" s="10">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="H66" s="11">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="R66" s="14" t="str">
-        <f t="shared" si="74"/>
-        <v>{0,0,0.05,0,0,0}</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="5" t="str">
-        <f t="shared" si="73"/>
-        <v>RightAttack</v>
-      </c>
-      <c r="C67" s="12">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="D67" s="12">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="E67" s="12">
-        <f t="shared" si="72"/>
-        <v>0.1</v>
-      </c>
-      <c r="F67" s="12">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="G67" s="12">
-        <f t="shared" si="72"/>
-        <v>0.25</v>
-      </c>
       <c r="H67" s="13">
-        <f t="shared" si="72"/>
-        <v>0.05</v>
+        <f t="shared" si="76"/>
+        <v>0</v>
       </c>
       <c r="R67" s="14" t="str">
-        <f t="shared" si="74"/>
-        <v>{0,0,0.1,0,0.25,0.05}</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="78"/>
+        <v>{0,0,0.1,0,0.05,0}</v>
+      </c>
+      <c r="U67" s="1" t="str">
+        <f>_xlfn.CONCAT("[",C67,",",D67,",",E67,",",F67,",",G67,",",H67,"]")</f>
+        <v>[0,0,0.1,0,0.05,0]</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C68" s="1">
         <f>SUM(C61:C67)</f>
         <v>0</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" ref="D68" si="75">SUM(D61:D67)</f>
-        <v>0.4</v>
+        <f t="shared" ref="D68" si="80">SUM(D61:D67)</f>
+        <v>0.5</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" ref="E68" si="76">SUM(E61:E67)</f>
-        <v>0.2</v>
+        <f t="shared" ref="E68" si="81">SUM(E61:E67)</f>
+        <v>0.30000000000000004</v>
       </c>
       <c r="F68" s="1">
-        <f t="shared" ref="F68" si="77">SUM(F61:F67)</f>
+        <f t="shared" ref="F68" si="82">SUM(F61:F67)</f>
         <v>0.1</v>
       </c>
       <c r="G68" s="1">
-        <f t="shared" ref="G68" si="78">SUM(G61:G67)</f>
-        <v>0.25</v>
+        <f t="shared" ref="G68" si="83">SUM(G61:G67)</f>
+        <v>0.05</v>
       </c>
       <c r="H68" s="1">
-        <f t="shared" ref="H68" si="79">SUM(H61:H67)</f>
+        <f t="shared" ref="H68" si="84">SUM(H61:H67)</f>
         <v>0.05</v>
       </c>
       <c r="I68" s="1">
         <f>SUM(C68:H68)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="70" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U68" s="1" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>6</v>
       </c>
       <c r="B70" s="2" t="str">
-        <f>J40</f>
-        <v>rightcentralback</v>
+        <f>J30</f>
+        <v>rightbackwinger</v>
       </c>
       <c r="C70" s="17" t="str">
-        <f t="shared" ref="C70:C77" si="80">K40</f>
+        <f t="shared" ref="C70:H77" si="85">K30</f>
         <v>keeper</v>
       </c>
       <c r="D70" s="17" t="str">
-        <f t="shared" ref="D70:D77" si="81">L40</f>
+        <f t="shared" si="85"/>
         <v>defense</v>
       </c>
       <c r="E70" s="17" t="str">
-        <f t="shared" ref="E70:E77" si="82">M40</f>
+        <f t="shared" si="85"/>
         <v>passes</v>
       </c>
       <c r="F70" s="17" t="str">
-        <f t="shared" ref="F70:F77" si="83">N40</f>
+        <f t="shared" si="85"/>
         <v>playmaking</v>
       </c>
       <c r="G70" s="17" t="str">
-        <f t="shared" ref="G70:G77" si="84">O40</f>
+        <f t="shared" si="85"/>
         <v>winger</v>
       </c>
       <c r="H70" s="18" t="str">
-        <f t="shared" ref="H70:H77" si="85">P40</f>
+        <f t="shared" si="85"/>
         <v>scoring</v>
       </c>
       <c r="R70" s="14" t="str">
         <f>_xlfn.CONCAT("{",R71,",",R72,",",R73,",",R74,",",R75,",",R76,",",R77,"},")</f>
-        <v>{{0,0.05,0,0,0,0},{0,0.3,0,0,0,0},{0,0.15,0,0,0,0},{0,0,0.1,0.1,0,0},{0,0,0,0,0,0},{0,0,0.1,0,0,0.05},{0,0,0.1,0,0.05,0}},</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+        <v>{{0,0.05,0,0,0,0},{0,0.15,0,0,0,0},{0,0.2,0,0,0,0},{0,0,0.05,0.1,0,0},{0,0,0,0,0,0},{0,0,0.05,0,0,0},{0,0,0.1,0,0.25,0.05}},</v>
+      </c>
+      <c r="U70" s="1" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B71" s="4" t="str">
-        <f t="shared" ref="B71:B77" si="86">J41</f>
+        <f t="shared" ref="B71:B77" si="86">J31</f>
         <v>LeftDefense</v>
       </c>
       <c r="C71" s="31">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="D71" s="32">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>0.05</v>
       </c>
       <c r="E71" s="32">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="F71" s="32">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="G71" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="H71" s="33">
@@ -14918,30 +15165,34 @@
         <f t="shared" ref="R71:R77" si="87">_xlfn.CONCAT("{",C71,",",D71,",",E71,",",F71,",",G71,",",H71,"}")</f>
         <v>{0,0.05,0,0,0,0}</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U71" s="1" t="str">
+        <f t="shared" ref="U71:U76" si="88">_xlfn.CONCAT("[",C71,",",D71,",",E71,",",F71,",",G71,",",H71,"],")</f>
+        <v>[0,0.05,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B72" s="4" t="str">
         <f t="shared" si="86"/>
         <v>CentralDefense</v>
       </c>
       <c r="C72" s="34">
-        <f>K42</f>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="D72" s="10">
-        <f t="shared" si="81"/>
-        <v>0.3</v>
+        <f t="shared" si="85"/>
+        <v>0.15</v>
       </c>
       <c r="E72" s="10">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="F72" s="10">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="G72" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="H72" s="11">
@@ -14950,32 +15201,36 @@
       </c>
       <c r="R72" s="14" t="str">
         <f t="shared" si="87"/>
-        <v>{0,0.3,0,0,0,0}</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+        <v>{0,0.15,0,0,0,0}</v>
+      </c>
+      <c r="U72" s="1" t="str">
+        <f t="shared" si="88"/>
+        <v>[0,0.15,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B73" s="4" t="str">
         <f t="shared" si="86"/>
         <v>RightDefense</v>
       </c>
       <c r="C73" s="34">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="D73" s="10">
-        <f t="shared" si="81"/>
-        <v>0.15</v>
+        <f t="shared" si="85"/>
+        <v>0.2</v>
       </c>
       <c r="E73" s="10">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="F73" s="10">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="G73" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="H73" s="11">
@@ -14984,32 +15239,36 @@
       </c>
       <c r="R73" s="14" t="str">
         <f t="shared" si="87"/>
-        <v>{0,0.15,0,0,0,0}</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+        <v>{0,0.2,0,0,0,0}</v>
+      </c>
+      <c r="U73" s="1" t="str">
+        <f t="shared" si="88"/>
+        <v>[0,0.2,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B74" s="4" t="str">
         <f t="shared" si="86"/>
         <v>MidField</v>
       </c>
       <c r="C74" s="34">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="D74" s="10">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="E74" s="10">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
+        <v>0.05</v>
+      </c>
+      <c r="F74" s="10">
+        <f t="shared" si="85"/>
         <v>0.1</v>
       </c>
-      <c r="F74" s="10">
-        <f t="shared" si="83"/>
-        <v>0.1</v>
-      </c>
       <c r="G74" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="H74" s="11">
@@ -15018,32 +15277,36 @@
       </c>
       <c r="R74" s="14" t="str">
         <f t="shared" si="87"/>
-        <v>{0,0,0.1,0.1,0,0}</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+        <v>{0,0,0.05,0.1,0,0}</v>
+      </c>
+      <c r="U74" s="1" t="str">
+        <f t="shared" si="88"/>
+        <v>[0,0,0.05,0.1,0,0],</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B75" s="4" t="str">
         <f t="shared" si="86"/>
         <v>LeftAttack</v>
       </c>
       <c r="C75" s="34">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="D75" s="10">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="E75" s="10">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="F75" s="10">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="G75" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="H75" s="11">
@@ -15054,107 +15317,122 @@
         <f t="shared" si="87"/>
         <v>{0,0,0,0,0,0}</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U75" s="1" t="str">
+        <f t="shared" si="88"/>
+        <v>[0,0,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B76" s="4" t="str">
         <f t="shared" si="86"/>
         <v>CentralAttack</v>
       </c>
       <c r="C76" s="34">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="D76" s="10">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="E76" s="10">
-        <f t="shared" si="82"/>
-        <v>0.1</v>
+        <f t="shared" si="85"/>
+        <v>0.05</v>
       </c>
       <c r="F76" s="10">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="G76" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="H76" s="11">
         <f t="shared" si="85"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="R76" s="14" t="str">
         <f t="shared" si="87"/>
-        <v>{0,0,0.1,0,0,0.05}</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>{0,0,0.05,0,0,0}</v>
+      </c>
+      <c r="U76" s="1" t="str">
+        <f t="shared" si="88"/>
+        <v>[0,0,0.05,0,0,0],</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="5" t="str">
         <f t="shared" si="86"/>
         <v>RightAttack</v>
       </c>
       <c r="C77" s="35">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="D77" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="E77" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>0.1</v>
       </c>
       <c r="F77" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="G77" s="12">
-        <f t="shared" si="84"/>
-        <v>0.05</v>
+        <f t="shared" si="85"/>
+        <v>0.25</v>
       </c>
       <c r="H77" s="13">
         <f t="shared" si="85"/>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="R77" s="14" t="str">
         <f t="shared" si="87"/>
-        <v>{0,0,0.1,0,0.05,0}</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+        <v>{0,0,0.1,0,0.25,0.05}</v>
+      </c>
+      <c r="U77" s="1" t="str">
+        <f>_xlfn.CONCAT("[",C77,",",D77,",",E77,",",F77,",",G77,",",H77,"]")</f>
+        <v>[0,0,0.1,0,0.25,0.05]</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C78" s="1">
         <f>SUM(C71:C77)</f>
         <v>0</v>
       </c>
       <c r="D78" s="1">
-        <f t="shared" ref="D78" si="88">SUM(D71:D77)</f>
-        <v>0.5</v>
+        <f t="shared" ref="D78" si="89">SUM(D71:D77)</f>
+        <v>0.4</v>
       </c>
       <c r="E78" s="1">
-        <f t="shared" ref="E78" si="89">SUM(E71:E77)</f>
-        <v>0.30000000000000004</v>
+        <f t="shared" ref="E78" si="90">SUM(E71:E77)</f>
+        <v>0.2</v>
       </c>
       <c r="F78" s="1">
-        <f t="shared" ref="F78" si="90">SUM(F71:F77)</f>
+        <f t="shared" ref="F78" si="91">SUM(F71:F77)</f>
         <v>0.1</v>
       </c>
       <c r="G78" s="1">
-        <f t="shared" ref="G78" si="91">SUM(G71:G77)</f>
-        <v>0.05</v>
+        <f t="shared" ref="G78" si="92">SUM(G71:G77)</f>
+        <v>0.25</v>
       </c>
       <c r="H78" s="1">
-        <f t="shared" ref="H78" si="92">SUM(H71:H77)</f>
+        <f t="shared" ref="H78" si="93">SUM(H71:H77)</f>
         <v>0.05</v>
       </c>
       <c r="I78" s="1">
         <f>SUM(C78:H78)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U78" s="1" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>7</v>
       </c>
@@ -15188,31 +15466,34 @@
         <v>keeper</v>
       </c>
       <c r="L80" s="17" t="str">
-        <f t="shared" ref="L80" si="93">D80</f>
+        <f t="shared" ref="L80" si="94">D80</f>
         <v>defense</v>
       </c>
       <c r="M80" s="17" t="str">
-        <f t="shared" ref="M80" si="94">E80</f>
+        <f t="shared" ref="M80" si="95">E80</f>
         <v>passes</v>
       </c>
       <c r="N80" s="17" t="str">
-        <f t="shared" ref="N80" si="95">F80</f>
+        <f t="shared" ref="N80" si="96">F80</f>
         <v>playmaking</v>
       </c>
       <c r="O80" s="17" t="str">
-        <f t="shared" ref="O80" si="96">G80</f>
+        <f t="shared" ref="O80" si="97">G80</f>
         <v>winger</v>
       </c>
       <c r="P80" s="18" t="str">
-        <f t="shared" ref="P80" si="97">H80</f>
+        <f t="shared" ref="P80" si="98">H80</f>
         <v>scoring</v>
       </c>
       <c r="R80" s="14" t="str">
         <f>_xlfn.CONCAT("{",R81,",",R82,",",R83,",",R84,",",R85,",",R86,",",R87,"},")</f>
         <v>{{0,0.15,0,0,0,0},{0,0.05,0,0,0,0},{0,0,0,0,0,0},{0,0,0.05,0.2,0,0},{0,0,0.1,0,0.15,0.1},{0,0,0.05,0,0.05,0.1},{0,0,0,0,0,0}},</v>
       </c>
-    </row>
-    <row r="81" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U80" s="1" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="3" t="s">
         <v>2</v>
       </c>
@@ -15243,31 +15524,35 @@
         <v>0</v>
       </c>
       <c r="L81" s="6">
-        <f t="shared" ref="L81" si="98">D83</f>
+        <f t="shared" ref="L81" si="99">D83</f>
         <v>0</v>
       </c>
       <c r="M81" s="6">
-        <f t="shared" ref="M81" si="99">E83</f>
+        <f t="shared" ref="M81" si="100">E83</f>
         <v>0</v>
       </c>
       <c r="N81" s="6">
-        <f t="shared" ref="N81" si="100">F83</f>
+        <f t="shared" ref="N81" si="101">F83</f>
         <v>0</v>
       </c>
       <c r="O81" s="6">
-        <f t="shared" ref="O81" si="101">G83</f>
+        <f t="shared" ref="O81" si="102">G83</f>
         <v>0</v>
       </c>
       <c r="P81" s="7">
-        <f t="shared" ref="P81" si="102">H83</f>
+        <f t="shared" ref="P81" si="103">H83</f>
         <v>0</v>
       </c>
       <c r="R81" s="14" t="str">
-        <f t="shared" ref="R81:R87" si="103">_xlfn.CONCAT("{",C81,",",D81,",",E81,",",F81,",",G81,",",H81,"}")</f>
+        <f t="shared" ref="R81:R87" si="104">_xlfn.CONCAT("{",C81,",",D81,",",E81,",",F81,",",G81,",",H81,"}")</f>
         <v>{0,0.15,0,0,0,0}</v>
       </c>
-    </row>
-    <row r="82" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U81" s="1" t="str">
+        <f t="shared" ref="U81:U86" si="105">_xlfn.CONCAT("[",C81,",",D81,",",E81,",",F81,",",G81,",",H81,"],")</f>
+        <v>[0,0.15,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B82" s="4" t="s">
         <v>1</v>
       </c>
@@ -15290,7 +15575,7 @@
         <v>0</v>
       </c>
       <c r="J82" s="4" t="str">
-        <f t="shared" ref="J82:J87" si="104">B82</f>
+        <f t="shared" ref="J82:J87" si="106">B82</f>
         <v>CentralDefense</v>
       </c>
       <c r="K82" s="6">
@@ -15298,31 +15583,35 @@
         <v>0</v>
       </c>
       <c r="L82" s="6">
-        <f t="shared" ref="L82" si="105">D82</f>
+        <f t="shared" ref="L82" si="107">D82</f>
         <v>0.05</v>
       </c>
       <c r="M82" s="6">
-        <f t="shared" ref="M82" si="106">E82</f>
+        <f t="shared" ref="M82" si="108">E82</f>
         <v>0</v>
       </c>
       <c r="N82" s="6">
-        <f t="shared" ref="N82" si="107">F82</f>
+        <f t="shared" ref="N82" si="109">F82</f>
         <v>0</v>
       </c>
       <c r="O82" s="6">
-        <f t="shared" ref="O82" si="108">G82</f>
+        <f t="shared" ref="O82" si="110">G82</f>
         <v>0</v>
       </c>
       <c r="P82" s="7">
-        <f t="shared" ref="P82" si="109">H82</f>
+        <f t="shared" ref="P82" si="111">H82</f>
         <v>0</v>
       </c>
       <c r="R82" s="14" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>{0,0.05,0,0,0,0}</v>
       </c>
-    </row>
-    <row r="83" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U82" s="1" t="str">
+        <f t="shared" si="105"/>
+        <v>[0,0.05,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="4" t="s">
         <v>0</v>
       </c>
@@ -15345,7 +15634,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="4" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>RightDefense</v>
       </c>
       <c r="K83" s="6">
@@ -15361,23 +15650,27 @@
         <v>0</v>
       </c>
       <c r="N83" s="6">
-        <f t="shared" ref="N83" si="110">F81</f>
+        <f t="shared" ref="N83" si="112">F81</f>
         <v>0</v>
       </c>
       <c r="O83" s="6">
-        <f t="shared" ref="O83" si="111">G81</f>
+        <f t="shared" ref="O83" si="113">G81</f>
         <v>0</v>
       </c>
       <c r="P83" s="7">
-        <f t="shared" ref="P83" si="112">H81</f>
+        <f t="shared" ref="P83" si="114">H81</f>
         <v>0</v>
       </c>
       <c r="R83" s="14" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>{0,0,0,0,0,0}</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U83" s="1" t="str">
+        <f t="shared" si="105"/>
+        <v>[0,0,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B84" s="4" t="s">
         <v>3</v>
       </c>
@@ -15400,7 +15693,7 @@
         <v>0</v>
       </c>
       <c r="J84" s="4" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>MidField</v>
       </c>
       <c r="K84" s="6">
@@ -15408,31 +15701,35 @@
         <v>0</v>
       </c>
       <c r="L84" s="6">
-        <f t="shared" ref="L84" si="113">D84</f>
+        <f t="shared" ref="L84" si="115">D84</f>
         <v>0</v>
       </c>
       <c r="M84" s="6">
-        <f t="shared" ref="M84" si="114">E84</f>
+        <f t="shared" ref="M84" si="116">E84</f>
         <v>0.05</v>
       </c>
       <c r="N84" s="6">
-        <f t="shared" ref="N84" si="115">F84</f>
+        <f t="shared" ref="N84" si="117">F84</f>
         <v>0.2</v>
       </c>
       <c r="O84" s="6">
-        <f t="shared" ref="O84" si="116">G84</f>
+        <f t="shared" ref="O84" si="118">G84</f>
         <v>0</v>
       </c>
       <c r="P84" s="7">
-        <f t="shared" ref="P84" si="117">H84</f>
+        <f t="shared" ref="P84" si="119">H84</f>
         <v>0</v>
       </c>
       <c r="R84" s="14" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>{0,0,0.05,0.2,0,0}</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U84" s="1" t="str">
+        <f t="shared" si="105"/>
+        <v>[0,0,0.05,0.2,0,0],</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B85" s="4" t="s">
         <v>4</v>
       </c>
@@ -15455,7 +15752,7 @@
         <v>0.1</v>
       </c>
       <c r="J85" s="4" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>LeftAttack</v>
       </c>
       <c r="K85" s="6">
@@ -15463,31 +15760,35 @@
         <v>0</v>
       </c>
       <c r="L85" s="6">
-        <f t="shared" ref="L85" si="118">D87</f>
+        <f t="shared" ref="L85" si="120">D87</f>
         <v>0</v>
       </c>
       <c r="M85" s="6">
-        <f t="shared" ref="M85" si="119">E87</f>
+        <f t="shared" ref="M85" si="121">E87</f>
         <v>0</v>
       </c>
       <c r="N85" s="6">
-        <f t="shared" ref="N85" si="120">F87</f>
+        <f t="shared" ref="N85" si="122">F87</f>
         <v>0</v>
       </c>
       <c r="O85" s="6">
-        <f t="shared" ref="O85" si="121">G87</f>
+        <f t="shared" ref="O85" si="123">G87</f>
         <v>0</v>
       </c>
       <c r="P85" s="7">
-        <f t="shared" ref="P85" si="122">H87</f>
+        <f t="shared" ref="P85" si="124">H87</f>
         <v>0</v>
       </c>
       <c r="R85" s="14" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>{0,0,0.1,0,0.15,0.1}</v>
       </c>
-    </row>
-    <row r="86" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U85" s="1" t="str">
+        <f t="shared" si="105"/>
+        <v>[0,0,0.1,0,0.15,0.1],</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="4" t="s">
         <v>5</v>
       </c>
@@ -15510,7 +15811,7 @@
         <v>0.1</v>
       </c>
       <c r="J86" s="4" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>CentralAttack</v>
       </c>
       <c r="K86" s="6">
@@ -15518,31 +15819,35 @@
         <v>0</v>
       </c>
       <c r="L86" s="6">
-        <f t="shared" ref="L86" si="123">D86</f>
+        <f t="shared" ref="L86" si="125">D86</f>
         <v>0</v>
       </c>
       <c r="M86" s="6">
-        <f t="shared" ref="M86" si="124">E86</f>
+        <f t="shared" ref="M86" si="126">E86</f>
         <v>0.05</v>
       </c>
       <c r="N86" s="6">
-        <f t="shared" ref="N86" si="125">F86</f>
+        <f t="shared" ref="N86" si="127">F86</f>
         <v>0</v>
       </c>
       <c r="O86" s="6">
-        <f t="shared" ref="O86" si="126">G86</f>
+        <f t="shared" ref="O86" si="128">G86</f>
         <v>0.05</v>
       </c>
       <c r="P86" s="7">
-        <f t="shared" ref="P86" si="127">H86</f>
+        <f t="shared" ref="P86" si="129">H86</f>
         <v>0.1</v>
       </c>
       <c r="R86" s="14" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>{0,0,0.05,0,0.05,0.1}</v>
       </c>
-    </row>
-    <row r="87" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U86" s="1" t="str">
+        <f t="shared" si="105"/>
+        <v>[0,0,0.05,0,0.05,0.1],</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B87" s="5" t="s">
         <v>6</v>
       </c>
@@ -15565,7 +15870,7 @@
         <v>0</v>
       </c>
       <c r="J87" s="5" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>RightAttack</v>
       </c>
       <c r="K87" s="8">
@@ -15573,62 +15878,69 @@
         <v>0</v>
       </c>
       <c r="L87" s="8">
-        <f t="shared" ref="L87" si="128">D85</f>
+        <f t="shared" ref="L87" si="130">D85</f>
         <v>0</v>
       </c>
       <c r="M87" s="8">
-        <f t="shared" ref="M87" si="129">E85</f>
+        <f t="shared" ref="M87" si="131">E85</f>
         <v>0.1</v>
       </c>
       <c r="N87" s="8">
-        <f t="shared" ref="N87" si="130">F85</f>
+        <f t="shared" ref="N87" si="132">F85</f>
         <v>0</v>
       </c>
       <c r="O87" s="8">
-        <f t="shared" ref="O87" si="131">G85</f>
+        <f t="shared" ref="O87" si="133">G85</f>
         <v>0.15</v>
       </c>
       <c r="P87" s="9">
-        <f t="shared" ref="P87" si="132">H85</f>
+        <f t="shared" ref="P87" si="134">H85</f>
         <v>0.1</v>
       </c>
       <c r="R87" s="14" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>{0,0,0,0,0,0}</v>
       </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U87" s="1" t="str">
+        <f>_xlfn.CONCAT("[",C87,",",D87,",",E87,",",F87,",",G87,",",H87,"]")</f>
+        <v>[0,0,0,0,0,0]</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C88" s="1">
         <f>SUM(C81:C87)</f>
         <v>0</v>
       </c>
       <c r="D88" s="1">
-        <f t="shared" ref="D88" si="133">SUM(D81:D87)</f>
+        <f t="shared" ref="D88" si="135">SUM(D81:D87)</f>
         <v>0.2</v>
       </c>
       <c r="E88" s="1">
-        <f t="shared" ref="E88" si="134">SUM(E81:E87)</f>
+        <f t="shared" ref="E88" si="136">SUM(E81:E87)</f>
         <v>0.2</v>
       </c>
       <c r="F88" s="1">
-        <f t="shared" ref="F88" si="135">SUM(F81:F87)</f>
+        <f t="shared" ref="F88" si="137">SUM(F81:F87)</f>
         <v>0.2</v>
       </c>
       <c r="G88" s="1">
-        <f t="shared" ref="G88" si="136">SUM(G81:G87)</f>
+        <f t="shared" ref="G88" si="138">SUM(G81:G87)</f>
         <v>0.2</v>
       </c>
       <c r="H88" s="1">
-        <f t="shared" ref="H88" si="137">SUM(H81:H87)</f>
+        <f t="shared" ref="H88" si="139">SUM(H81:H87)</f>
         <v>0.2</v>
       </c>
       <c r="I88" s="1">
         <f>SUM(C88:H88)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="90" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U88" s="1" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>8</v>
       </c>
@@ -15662,31 +15974,34 @@
         <v>keeper</v>
       </c>
       <c r="L90" s="17" t="str">
-        <f t="shared" ref="L90" si="138">D90</f>
+        <f t="shared" ref="L90" si="140">D90</f>
         <v>defense</v>
       </c>
       <c r="M90" s="17" t="str">
-        <f t="shared" ref="M90" si="139">E90</f>
+        <f t="shared" ref="M90" si="141">E90</f>
         <v>passes</v>
       </c>
       <c r="N90" s="17" t="str">
-        <f t="shared" ref="N90" si="140">F90</f>
+        <f t="shared" ref="N90" si="142">F90</f>
         <v>playmaking</v>
       </c>
       <c r="O90" s="17" t="str">
-        <f t="shared" ref="O90" si="141">G90</f>
+        <f t="shared" ref="O90" si="143">G90</f>
         <v>winger</v>
       </c>
       <c r="P90" s="18" t="str">
-        <f t="shared" ref="P90" si="142">H90</f>
+        <f t="shared" ref="P90" si="144">H90</f>
         <v>scoring</v>
       </c>
       <c r="R90" s="14" t="str">
         <f>_xlfn.CONCAT("{",R91,",",R92,",",R93,",",R94,",",R95,",",R96,",",R97,"},")</f>
         <v>{{0,0.05,0,0,0,0},{0,0.15,0,0,0,0},{0,0,0,0,0,0},{0,0,0.05,0.3,0,0},{0,0,0.05,0,0.1,0},{0,0,0.2,0,0,0.1},{0,0,0,0,0,0}},</v>
       </c>
-    </row>
-    <row r="91" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U90" s="1" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="3" t="s">
         <v>2</v>
       </c>
@@ -15717,31 +16032,35 @@
         <v>0</v>
       </c>
       <c r="L91" s="6">
-        <f t="shared" ref="L91" si="143">D93</f>
+        <f t="shared" ref="L91" si="145">D93</f>
         <v>0</v>
       </c>
       <c r="M91" s="6">
-        <f t="shared" ref="M91" si="144">E93</f>
+        <f t="shared" ref="M91" si="146">E93</f>
         <v>0</v>
       </c>
       <c r="N91" s="6">
-        <f t="shared" ref="N91" si="145">F93</f>
+        <f t="shared" ref="N91" si="147">F93</f>
         <v>0</v>
       </c>
       <c r="O91" s="6">
-        <f t="shared" ref="O91" si="146">G93</f>
+        <f t="shared" ref="O91" si="148">G93</f>
         <v>0</v>
       </c>
       <c r="P91" s="7">
-        <f t="shared" ref="P91" si="147">H93</f>
+        <f t="shared" ref="P91" si="149">H93</f>
         <v>0</v>
       </c>
       <c r="R91" s="14" t="str">
-        <f t="shared" ref="R91:R97" si="148">_xlfn.CONCAT("{",C91,",",D91,",",E91,",",F91,",",G91,",",H91,"}")</f>
+        <f t="shared" ref="R91:R97" si="150">_xlfn.CONCAT("{",C91,",",D91,",",E91,",",F91,",",G91,",",H91,"}")</f>
         <v>{0,0.05,0,0,0,0}</v>
       </c>
-    </row>
-    <row r="92" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U91" s="1" t="str">
+        <f t="shared" ref="U91:U96" si="151">_xlfn.CONCAT("[",C91,",",D91,",",E91,",",F91,",",G91,",",H91,"],")</f>
+        <v>[0,0.05,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="4" t="s">
         <v>1</v>
       </c>
@@ -15764,7 +16083,7 @@
         <v>0</v>
       </c>
       <c r="J92" s="4" t="str">
-        <f t="shared" ref="J92:J97" si="149">B92</f>
+        <f t="shared" ref="J92:J97" si="152">B92</f>
         <v>CentralDefense</v>
       </c>
       <c r="K92" s="6">
@@ -15772,31 +16091,35 @@
         <v>0</v>
       </c>
       <c r="L92" s="6">
-        <f t="shared" ref="L92" si="150">D92</f>
+        <f t="shared" ref="L92" si="153">D92</f>
         <v>0.15</v>
       </c>
       <c r="M92" s="6">
-        <f t="shared" ref="M92" si="151">E92</f>
+        <f t="shared" ref="M92" si="154">E92</f>
         <v>0</v>
       </c>
       <c r="N92" s="6">
-        <f t="shared" ref="N92" si="152">F92</f>
+        <f t="shared" ref="N92" si="155">F92</f>
         <v>0</v>
       </c>
       <c r="O92" s="6">
-        <f t="shared" ref="O92" si="153">G92</f>
+        <f t="shared" ref="O92" si="156">G92</f>
         <v>0</v>
       </c>
       <c r="P92" s="7">
-        <f t="shared" ref="P92" si="154">H92</f>
+        <f t="shared" ref="P92" si="157">H92</f>
         <v>0</v>
       </c>
       <c r="R92" s="14" t="str">
-        <f t="shared" si="148"/>
+        <f t="shared" si="150"/>
         <v>{0,0.15,0,0,0,0}</v>
       </c>
-    </row>
-    <row r="93" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U92" s="1" t="str">
+        <f t="shared" si="151"/>
+        <v>[0,0.15,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B93" s="4" t="s">
         <v>0</v>
       </c>
@@ -15819,7 +16142,7 @@
         <v>0</v>
       </c>
       <c r="J93" s="4" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="152"/>
         <v>RightDefense</v>
       </c>
       <c r="K93" s="6">
@@ -15835,23 +16158,27 @@
         <v>0</v>
       </c>
       <c r="N93" s="6">
-        <f t="shared" ref="N93" si="155">F91</f>
+        <f t="shared" ref="N93" si="158">F91</f>
         <v>0</v>
       </c>
       <c r="O93" s="6">
-        <f t="shared" ref="O93" si="156">G91</f>
+        <f t="shared" ref="O93" si="159">G91</f>
         <v>0</v>
       </c>
       <c r="P93" s="7">
-        <f t="shared" ref="P93" si="157">H91</f>
+        <f t="shared" ref="P93" si="160">H91</f>
         <v>0</v>
       </c>
       <c r="R93" s="14" t="str">
-        <f t="shared" si="148"/>
+        <f t="shared" si="150"/>
         <v>{0,0,0,0,0,0}</v>
       </c>
-    </row>
-    <row r="94" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U93" s="1" t="str">
+        <f t="shared" si="151"/>
+        <v>[0,0,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B94" s="4" t="s">
         <v>3</v>
       </c>
@@ -15874,7 +16201,7 @@
         <v>0</v>
       </c>
       <c r="J94" s="4" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="152"/>
         <v>MidField</v>
       </c>
       <c r="K94" s="6">
@@ -15882,31 +16209,35 @@
         <v>0</v>
       </c>
       <c r="L94" s="6">
-        <f t="shared" ref="L94" si="158">D94</f>
+        <f t="shared" ref="L94" si="161">D94</f>
         <v>0</v>
       </c>
       <c r="M94" s="6">
-        <f t="shared" ref="M94" si="159">E94</f>
+        <f t="shared" ref="M94" si="162">E94</f>
         <v>0.05</v>
       </c>
       <c r="N94" s="6">
-        <f t="shared" ref="N94" si="160">F94</f>
+        <f t="shared" ref="N94" si="163">F94</f>
         <v>0.3</v>
       </c>
       <c r="O94" s="6">
-        <f t="shared" ref="O94" si="161">G94</f>
+        <f t="shared" ref="O94" si="164">G94</f>
         <v>0</v>
       </c>
       <c r="P94" s="7">
-        <f t="shared" ref="P94" si="162">H94</f>
+        <f t="shared" ref="P94" si="165">H94</f>
         <v>0</v>
       </c>
       <c r="R94" s="14" t="str">
-        <f t="shared" si="148"/>
+        <f t="shared" si="150"/>
         <v>{0,0,0.05,0.3,0,0}</v>
       </c>
-    </row>
-    <row r="95" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U94" s="1" t="str">
+        <f t="shared" si="151"/>
+        <v>[0,0,0.05,0.3,0,0],</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="4" t="s">
         <v>4</v>
       </c>
@@ -15929,7 +16260,7 @@
         <v>0</v>
       </c>
       <c r="J95" s="4" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="152"/>
         <v>LeftAttack</v>
       </c>
       <c r="K95" s="6">
@@ -15937,31 +16268,35 @@
         <v>0</v>
       </c>
       <c r="L95" s="6">
-        <f t="shared" ref="L95" si="163">D97</f>
+        <f t="shared" ref="L95" si="166">D97</f>
         <v>0</v>
       </c>
       <c r="M95" s="6">
-        <f t="shared" ref="M95" si="164">E97</f>
+        <f t="shared" ref="M95" si="167">E97</f>
         <v>0</v>
       </c>
       <c r="N95" s="6">
-        <f t="shared" ref="N95" si="165">F97</f>
+        <f t="shared" ref="N95" si="168">F97</f>
         <v>0</v>
       </c>
       <c r="O95" s="6">
-        <f t="shared" ref="O95" si="166">G97</f>
+        <f t="shared" ref="O95" si="169">G97</f>
         <v>0</v>
       </c>
       <c r="P95" s="7">
-        <f t="shared" ref="P95" si="167">H97</f>
+        <f t="shared" ref="P95" si="170">H97</f>
         <v>0</v>
       </c>
       <c r="R95" s="14" t="str">
-        <f t="shared" si="148"/>
+        <f t="shared" si="150"/>
         <v>{0,0,0.05,0,0.1,0}</v>
       </c>
-    </row>
-    <row r="96" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U95" s="1" t="str">
+        <f t="shared" si="151"/>
+        <v>[0,0,0.05,0,0.1,0],</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B96" s="4" t="s">
         <v>5</v>
       </c>
@@ -15984,7 +16319,7 @@
         <v>0.1</v>
       </c>
       <c r="J96" s="4" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="152"/>
         <v>CentralAttack</v>
       </c>
       <c r="K96" s="6">
@@ -15992,31 +16327,35 @@
         <v>0</v>
       </c>
       <c r="L96" s="6">
-        <f t="shared" ref="L96" si="168">D96</f>
+        <f t="shared" ref="L96" si="171">D96</f>
         <v>0</v>
       </c>
       <c r="M96" s="6">
-        <f t="shared" ref="M96" si="169">E96</f>
+        <f t="shared" ref="M96" si="172">E96</f>
         <v>0.2</v>
       </c>
       <c r="N96" s="6">
-        <f t="shared" ref="N96" si="170">F96</f>
+        <f t="shared" ref="N96" si="173">F96</f>
         <v>0</v>
       </c>
       <c r="O96" s="6">
-        <f t="shared" ref="O96" si="171">G96</f>
+        <f t="shared" ref="O96" si="174">G96</f>
         <v>0</v>
       </c>
       <c r="P96" s="7">
-        <f t="shared" ref="P96" si="172">H96</f>
+        <f t="shared" ref="P96" si="175">H96</f>
         <v>0.1</v>
       </c>
       <c r="R96" s="14" t="str">
-        <f t="shared" si="148"/>
+        <f t="shared" si="150"/>
         <v>{0,0,0.2,0,0,0.1}</v>
       </c>
-    </row>
-    <row r="97" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U96" s="1" t="str">
+        <f t="shared" si="151"/>
+        <v>[0,0,0.2,0,0,0.1],</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B97" s="5" t="s">
         <v>6</v>
       </c>
@@ -16039,7 +16378,7 @@
         <v>0</v>
       </c>
       <c r="J97" s="5" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="152"/>
         <v>RightAttack</v>
       </c>
       <c r="K97" s="8">
@@ -16047,62 +16386,69 @@
         <v>0</v>
       </c>
       <c r="L97" s="8">
-        <f t="shared" ref="L97" si="173">D95</f>
+        <f t="shared" ref="L97" si="176">D95</f>
         <v>0</v>
       </c>
       <c r="M97" s="8">
-        <f t="shared" ref="M97" si="174">E95</f>
+        <f t="shared" ref="M97" si="177">E95</f>
         <v>0.05</v>
       </c>
       <c r="N97" s="8">
-        <f t="shared" ref="N97" si="175">F95</f>
+        <f t="shared" ref="N97" si="178">F95</f>
         <v>0</v>
       </c>
       <c r="O97" s="8">
-        <f t="shared" ref="O97" si="176">G95</f>
+        <f t="shared" ref="O97" si="179">G95</f>
         <v>0.1</v>
       </c>
       <c r="P97" s="9">
-        <f t="shared" ref="P97" si="177">H95</f>
+        <f t="shared" ref="P97" si="180">H95</f>
         <v>0</v>
       </c>
       <c r="R97" s="14" t="str">
-        <f t="shared" si="148"/>
+        <f t="shared" si="150"/>
         <v>{0,0,0,0,0,0}</v>
       </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U97" s="1" t="str">
+        <f>_xlfn.CONCAT("[",C97,",",D97,",",E97,",",F97,",",G97,",",H97,"]")</f>
+        <v>[0,0,0,0,0,0]</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C98" s="1">
         <f>SUM(C91:C97)</f>
         <v>0</v>
       </c>
       <c r="D98" s="1">
-        <f t="shared" ref="D98" si="178">SUM(D91:D97)</f>
+        <f t="shared" ref="D98" si="181">SUM(D91:D97)</f>
         <v>0.2</v>
       </c>
       <c r="E98" s="1">
-        <f t="shared" ref="E98" si="179">SUM(E91:E97)</f>
+        <f t="shared" ref="E98" si="182">SUM(E91:E97)</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="F98" s="1">
-        <f t="shared" ref="F98" si="180">SUM(F91:F97)</f>
+        <f t="shared" ref="F98" si="183">SUM(F91:F97)</f>
         <v>0.3</v>
       </c>
       <c r="G98" s="1">
-        <f t="shared" ref="G98" si="181">SUM(G91:G97)</f>
+        <f t="shared" ref="G98" si="184">SUM(G91:G97)</f>
         <v>0.1</v>
       </c>
       <c r="H98" s="1">
-        <f t="shared" ref="H98" si="182">SUM(H91:H97)</f>
+        <f t="shared" ref="H98" si="185">SUM(H91:H97)</f>
         <v>0.1</v>
       </c>
       <c r="I98" s="1">
         <f>SUM(C98:H98)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="100" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U98" s="1" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="100" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>9</v>
       </c>
@@ -16131,8 +16477,11 @@
         <f>_xlfn.CONCAT("{",R101,",",R102,",",R103,",",R104,",",R105,",",R106,",",R107,"},")</f>
         <v>{{0,0.05,0,0,0,0},{0,0.1,0,0,0,0},{0,0.05,0,0,0,0},{0,0,0.1,0.3,0,0},{0,0,0.1,0,0,0},{0,0,0.1,0,0,0.1},{0,0,0.1,0,0,0}},</v>
       </c>
-    </row>
-    <row r="101" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U100" s="1" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="3" t="s">
         <v>2</v>
       </c>
@@ -16155,11 +16504,15 @@
         <v>0</v>
       </c>
       <c r="R101" s="14" t="str">
-        <f t="shared" ref="R101:R107" si="183">_xlfn.CONCAT("{",C101,",",D101,",",E101,",",F101,",",G101,",",H101,"}")</f>
+        <f t="shared" ref="R101:R107" si="186">_xlfn.CONCAT("{",C101,",",D101,",",E101,",",F101,",",G101,",",H101,"}")</f>
         <v>{0,0.05,0,0,0,0}</v>
       </c>
-    </row>
-    <row r="102" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U101" s="1" t="str">
+        <f t="shared" ref="U101:U106" si="187">_xlfn.CONCAT("[",C101,",",D101,",",E101,",",F101,",",G101,",",H101,"],")</f>
+        <v>[0,0.05,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B102" s="4" t="s">
         <v>1</v>
       </c>
@@ -16182,11 +16535,15 @@
         <v>0</v>
       </c>
       <c r="R102" s="14" t="str">
-        <f t="shared" si="183"/>
+        <f t="shared" si="186"/>
         <v>{0,0.1,0,0,0,0}</v>
       </c>
-    </row>
-    <row r="103" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U102" s="1" t="str">
+        <f t="shared" si="187"/>
+        <v>[0,0.1,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B103" s="4" t="s">
         <v>0</v>
       </c>
@@ -16195,31 +16552,35 @@
         <v>0</v>
       </c>
       <c r="D103" s="6">
-        <f t="shared" ref="D103:H103" si="184">D101</f>
+        <f t="shared" ref="D103:H103" si="188">D101</f>
         <v>0.05</v>
       </c>
       <c r="E103" s="6">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0</v>
       </c>
       <c r="F103" s="6">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0</v>
       </c>
       <c r="G103" s="6">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0</v>
       </c>
       <c r="H103" s="7">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0</v>
       </c>
       <c r="R103" s="14" t="str">
-        <f t="shared" si="183"/>
+        <f t="shared" si="186"/>
         <v>{0,0.05,0,0,0,0}</v>
       </c>
-    </row>
-    <row r="104" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U103" s="1" t="str">
+        <f t="shared" si="187"/>
+        <v>[0,0.05,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B104" s="4" t="s">
         <v>3</v>
       </c>
@@ -16242,11 +16603,15 @@
         <v>0</v>
       </c>
       <c r="R104" s="14" t="str">
-        <f t="shared" si="183"/>
+        <f t="shared" si="186"/>
         <v>{0,0,0.1,0.3,0,0}</v>
       </c>
-    </row>
-    <row r="105" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U104" s="1" t="str">
+        <f t="shared" si="187"/>
+        <v>[0,0,0.1,0.3,0,0],</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B105" s="4" t="s">
         <v>4</v>
       </c>
@@ -16269,11 +16634,15 @@
         <v>0</v>
       </c>
       <c r="R105" s="14" t="str">
-        <f t="shared" si="183"/>
+        <f t="shared" si="186"/>
         <v>{0,0,0.1,0,0,0}</v>
       </c>
-    </row>
-    <row r="106" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U105" s="1" t="str">
+        <f t="shared" si="187"/>
+        <v>[0,0,0.1,0,0,0],</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B106" s="4" t="s">
         <v>5</v>
       </c>
@@ -16296,11 +16665,15 @@
         <v>0.1</v>
       </c>
       <c r="R106" s="14" t="str">
-        <f t="shared" si="183"/>
+        <f t="shared" si="186"/>
         <v>{0,0,0.1,0,0,0.1}</v>
       </c>
-    </row>
-    <row r="107" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U106" s="1" t="str">
+        <f t="shared" si="187"/>
+        <v>[0,0,0.1,0,0,0.1],</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B107" s="5" t="s">
         <v>6</v>
       </c>
@@ -16309,62 +16682,69 @@
         <v>0</v>
       </c>
       <c r="D107" s="8">
-        <f t="shared" ref="D107:H107" si="185">D105</f>
+        <f t="shared" ref="D107:H107" si="189">D105</f>
         <v>0</v>
       </c>
       <c r="E107" s="8">
-        <f t="shared" si="185"/>
+        <f t="shared" si="189"/>
         <v>0.1</v>
       </c>
       <c r="F107" s="8">
-        <f t="shared" si="185"/>
+        <f t="shared" si="189"/>
         <v>0</v>
       </c>
       <c r="G107" s="8">
-        <f t="shared" si="185"/>
+        <f t="shared" si="189"/>
         <v>0</v>
       </c>
       <c r="H107" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="189"/>
         <v>0</v>
       </c>
       <c r="R107" s="14" t="str">
-        <f t="shared" si="183"/>
+        <f t="shared" si="186"/>
         <v>{0,0,0.1,0,0,0}</v>
       </c>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U107" s="1" t="str">
+        <f>_xlfn.CONCAT("[",C107,",",D107,",",E107,",",F107,",",G107,",",H107,"]")</f>
+        <v>[0,0,0.1,0,0,0]</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C108" s="1">
         <f>SUM(C101:C107)</f>
         <v>0</v>
       </c>
       <c r="D108" s="1">
-        <f t="shared" ref="D108" si="186">SUM(D101:D107)</f>
+        <f t="shared" ref="D108" si="190">SUM(D101:D107)</f>
         <v>0.2</v>
       </c>
       <c r="E108" s="1">
-        <f t="shared" ref="E108" si="187">SUM(E101:E107)</f>
+        <f t="shared" ref="E108" si="191">SUM(E101:E107)</f>
         <v>0.4</v>
       </c>
       <c r="F108" s="1">
-        <f t="shared" ref="F108" si="188">SUM(F101:F107)</f>
+        <f t="shared" ref="F108" si="192">SUM(F101:F107)</f>
         <v>0.3</v>
       </c>
       <c r="G108" s="1">
-        <f t="shared" ref="G108" si="189">SUM(G101:G107)</f>
+        <f t="shared" ref="G108" si="193">SUM(G101:G107)</f>
         <v>0</v>
       </c>
       <c r="H108" s="1">
-        <f t="shared" ref="H108" si="190">SUM(H101:H107)</f>
+        <f t="shared" ref="H108" si="194">SUM(H101:H107)</f>
         <v>0.1</v>
       </c>
       <c r="I108" s="1">
         <f>SUM(C108:H108)</f>
         <v>1.0000000000000002</v>
       </c>
-    </row>
-    <row r="109" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="110" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U108" s="1" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="110" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>10</v>
       </c>
@@ -16373,304 +16753,338 @@
         <v>rightmidfielder</v>
       </c>
       <c r="C110" s="17" t="str">
-        <f t="shared" ref="C110:H117" si="191">K90</f>
+        <f t="shared" ref="C110:H117" si="195">K90</f>
         <v>keeper</v>
       </c>
       <c r="D110" s="17" t="str">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>defense</v>
       </c>
       <c r="E110" s="17" t="str">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>passes</v>
       </c>
       <c r="F110" s="17" t="str">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>playmaking</v>
       </c>
       <c r="G110" s="17" t="str">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>winger</v>
       </c>
       <c r="H110" s="18" t="str">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>scoring</v>
       </c>
       <c r="R110" s="14" t="str">
         <f>_xlfn.CONCAT("{",R111,",",R112,",",R113,",",R114,",",R115,",",R116,",",R117,"},")</f>
         <v>{{0,0,0,0,0,0},{0,0.15,0,0,0,0},{0,0.05,0,0,0,0},{0,0,0.05,0.3,0,0},{0,0,0,0,0,0},{0,0,0.2,0,0,0.1},{0,0,0.05,0,0.1,0}},</v>
       </c>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U110" s="1" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B111" s="4" t="str">
-        <f t="shared" ref="B111:B117" si="192">J91</f>
+        <f t="shared" ref="B111:B117" si="196">J91</f>
         <v>LeftDefense</v>
       </c>
       <c r="C111" s="31">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="D111" s="32">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="E111" s="32">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="F111" s="32">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="G111" s="32">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="H111" s="33">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="R111" s="14" t="str">
-        <f t="shared" ref="R111:R117" si="193">_xlfn.CONCAT("{",C111,",",D111,",",E111,",",F111,",",G111,",",H111,"}")</f>
+        <f t="shared" ref="R111:R117" si="197">_xlfn.CONCAT("{",C111,",",D111,",",E111,",",F111,",",G111,",",H111,"}")</f>
         <v>{0,0,0,0,0,0}</v>
       </c>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U111" s="1" t="str">
+        <f t="shared" ref="U111:U116" si="198">_xlfn.CONCAT("[",C111,",",D111,",",E111,",",F111,",",G111,",",H111,"],")</f>
+        <v>[0,0,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B112" s="4" t="str">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>CentralDefense</v>
       </c>
       <c r="C112" s="34">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="D112" s="10">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0.15</v>
       </c>
       <c r="E112" s="10">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="F112" s="10">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="G112" s="10">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="H112" s="11">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="R112" s="14" t="str">
-        <f t="shared" si="193"/>
+        <f t="shared" si="197"/>
         <v>{0,0.15,0,0,0,0}</v>
       </c>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U112" s="1" t="str">
+        <f t="shared" si="198"/>
+        <v>[0,0.15,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B113" s="4" t="str">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>RightDefense</v>
       </c>
       <c r="C113" s="34">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="D113" s="10">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0.05</v>
       </c>
       <c r="E113" s="10">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="F113" s="10">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="G113" s="10">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="H113" s="11">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="R113" s="14" t="str">
-        <f t="shared" si="193"/>
+        <f t="shared" si="197"/>
         <v>{0,0.05,0,0,0,0}</v>
       </c>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U113" s="1" t="str">
+        <f t="shared" si="198"/>
+        <v>[0,0.05,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B114" s="4" t="str">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>MidField</v>
       </c>
       <c r="C114" s="34">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="D114" s="10">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="E114" s="10">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0.05</v>
       </c>
       <c r="F114" s="10">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0.3</v>
       </c>
       <c r="G114" s="10">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="H114" s="11">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="R114" s="14" t="str">
-        <f t="shared" si="193"/>
+        <f t="shared" si="197"/>
         <v>{0,0,0.05,0.3,0,0}</v>
       </c>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U114" s="1" t="str">
+        <f t="shared" si="198"/>
+        <v>[0,0,0.05,0.3,0,0],</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B115" s="4" t="str">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>LeftAttack</v>
       </c>
       <c r="C115" s="34">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="D115" s="10">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="E115" s="10">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="F115" s="10">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="G115" s="10">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="H115" s="11">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="R115" s="14" t="str">
-        <f t="shared" si="193"/>
+        <f t="shared" si="197"/>
         <v>{0,0,0,0,0,0}</v>
       </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U115" s="1" t="str">
+        <f t="shared" si="198"/>
+        <v>[0,0,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B116" s="4" t="str">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>CentralAttack</v>
       </c>
       <c r="C116" s="34">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="D116" s="10">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="E116" s="10">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0.2</v>
       </c>
       <c r="F116" s="10">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="G116" s="10">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="H116" s="11">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0.1</v>
       </c>
       <c r="R116" s="14" t="str">
-        <f t="shared" si="193"/>
+        <f t="shared" si="197"/>
         <v>{0,0,0.2,0,0,0.1}</v>
       </c>
-    </row>
-    <row r="117" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U116" s="1" t="str">
+        <f t="shared" si="198"/>
+        <v>[0,0,0.2,0,0,0.1],</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B117" s="5" t="str">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>RightAttack</v>
       </c>
       <c r="C117" s="35">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="D117" s="12">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="E117" s="12">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0.05</v>
       </c>
       <c r="F117" s="12">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="G117" s="12">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0.1</v>
       </c>
       <c r="H117" s="13">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="R117" s="14" t="str">
-        <f t="shared" si="193"/>
+        <f t="shared" si="197"/>
         <v>{0,0,0.05,0,0.1,0}</v>
       </c>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U117" s="1" t="str">
+        <f>_xlfn.CONCAT("[",C117,",",D117,",",E117,",",F117,",",G117,",",H117,"]")</f>
+        <v>[0,0,0.05,0,0.1,0]</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C118" s="1">
         <f>SUM(C111:C117)</f>
         <v>0</v>
       </c>
       <c r="D118" s="1">
-        <f t="shared" ref="D118" si="194">SUM(D111:D117)</f>
+        <f t="shared" ref="D118" si="199">SUM(D111:D117)</f>
         <v>0.2</v>
       </c>
       <c r="E118" s="1">
-        <f t="shared" ref="E118" si="195">SUM(E111:E117)</f>
+        <f t="shared" ref="E118" si="200">SUM(E111:E117)</f>
         <v>0.3</v>
       </c>
       <c r="F118" s="1">
-        <f t="shared" ref="F118" si="196">SUM(F111:F117)</f>
+        <f t="shared" ref="F118" si="201">SUM(F111:F117)</f>
         <v>0.3</v>
       </c>
       <c r="G118" s="1">
-        <f t="shared" ref="G118" si="197">SUM(G111:G117)</f>
+        <f t="shared" ref="G118" si="202">SUM(G111:G117)</f>
         <v>0.1</v>
       </c>
       <c r="H118" s="1">
-        <f t="shared" ref="H118" si="198">SUM(H111:H117)</f>
+        <f t="shared" ref="H118" si="203">SUM(H111:H117)</f>
         <v>0.1</v>
       </c>
       <c r="I118" s="1">
         <f>SUM(C118:H118)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="120" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U118" s="1" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="120" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>11</v>
       </c>
@@ -16679,304 +17093,338 @@
         <v>rightwinger</v>
       </c>
       <c r="C120" s="17" t="str">
-        <f t="shared" ref="C120:H127" si="199">K80</f>
+        <f t="shared" ref="C120:H127" si="204">K80</f>
         <v>keeper</v>
       </c>
       <c r="D120" s="17" t="str">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>defense</v>
       </c>
       <c r="E120" s="17" t="str">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>passes</v>
       </c>
       <c r="F120" s="17" t="str">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>playmaking</v>
       </c>
       <c r="G120" s="17" t="str">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>winger</v>
       </c>
       <c r="H120" s="18" t="str">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>scoring</v>
       </c>
       <c r="R120" s="14" t="str">
         <f>_xlfn.CONCAT("{",R121,",",R122,",",R123,",",R124,",",R125,",",R126,",",R127,"},")</f>
         <v>{{0,0,0,0,0,0},{0,0.05,0,0,0,0},{0,0.15,0,0,0,0},{0,0,0.05,0.2,0,0},{0,0,0,0,0,0},{0,0,0.05,0,0.05,0.1},{0,0,0.1,0,0.15,0.1}},</v>
       </c>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U120" s="1" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B121" s="4" t="str">
-        <f t="shared" ref="B121:B127" si="200">J81</f>
+        <f t="shared" ref="B121:B127" si="205">J81</f>
         <v>LeftDefense</v>
       </c>
       <c r="C121" s="31">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="D121" s="32">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="E121" s="32">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="F121" s="32">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="G121" s="32">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="H121" s="33">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="R121" s="14" t="str">
-        <f t="shared" ref="R121:R127" si="201">_xlfn.CONCAT("{",C121,",",D121,",",E121,",",F121,",",G121,",",H121,"}")</f>
+        <f t="shared" ref="R121:R127" si="206">_xlfn.CONCAT("{",C121,",",D121,",",E121,",",F121,",",G121,",",H121,"}")</f>
         <v>{0,0,0,0,0,0}</v>
       </c>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U121" s="1" t="str">
+        <f t="shared" ref="U121:U126" si="207">_xlfn.CONCAT("[",C121,",",D121,",",E121,",",F121,",",G121,",",H121,"],")</f>
+        <v>[0,0,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B122" s="4" t="str">
-        <f t="shared" si="200"/>
+        <f t="shared" si="205"/>
         <v>CentralDefense</v>
       </c>
       <c r="C122" s="34">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="D122" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>0.05</v>
       </c>
       <c r="E122" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="F122" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="G122" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="H122" s="11">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="R122" s="14" t="str">
-        <f t="shared" si="201"/>
+        <f t="shared" si="206"/>
         <v>{0,0.05,0,0,0,0}</v>
       </c>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U122" s="1" t="str">
+        <f t="shared" si="207"/>
+        <v>[0,0.05,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B123" s="4" t="str">
-        <f t="shared" si="200"/>
+        <f t="shared" si="205"/>
         <v>RightDefense</v>
       </c>
       <c r="C123" s="34">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="D123" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>0.15</v>
       </c>
       <c r="E123" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="F123" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="G123" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="H123" s="11">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="R123" s="14" t="str">
-        <f t="shared" si="201"/>
+        <f t="shared" si="206"/>
         <v>{0,0.15,0,0,0,0}</v>
       </c>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U123" s="1" t="str">
+        <f t="shared" si="207"/>
+        <v>[0,0.15,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B124" s="4" t="str">
-        <f t="shared" si="200"/>
+        <f t="shared" si="205"/>
         <v>MidField</v>
       </c>
       <c r="C124" s="34">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="D124" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="E124" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>0.05</v>
       </c>
       <c r="F124" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>0.2</v>
       </c>
       <c r="G124" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="H124" s="11">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="R124" s="14" t="str">
-        <f t="shared" si="201"/>
+        <f t="shared" si="206"/>
         <v>{0,0,0.05,0.2,0,0}</v>
       </c>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U124" s="1" t="str">
+        <f t="shared" si="207"/>
+        <v>[0,0,0.05,0.2,0,0],</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B125" s="4" t="str">
-        <f t="shared" si="200"/>
+        <f t="shared" si="205"/>
         <v>LeftAttack</v>
       </c>
       <c r="C125" s="34">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="D125" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="E125" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="F125" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="G125" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="H125" s="11">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="R125" s="14" t="str">
-        <f t="shared" si="201"/>
+        <f t="shared" si="206"/>
         <v>{0,0,0,0,0,0}</v>
       </c>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U125" s="1" t="str">
+        <f t="shared" si="207"/>
+        <v>[0,0,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B126" s="4" t="str">
-        <f t="shared" si="200"/>
+        <f t="shared" si="205"/>
         <v>CentralAttack</v>
       </c>
       <c r="C126" s="34">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="D126" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="E126" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>0.05</v>
       </c>
       <c r="F126" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="G126" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>0.05</v>
       </c>
       <c r="H126" s="11">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>0.1</v>
       </c>
       <c r="R126" s="14" t="str">
-        <f t="shared" si="201"/>
+        <f t="shared" si="206"/>
         <v>{0,0,0.05,0,0.05,0.1}</v>
       </c>
-    </row>
-    <row r="127" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U126" s="1" t="str">
+        <f t="shared" si="207"/>
+        <v>[0,0,0.05,0,0.05,0.1],</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B127" s="5" t="str">
-        <f t="shared" si="200"/>
+        <f t="shared" si="205"/>
         <v>RightAttack</v>
       </c>
       <c r="C127" s="35">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="D127" s="12">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="E127" s="12">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>0.1</v>
       </c>
       <c r="F127" s="12">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="G127" s="12">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>0.15</v>
       </c>
       <c r="H127" s="13">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>0.1</v>
       </c>
       <c r="R127" s="14" t="str">
-        <f t="shared" si="201"/>
+        <f t="shared" si="206"/>
         <v>{0,0,0.1,0,0.15,0.1}</v>
       </c>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U127" s="1" t="str">
+        <f>_xlfn.CONCAT("[",C127,",",D127,",",E127,",",F127,",",G127,",",H127,"]")</f>
+        <v>[0,0,0.1,0,0.15,0.1]</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C128" s="1">
         <f>SUM(C121:C127)</f>
         <v>0</v>
       </c>
       <c r="D128" s="1">
-        <f t="shared" ref="D128" si="202">SUM(D121:D127)</f>
+        <f t="shared" ref="D128" si="208">SUM(D121:D127)</f>
         <v>0.2</v>
       </c>
       <c r="E128" s="1">
-        <f t="shared" ref="E128" si="203">SUM(E121:E127)</f>
+        <f t="shared" ref="E128" si="209">SUM(E121:E127)</f>
         <v>0.2</v>
       </c>
       <c r="F128" s="1">
-        <f t="shared" ref="F128" si="204">SUM(F121:F127)</f>
+        <f t="shared" ref="F128" si="210">SUM(F121:F127)</f>
         <v>0.2</v>
       </c>
       <c r="G128" s="1">
-        <f t="shared" ref="G128" si="205">SUM(G121:G127)</f>
+        <f t="shared" ref="G128" si="211">SUM(G121:G127)</f>
         <v>0.2</v>
       </c>
       <c r="H128" s="1">
-        <f t="shared" ref="H128" si="206">SUM(H121:H127)</f>
+        <f t="shared" ref="H128" si="212">SUM(H121:H127)</f>
         <v>0.2</v>
       </c>
       <c r="I128" s="1">
         <f>SUM(C128:H128)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="130" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U128" s="1" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>12</v>
       </c>
@@ -17010,31 +17458,34 @@
         <v>keeper</v>
       </c>
       <c r="L130" s="17" t="str">
-        <f t="shared" ref="L130" si="207">D130</f>
+        <f t="shared" ref="L130" si="213">D130</f>
         <v>defense</v>
       </c>
       <c r="M130" s="17" t="str">
-        <f t="shared" ref="M130" si="208">E130</f>
+        <f t="shared" ref="M130" si="214">E130</f>
         <v>passes</v>
       </c>
       <c r="N130" s="17" t="str">
-        <f t="shared" ref="N130" si="209">F130</f>
+        <f t="shared" ref="N130" si="215">F130</f>
         <v>playmaking</v>
       </c>
       <c r="O130" s="17" t="str">
-        <f t="shared" ref="O130" si="210">G130</f>
+        <f t="shared" ref="O130" si="216">G130</f>
         <v>winger</v>
       </c>
       <c r="P130" s="18" t="str">
-        <f t="shared" ref="P130" si="211">H130</f>
+        <f t="shared" ref="P130" si="217">H130</f>
         <v>scoring</v>
       </c>
       <c r="R130" s="14" t="str">
         <f>_xlfn.CONCAT("{",R131,",",R132,",",R133,",",R134,",",R135,",",R136,",",R137,"},")</f>
         <v>{{0,0.1,0,0,0,0},{0,0,0,0,0,0},{0,0,0,0,0,0},{0,0,0.05,0.2,0,0},{0,0,0.1,0,0.05,0.1},{0,0,0.05,0,0.05,0.3},{0,0,0,0,0,0}},</v>
       </c>
-    </row>
-    <row r="131" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U130" s="1" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3" t="s">
         <v>2</v>
       </c>
@@ -17065,31 +17516,35 @@
         <v>0</v>
       </c>
       <c r="L131" s="6">
-        <f t="shared" ref="L131" si="212">D133</f>
+        <f t="shared" ref="L131" si="218">D133</f>
         <v>0</v>
       </c>
       <c r="M131" s="6">
-        <f t="shared" ref="M131" si="213">E133</f>
+        <f t="shared" ref="M131" si="219">E133</f>
         <v>0</v>
       </c>
       <c r="N131" s="6">
-        <f t="shared" ref="N131" si="214">F133</f>
+        <f t="shared" ref="N131" si="220">F133</f>
         <v>0</v>
       </c>
       <c r="O131" s="6">
-        <f t="shared" ref="O131" si="215">G133</f>
+        <f t="shared" ref="O131" si="221">G133</f>
         <v>0</v>
       </c>
       <c r="P131" s="7">
-        <f t="shared" ref="P131" si="216">H133</f>
+        <f t="shared" ref="P131" si="222">H133</f>
         <v>0</v>
       </c>
       <c r="R131" s="14" t="str">
-        <f t="shared" ref="R131:R137" si="217">_xlfn.CONCAT("{",C131,",",D131,",",E131,",",F131,",",G131,",",H131,"}")</f>
+        <f t="shared" ref="R131:R137" si="223">_xlfn.CONCAT("{",C131,",",D131,",",E131,",",F131,",",G131,",",H131,"}")</f>
         <v>{0,0.1,0,0,0,0}</v>
       </c>
-    </row>
-    <row r="132" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U131" s="1" t="str">
+        <f t="shared" ref="U131:U136" si="224">_xlfn.CONCAT("[",C131,",",D131,",",E131,",",F131,",",G131,",",H131,"],")</f>
+        <v>[0,0.1,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B132" s="4" t="s">
         <v>1</v>
       </c>
@@ -17112,7 +17567,7 @@
         <v>0</v>
       </c>
       <c r="J132" s="4" t="str">
-        <f t="shared" ref="J132:J137" si="218">B132</f>
+        <f t="shared" ref="J132:J137" si="225">B132</f>
         <v>CentralDefense</v>
       </c>
       <c r="K132" s="6">
@@ -17120,31 +17575,35 @@
         <v>0</v>
       </c>
       <c r="L132" s="6">
-        <f t="shared" ref="L132" si="219">D132</f>
+        <f t="shared" ref="L132" si="226">D132</f>
         <v>0</v>
       </c>
       <c r="M132" s="6">
-        <f t="shared" ref="M132" si="220">E132</f>
+        <f t="shared" ref="M132" si="227">E132</f>
         <v>0</v>
       </c>
       <c r="N132" s="6">
-        <f t="shared" ref="N132" si="221">F132</f>
+        <f t="shared" ref="N132" si="228">F132</f>
         <v>0</v>
       </c>
       <c r="O132" s="6">
-        <f t="shared" ref="O132" si="222">G132</f>
+        <f t="shared" ref="O132" si="229">G132</f>
         <v>0</v>
       </c>
       <c r="P132" s="7">
-        <f t="shared" ref="P132" si="223">H132</f>
+        <f t="shared" ref="P132" si="230">H132</f>
         <v>0</v>
       </c>
       <c r="R132" s="14" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="223"/>
         <v>{0,0,0,0,0,0}</v>
       </c>
-    </row>
-    <row r="133" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U132" s="1" t="str">
+        <f t="shared" si="224"/>
+        <v>[0,0,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B133" s="4" t="s">
         <v>0</v>
       </c>
@@ -17167,7 +17626,7 @@
         <v>0</v>
       </c>
       <c r="J133" s="4" t="str">
-        <f t="shared" si="218"/>
+        <f t="shared" si="225"/>
         <v>RightDefense</v>
       </c>
       <c r="K133" s="6">
@@ -17183,23 +17642,27 @@
         <v>0</v>
       </c>
       <c r="N133" s="6">
-        <f t="shared" ref="N133" si="224">F131</f>
+        <f t="shared" ref="N133" si="231">F131</f>
         <v>0</v>
       </c>
       <c r="O133" s="6">
-        <f t="shared" ref="O133" si="225">G131</f>
+        <f t="shared" ref="O133" si="232">G131</f>
         <v>0</v>
       </c>
       <c r="P133" s="7">
-        <f t="shared" ref="P133" si="226">H131</f>
+        <f t="shared" ref="P133" si="233">H131</f>
         <v>0</v>
       </c>
       <c r="R133" s="14" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="223"/>
         <v>{0,0,0,0,0,0}</v>
       </c>
-    </row>
-    <row r="134" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U133" s="1" t="str">
+        <f t="shared" si="224"/>
+        <v>[0,0,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B134" s="4" t="s">
         <v>3</v>
       </c>
@@ -17222,7 +17685,7 @@
         <v>0</v>
       </c>
       <c r="J134" s="4" t="str">
-        <f t="shared" si="218"/>
+        <f t="shared" si="225"/>
         <v>MidField</v>
       </c>
       <c r="K134" s="6">
@@ -17230,31 +17693,35 @@
         <v>0</v>
       </c>
       <c r="L134" s="6">
-        <f t="shared" ref="L134" si="227">D134</f>
+        <f t="shared" ref="L134" si="234">D134</f>
         <v>0</v>
       </c>
       <c r="M134" s="6">
-        <f t="shared" ref="M134" si="228">E134</f>
+        <f t="shared" ref="M134" si="235">E134</f>
         <v>0.05</v>
       </c>
       <c r="N134" s="6">
-        <f t="shared" ref="N134" si="229">F134</f>
+        <f t="shared" ref="N134" si="236">F134</f>
         <v>0.2</v>
       </c>
       <c r="O134" s="6">
-        <f t="shared" ref="O134" si="230">G134</f>
+        <f t="shared" ref="O134" si="237">G134</f>
         <v>0</v>
       </c>
       <c r="P134" s="7">
-        <f t="shared" ref="P134" si="231">H134</f>
+        <f t="shared" ref="P134" si="238">H134</f>
         <v>0</v>
       </c>
       <c r="R134" s="14" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="223"/>
         <v>{0,0,0.05,0.2,0,0}</v>
       </c>
-    </row>
-    <row r="135" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U134" s="1" t="str">
+        <f t="shared" si="224"/>
+        <v>[0,0,0.05,0.2,0,0],</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B135" s="4" t="s">
         <v>4</v>
       </c>
@@ -17277,7 +17744,7 @@
         <v>0.1</v>
       </c>
       <c r="J135" s="4" t="str">
-        <f t="shared" si="218"/>
+        <f t="shared" si="225"/>
         <v>LeftAttack</v>
       </c>
       <c r="K135" s="6">
@@ -17285,31 +17752,35 @@
         <v>0</v>
       </c>
       <c r="L135" s="6">
-        <f t="shared" ref="L135" si="232">D137</f>
+        <f t="shared" ref="L135" si="239">D137</f>
         <v>0</v>
       </c>
       <c r="M135" s="6">
-        <f t="shared" ref="M135" si="233">E137</f>
+        <f t="shared" ref="M135" si="240">E137</f>
         <v>0</v>
       </c>
       <c r="N135" s="6">
-        <f t="shared" ref="N135" si="234">F137</f>
+        <f t="shared" ref="N135" si="241">F137</f>
         <v>0</v>
       </c>
       <c r="O135" s="6">
-        <f t="shared" ref="O135" si="235">G137</f>
+        <f t="shared" ref="O135" si="242">G137</f>
         <v>0</v>
       </c>
       <c r="P135" s="7">
-        <f t="shared" ref="P135" si="236">H137</f>
+        <f t="shared" ref="P135" si="243">H137</f>
         <v>0</v>
       </c>
       <c r="R135" s="14" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="223"/>
         <v>{0,0,0.1,0,0.05,0.1}</v>
       </c>
-    </row>
-    <row r="136" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U135" s="1" t="str">
+        <f t="shared" si="224"/>
+        <v>[0,0,0.1,0,0.05,0.1],</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B136" s="4" t="s">
         <v>5</v>
       </c>
@@ -17332,7 +17803,7 @@
         <v>0.3</v>
       </c>
       <c r="J136" s="4" t="str">
-        <f t="shared" si="218"/>
+        <f t="shared" si="225"/>
         <v>CentralAttack</v>
       </c>
       <c r="K136" s="6">
@@ -17340,31 +17811,35 @@
         <v>0</v>
       </c>
       <c r="L136" s="6">
-        <f t="shared" ref="L136" si="237">D136</f>
+        <f t="shared" ref="L136" si="244">D136</f>
         <v>0</v>
       </c>
       <c r="M136" s="6">
-        <f t="shared" ref="M136" si="238">E136</f>
+        <f t="shared" ref="M136" si="245">E136</f>
         <v>0.05</v>
       </c>
       <c r="N136" s="6">
-        <f t="shared" ref="N136" si="239">F136</f>
+        <f t="shared" ref="N136" si="246">F136</f>
         <v>0</v>
       </c>
       <c r="O136" s="6">
-        <f t="shared" ref="O136" si="240">G136</f>
+        <f t="shared" ref="O136" si="247">G136</f>
         <v>0.05</v>
       </c>
       <c r="P136" s="7">
-        <f t="shared" ref="P136" si="241">H136</f>
+        <f t="shared" ref="P136" si="248">H136</f>
         <v>0.3</v>
       </c>
       <c r="R136" s="14" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="223"/>
         <v>{0,0,0.05,0,0.05,0.3}</v>
       </c>
-    </row>
-    <row r="137" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U136" s="1" t="str">
+        <f t="shared" si="224"/>
+        <v>[0,0,0.05,0,0.05,0.3],</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B137" s="5" t="s">
         <v>6</v>
       </c>
@@ -17387,7 +17862,7 @@
         <v>0</v>
       </c>
       <c r="J137" s="5" t="str">
-        <f t="shared" si="218"/>
+        <f t="shared" si="225"/>
         <v>RightAttack</v>
       </c>
       <c r="K137" s="8">
@@ -17395,62 +17870,69 @@
         <v>0</v>
       </c>
       <c r="L137" s="8">
-        <f t="shared" ref="L137" si="242">D135</f>
+        <f t="shared" ref="L137" si="249">D135</f>
         <v>0</v>
       </c>
       <c r="M137" s="8">
-        <f t="shared" ref="M137" si="243">E135</f>
+        <f t="shared" ref="M137" si="250">E135</f>
         <v>0.1</v>
       </c>
       <c r="N137" s="8">
-        <f t="shared" ref="N137" si="244">F135</f>
+        <f t="shared" ref="N137" si="251">F135</f>
         <v>0</v>
       </c>
       <c r="O137" s="8">
-        <f t="shared" ref="O137" si="245">G135</f>
+        <f t="shared" ref="O137" si="252">G135</f>
         <v>0.05</v>
       </c>
       <c r="P137" s="9">
-        <f t="shared" ref="P137" si="246">H135</f>
+        <f t="shared" ref="P137" si="253">H135</f>
         <v>0.1</v>
       </c>
       <c r="R137" s="14" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="223"/>
         <v>{0,0,0,0,0,0}</v>
       </c>
-    </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U137" s="1" t="str">
+        <f>_xlfn.CONCAT("[",C137,",",D137,",",E137,",",F137,",",G137,",",H137,"]")</f>
+        <v>[0,0,0,0,0,0]</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C138" s="1">
         <f>SUM(C131:C137)</f>
         <v>0</v>
       </c>
       <c r="D138" s="1">
-        <f t="shared" ref="D138" si="247">SUM(D131:D137)</f>
+        <f t="shared" ref="D138" si="254">SUM(D131:D137)</f>
         <v>0.1</v>
       </c>
       <c r="E138" s="1">
-        <f t="shared" ref="E138" si="248">SUM(E131:E137)</f>
+        <f t="shared" ref="E138" si="255">SUM(E131:E137)</f>
         <v>0.2</v>
       </c>
       <c r="F138" s="1">
-        <f t="shared" ref="F138" si="249">SUM(F131:F137)</f>
+        <f t="shared" ref="F138" si="256">SUM(F131:F137)</f>
         <v>0.2</v>
       </c>
       <c r="G138" s="1">
-        <f t="shared" ref="G138" si="250">SUM(G131:G137)</f>
+        <f t="shared" ref="G138" si="257">SUM(G131:G137)</f>
         <v>0.1</v>
       </c>
       <c r="H138" s="1">
-        <f t="shared" ref="H138" si="251">SUM(H131:H137)</f>
+        <f t="shared" ref="H138" si="258">SUM(H131:H137)</f>
         <v>0.4</v>
       </c>
       <c r="I138" s="1">
         <f>SUM(C138:H138)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="140" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U138" s="1" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="140" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>13</v>
       </c>
@@ -17479,8 +17961,11 @@
         <f>_xlfn.CONCAT("{",R141,",",R142,",",R143,",",R144,",",R145,",",R146,",",R147,"},")</f>
         <v>{{0,0.025,0,0,0,0},{0,0.05,0,0,0,0},{0,0.025,0,0,0,0},{0,0,0.05,0.2,0,0},{0,0,0.05,0,0.05,0.05},{0,0,0.05,0,0.1,0.2},{0,0,0.05,0,0.05,0.05}},</v>
       </c>
-    </row>
-    <row r="141" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U140" s="1" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B141" s="3" t="s">
         <v>2</v>
       </c>
@@ -17503,11 +17988,15 @@
         <v>0</v>
       </c>
       <c r="R141" s="14" t="str">
-        <f t="shared" ref="R141:R147" si="252">_xlfn.CONCAT("{",C141,",",D141,",",E141,",",F141,",",G141,",",H141,"}")</f>
+        <f t="shared" ref="R141:R147" si="259">_xlfn.CONCAT("{",C141,",",D141,",",E141,",",F141,",",G141,",",H141,"}")</f>
         <v>{0,0.025,0,0,0,0}</v>
       </c>
-    </row>
-    <row r="142" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U141" s="1" t="str">
+        <f t="shared" ref="U141:U146" si="260">_xlfn.CONCAT("[",C141,",",D141,",",E141,",",F141,",",G141,",",H141,"],")</f>
+        <v>[0,0.025,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B142" s="4" t="s">
         <v>1</v>
       </c>
@@ -17530,11 +18019,15 @@
         <v>0</v>
       </c>
       <c r="R142" s="14" t="str">
-        <f t="shared" si="252"/>
+        <f t="shared" si="259"/>
         <v>{0,0.05,0,0,0,0}</v>
       </c>
-    </row>
-    <row r="143" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U142" s="1" t="str">
+        <f t="shared" si="260"/>
+        <v>[0,0.05,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B143" s="4" t="s">
         <v>0</v>
       </c>
@@ -17543,31 +18036,35 @@
         <v>0</v>
       </c>
       <c r="D143" s="6">
-        <f t="shared" ref="D143:H143" si="253">D141</f>
+        <f t="shared" ref="D143:H143" si="261">D141</f>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E143" s="6">
-        <f t="shared" si="253"/>
+        <f t="shared" si="261"/>
         <v>0</v>
       </c>
       <c r="F143" s="6">
-        <f t="shared" si="253"/>
+        <f t="shared" si="261"/>
         <v>0</v>
       </c>
       <c r="G143" s="6">
-        <f t="shared" si="253"/>
+        <f t="shared" si="261"/>
         <v>0</v>
       </c>
       <c r="H143" s="7">
-        <f t="shared" si="253"/>
+        <f t="shared" si="261"/>
         <v>0</v>
       </c>
       <c r="R143" s="14" t="str">
-        <f t="shared" si="252"/>
+        <f t="shared" si="259"/>
         <v>{0,0.025,0,0,0,0}</v>
       </c>
-    </row>
-    <row r="144" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U143" s="1" t="str">
+        <f t="shared" si="260"/>
+        <v>[0,0.025,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B144" s="4" t="s">
         <v>3</v>
       </c>
@@ -17590,11 +18087,15 @@
         <v>0</v>
       </c>
       <c r="R144" s="14" t="str">
-        <f t="shared" si="252"/>
+        <f t="shared" si="259"/>
         <v>{0,0,0.05,0.2,0,0}</v>
       </c>
-    </row>
-    <row r="145" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U144" s="1" t="str">
+        <f t="shared" si="260"/>
+        <v>[0,0,0.05,0.2,0,0],</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B145" s="4" t="s">
         <v>4</v>
       </c>
@@ -17617,11 +18118,15 @@
         <v>0.05</v>
       </c>
       <c r="R145" s="14" t="str">
-        <f t="shared" si="252"/>
+        <f t="shared" si="259"/>
         <v>{0,0,0.05,0,0.05,0.05}</v>
       </c>
-    </row>
-    <row r="146" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U145" s="1" t="str">
+        <f t="shared" si="260"/>
+        <v>[0,0,0.05,0,0.05,0.05],</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B146" s="4" t="s">
         <v>5</v>
       </c>
@@ -17644,11 +18149,15 @@
         <v>0.2</v>
       </c>
       <c r="R146" s="14" t="str">
-        <f t="shared" si="252"/>
+        <f t="shared" si="259"/>
         <v>{0,0,0.05,0,0.1,0.2}</v>
       </c>
-    </row>
-    <row r="147" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U146" s="1" t="str">
+        <f t="shared" si="260"/>
+        <v>[0,0,0.05,0,0.1,0.2],</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B147" s="5" t="s">
         <v>6</v>
       </c>
@@ -17657,62 +18166,69 @@
         <v>0</v>
       </c>
       <c r="D147" s="8">
-        <f t="shared" ref="D147:H147" si="254">D145</f>
+        <f t="shared" ref="D147:H147" si="262">D145</f>
         <v>0</v>
       </c>
       <c r="E147" s="8">
-        <f t="shared" si="254"/>
+        <f t="shared" si="262"/>
         <v>0.05</v>
       </c>
       <c r="F147" s="8">
-        <f t="shared" si="254"/>
+        <f t="shared" si="262"/>
         <v>0</v>
       </c>
       <c r="G147" s="8">
-        <f t="shared" si="254"/>
+        <f t="shared" si="262"/>
         <v>0.05</v>
       </c>
       <c r="H147" s="9">
-        <f t="shared" si="254"/>
+        <f t="shared" si="262"/>
         <v>0.05</v>
       </c>
       <c r="R147" s="14" t="str">
-        <f t="shared" si="252"/>
+        <f t="shared" si="259"/>
         <v>{0,0,0.05,0,0.05,0.05}</v>
       </c>
-    </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U147" s="1" t="str">
+        <f>_xlfn.CONCAT("[",C147,",",D147,",",E147,",",F147,",",G147,",",H147,"]")</f>
+        <v>[0,0,0.05,0,0.05,0.05]</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C148" s="1">
         <f>SUM(C141:C147)</f>
         <v>0</v>
       </c>
       <c r="D148" s="1">
-        <f t="shared" ref="D148" si="255">SUM(D141:D147)</f>
+        <f t="shared" ref="D148" si="263">SUM(D141:D147)</f>
         <v>0.1</v>
       </c>
       <c r="E148" s="1">
-        <f t="shared" ref="E148" si="256">SUM(E141:E147)</f>
+        <f t="shared" ref="E148" si="264">SUM(E141:E147)</f>
         <v>0.2</v>
       </c>
       <c r="F148" s="1">
-        <f t="shared" ref="F148" si="257">SUM(F141:F147)</f>
+        <f t="shared" ref="F148" si="265">SUM(F141:F147)</f>
         <v>0.2</v>
       </c>
       <c r="G148" s="1">
-        <f t="shared" ref="G148" si="258">SUM(G141:G147)</f>
+        <f t="shared" ref="G148" si="266">SUM(G141:G147)</f>
         <v>0.2</v>
       </c>
       <c r="H148" s="1">
-        <f t="shared" ref="H148" si="259">SUM(H141:H147)</f>
+        <f t="shared" ref="H148" si="267">SUM(H141:H147)</f>
         <v>0.3</v>
       </c>
       <c r="I148" s="1">
         <f>SUM(C148:H148)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="150" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U148" s="1" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="150" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>14</v>
       </c>
@@ -17721,300 +18237,334 @@
         <v>rightstriker</v>
       </c>
       <c r="C150" s="17" t="str">
-        <f t="shared" ref="C150:H157" si="260">K130</f>
+        <f t="shared" ref="C150:H157" si="268">K130</f>
         <v>keeper</v>
       </c>
       <c r="D150" s="17" t="str">
-        <f t="shared" si="260"/>
+        <f t="shared" si="268"/>
         <v>defense</v>
       </c>
       <c r="E150" s="17" t="str">
-        <f t="shared" si="260"/>
+        <f t="shared" si="268"/>
         <v>passes</v>
       </c>
       <c r="F150" s="17" t="str">
-        <f t="shared" si="260"/>
+        <f t="shared" si="268"/>
         <v>playmaking</v>
       </c>
       <c r="G150" s="17" t="str">
-        <f t="shared" si="260"/>
+        <f t="shared" si="268"/>
         <v>winger</v>
       </c>
       <c r="H150" s="18" t="str">
-        <f t="shared" si="260"/>
+        <f t="shared" si="268"/>
         <v>scoring</v>
       </c>
       <c r="R150" s="14" t="str">
         <f>_xlfn.CONCAT("{",R151,",",R152,",",R153,",",R154,",",R155,",",R156,",",R157,"},")</f>
         <v>{{0,0,0,0,0,0},{0,0,0,0,0,0},{0,0.1,0,0,0,0},{0,0,0.05,0.2,0,0},{0,0,0,0,0,0},{0,0,0.05,0,0.05,0.3},{0,0,0.1,0,0.05,0.1}},</v>
       </c>
-    </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U150" s="1" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B151" s="4" t="str">
-        <f t="shared" ref="B151:B157" si="261">J131</f>
+        <f t="shared" ref="B151:B157" si="269">J131</f>
         <v>LeftDefense</v>
       </c>
       <c r="C151" s="31">
-        <f t="shared" si="260"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="D151" s="32">
-        <f t="shared" si="260"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="E151" s="32">
-        <f t="shared" si="260"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="F151" s="32">
-        <f t="shared" si="260"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="G151" s="32">
-        <f t="shared" si="260"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="H151" s="33">
-        <f t="shared" si="260"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="R151" s="14" t="str">
-        <f t="shared" ref="R151:R157" si="262">_xlfn.CONCAT("{",C151,",",D151,",",E151,",",F151,",",G151,",",H151,"}")</f>
+        <f t="shared" ref="R151:R157" si="270">_xlfn.CONCAT("{",C151,",",D151,",",E151,",",F151,",",G151,",",H151,"}")</f>
         <v>{0,0,0,0,0,0}</v>
       </c>
-    </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U151" s="1" t="str">
+        <f t="shared" ref="U151:U156" si="271">_xlfn.CONCAT("[",C151,",",D151,",",E151,",",F151,",",G151,",",H151,"],")</f>
+        <v>[0,0,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B152" s="4" t="str">
-        <f t="shared" si="261"/>
+        <f t="shared" si="269"/>
         <v>CentralDefense</v>
       </c>
       <c r="C152" s="34">
-        <f t="shared" si="260"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="D152" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="E152" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="F152" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="G152" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="H152" s="11">
-        <f t="shared" si="260"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="R152" s="14" t="str">
-        <f t="shared" si="262"/>
+        <f t="shared" si="270"/>
         <v>{0,0,0,0,0,0}</v>
       </c>
-    </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U152" s="1" t="str">
+        <f t="shared" si="271"/>
+        <v>[0,0,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B153" s="4" t="str">
-        <f t="shared" si="261"/>
+        <f t="shared" si="269"/>
         <v>RightDefense</v>
       </c>
       <c r="C153" s="34">
-        <f t="shared" si="260"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="D153" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="268"/>
         <v>0.1</v>
       </c>
       <c r="E153" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="F153" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="G153" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="H153" s="11">
-        <f t="shared" si="260"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="R153" s="14" t="str">
-        <f t="shared" si="262"/>
+        <f t="shared" si="270"/>
         <v>{0,0.1,0,0,0,0}</v>
       </c>
-    </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U153" s="1" t="str">
+        <f t="shared" si="271"/>
+        <v>[0,0.1,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B154" s="4" t="str">
-        <f t="shared" si="261"/>
+        <f t="shared" si="269"/>
         <v>MidField</v>
       </c>
       <c r="C154" s="34">
-        <f t="shared" si="260"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="D154" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="E154" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="268"/>
         <v>0.05</v>
       </c>
       <c r="F154" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="268"/>
         <v>0.2</v>
       </c>
       <c r="G154" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="H154" s="11">
-        <f t="shared" si="260"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="R154" s="14" t="str">
-        <f t="shared" si="262"/>
+        <f t="shared" si="270"/>
         <v>{0,0,0.05,0.2,0,0}</v>
       </c>
-    </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U154" s="1" t="str">
+        <f t="shared" si="271"/>
+        <v>[0,0,0.05,0.2,0,0],</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B155" s="4" t="str">
-        <f t="shared" si="261"/>
+        <f t="shared" si="269"/>
         <v>LeftAttack</v>
       </c>
       <c r="C155" s="34">
-        <f t="shared" si="260"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="D155" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="E155" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="F155" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="G155" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="H155" s="11">
-        <f t="shared" si="260"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="R155" s="14" t="str">
-        <f t="shared" si="262"/>
+        <f t="shared" si="270"/>
         <v>{0,0,0,0,0,0}</v>
       </c>
-    </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U155" s="1" t="str">
+        <f t="shared" si="271"/>
+        <v>[0,0,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B156" s="4" t="str">
-        <f t="shared" si="261"/>
+        <f t="shared" si="269"/>
         <v>CentralAttack</v>
       </c>
       <c r="C156" s="34">
-        <f t="shared" si="260"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="D156" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="E156" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="268"/>
         <v>0.05</v>
       </c>
       <c r="F156" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="G156" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="268"/>
         <v>0.05</v>
       </c>
       <c r="H156" s="11">
-        <f t="shared" si="260"/>
+        <f t="shared" si="268"/>
         <v>0.3</v>
       </c>
       <c r="R156" s="14" t="str">
-        <f t="shared" si="262"/>
+        <f t="shared" si="270"/>
         <v>{0,0,0.05,0,0.05,0.3}</v>
       </c>
-    </row>
-    <row r="157" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U156" s="1" t="str">
+        <f t="shared" si="271"/>
+        <v>[0,0,0.05,0,0.05,0.3],</v>
+      </c>
+    </row>
+    <row r="157" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B157" s="5" t="str">
-        <f t="shared" si="261"/>
+        <f t="shared" si="269"/>
         <v>RightAttack</v>
       </c>
       <c r="C157" s="35">
-        <f t="shared" si="260"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="D157" s="12">
-        <f t="shared" si="260"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="E157" s="12">
-        <f t="shared" si="260"/>
+        <f t="shared" si="268"/>
         <v>0.1</v>
       </c>
       <c r="F157" s="12">
-        <f t="shared" si="260"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="G157" s="12">
-        <f t="shared" si="260"/>
+        <f t="shared" si="268"/>
         <v>0.05</v>
       </c>
       <c r="H157" s="13">
-        <f t="shared" si="260"/>
+        <f t="shared" si="268"/>
         <v>0.1</v>
       </c>
       <c r="R157" s="14" t="str">
-        <f t="shared" si="262"/>
+        <f t="shared" si="270"/>
         <v>{0,0,0.1,0,0.05,0.1}</v>
       </c>
-    </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U157" s="1" t="str">
+        <f>_xlfn.CONCAT("[",C157,",",D157,",",E157,",",F157,",",G157,",",H157,"]")</f>
+        <v>[0,0,0.1,0,0.05,0.1]</v>
+      </c>
+    </row>
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C158" s="1">
         <f>SUM(C151:C157)</f>
         <v>0</v>
       </c>
       <c r="D158" s="1">
-        <f t="shared" ref="D158" si="263">SUM(D151:D157)</f>
+        <f t="shared" ref="D158" si="272">SUM(D151:D157)</f>
         <v>0.1</v>
       </c>
       <c r="E158" s="1">
-        <f t="shared" ref="E158" si="264">SUM(E151:E157)</f>
+        <f t="shared" ref="E158" si="273">SUM(E151:E157)</f>
         <v>0.2</v>
       </c>
       <c r="F158" s="1">
-        <f t="shared" ref="F158" si="265">SUM(F151:F157)</f>
+        <f t="shared" ref="F158" si="274">SUM(F151:F157)</f>
         <v>0.2</v>
       </c>
       <c r="G158" s="1">
-        <f t="shared" ref="G158" si="266">SUM(G151:G157)</f>
+        <f t="shared" ref="G158" si="275">SUM(G151:G157)</f>
         <v>0.1</v>
       </c>
       <c r="H158" s="1">
-        <f t="shared" ref="H158" si="267">SUM(H151:H157)</f>
+        <f t="shared" ref="H158" si="276">SUM(H151:H157)</f>
         <v>0.4</v>
       </c>
       <c r="I158" s="1">
         <f>SUM(C158:H158)</f>
         <v>1</v>
+      </c>
+      <c r="U158" s="1" t="s">
+        <v>1602</v>
       </c>
     </row>
   </sheetData>
@@ -18024,6 +18574,338 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921DF34A-6ECA-4204-AE8A-38AC27E7DE2A}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="26.42578125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <f ca="1">RAND()</f>
+        <v>0.19451646771509556</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="36">
+        <v>100</v>
+      </c>
+      <c r="D3" s="37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="38">
+        <v>100</v>
+      </c>
+      <c r="D4" s="39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="38">
+        <v>100</v>
+      </c>
+      <c r="D5" s="39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="38">
+        <v>100</v>
+      </c>
+      <c r="D6" s="39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="38">
+        <v>100</v>
+      </c>
+      <c r="D7" s="39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="38">
+        <v>100</v>
+      </c>
+      <c r="D8" s="39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="40">
+        <v>100</v>
+      </c>
+      <c r="D9" s="41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <f>SUM(C3:C5)</f>
+        <v>300</v>
+      </c>
+      <c r="D10" s="1">
+        <f>SUM(D3:D5)</f>
+        <v>300</v>
+      </c>
+      <c r="F10" s="1">
+        <f>SUM(C10:D10)</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C11" s="1">
+        <f>SUM(C7:C9)</f>
+        <v>300</v>
+      </c>
+      <c r="D11" s="1">
+        <f>SUM(D7:D9)</f>
+        <v>300</v>
+      </c>
+      <c r="F11" s="1">
+        <f>SUM(C11:D11)</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C12" s="1">
+        <f>C8/$C$11</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D12" s="1">
+        <f>D8/$C$11</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F12" s="1">
+        <f>F11/F10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C13" s="1">
+        <f>C12+C7/$C$11</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D13" s="1">
+        <f>D12+D7/$C$11</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C14" s="1">
+        <f>C13+C9/$C$11</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <f>D13+D9/$C$11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C15" s="1">
+        <f>C12*$C$19</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <f>D12*$D$19</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C16" s="1">
+        <f>C13*$C$19</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" ref="D16:D17" si="0">D13*$D$19</f>
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C17" s="1">
+        <f>C14*$C$19</f>
+        <v>0.1</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C18" s="1">
+        <f>C6/(C6+D6)</f>
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="1">
+        <f>1-C18</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B19" s="1">
+        <f>MIN(0.4,MAX(0.1,(1/5)*F12))</f>
+        <v>0.2</v>
+      </c>
+      <c r="C19" s="1">
+        <f>B19*C18</f>
+        <v>0.1</v>
+      </c>
+      <c r="D19" s="1">
+        <f>C19+B19*D18</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C20" s="1" t="b">
+        <f>IF(A1&lt;C19,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="b">
+        <f>IF(AND(C20=FALSE,A1&lt;D19),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C21" s="1" t="b">
+        <f>IF(AND(C20,$A$1&lt;C15),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="b">
+        <f>IF(AND(D20,$A$1&lt;D15),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C22" s="1" t="b">
+        <f>IF(AND(C21,C21=FALSE,$A$1&lt;C16*C20),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="b">
+        <f>IF(AND(D21,D21=FALSE,$A$1&lt;D16*D20),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C23" s="1" t="b">
+        <f>IF(AND(C22,C22=FALSE,$A$1&lt;C17*C20),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="b">
+        <f>IF(AND(D22,D22=FALSE,$A$1&lt;D17*D20),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60432BD9-9520-45DF-929F-DC671CA81FBA}">
   <dimension ref="A10:C92"/>
   <sheetViews>
@@ -18957,7 +19839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACDF6F56-3115-4EA0-ACCE-349D961B88C3}">
   <dimension ref="A10:B19"/>
   <sheetViews>
@@ -19041,11 +19923,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F9185F-01C4-4153-A9C9-E6FBC1F5902A}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -19330,7 +20212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C48BD7BE-3FB6-4C74-86CD-A8DBD21EECA7}">
   <dimension ref="A1:H29"/>
   <sheetViews>
@@ -19675,7 +20557,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29AF976-DF20-4755-BA2E-2FAFD83FFAEC}">
   <dimension ref="A1:J1041"/>
   <sheetViews>
@@ -25041,7 +25923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39D9AE7D-E251-407C-83E5-68098C34D0A8}">
   <dimension ref="A1:S942"/>
   <sheetViews>
@@ -50370,7 +51252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A26C3C4-8FD1-4738-85E0-113A8C3427C6}">
   <dimension ref="A1:D101"/>
   <sheetViews>
